--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
+    <sheet name="鎌の属性" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,9 +24,212 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+  <si>
+    <t>これは最初のステージには出さない</t>
+    <rPh sb="3" eb="5">
+      <t>サイショ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シーンフロー　アルファ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>属性</t>
+    <rPh sb="0" eb="2">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎌属性</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゾクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス変化</t>
+    <rPh sb="5" eb="7">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒の鎌　</t>
+    <rPh sb="0" eb="1">
+      <t>ドク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃スピード普通</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵に当たれば継続ダメージがある　３秒</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力１０の　継続ダメージ１０ダメージ</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力がハート一つ分無い</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火の鎌</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃スピード早い</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾のクールダウンが短い</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミジカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力５</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変化なし</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風の鎌</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クールダウン普通</t>
+    <rPh sb="6" eb="8">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力普通</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力がハート２つ増える</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度が速くなる</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -41,6 +245,33 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -50,7 +281,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -58,15 +289,414 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -83,6 +713,866 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2638424" y="885826"/>
+          <a:ext cx="1695451" cy="514350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲーム起動</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>405246</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>178377</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>405246</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>216476</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2483428" y="2602922"/>
+          <a:ext cx="2078182" cy="523009"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>タイトル画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>274617</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>44533</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587580</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352799" y="4408715"/>
+          <a:ext cx="2391145" cy="520534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ選択画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47007</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>91540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>603663</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>129639</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6974280" y="576449"/>
+          <a:ext cx="1942110" cy="523008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>武器選択画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>575212</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>210292</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>213263</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>5937</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2653394" y="6271656"/>
+          <a:ext cx="1716233" cy="523008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ１</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>127413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>236268</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3151909" y="1582140"/>
+          <a:ext cx="747155" cy="836219"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>17318</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>3463</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="294409" y="8382000"/>
+          <a:ext cx="3186545" cy="523008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ　クリア画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>398318</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>103909</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>452746</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>212764</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="下矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3169227" y="3255818"/>
+          <a:ext cx="747155" cy="836219"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>363682</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>34637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>418110</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>143492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="下矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3134591" y="5126182"/>
+          <a:ext cx="747155" cy="836219"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>294408</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>348836</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>56900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="下矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2014052">
+          <a:off x="1679863" y="7394863"/>
+          <a:ext cx="747155" cy="836219"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>190498</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>244926</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>138546</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="下矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="19815140">
+          <a:off x="5039589" y="7464137"/>
+          <a:ext cx="747155" cy="848591"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>380999</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>103908</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4537363" y="8416637"/>
+          <a:ext cx="3186545" cy="523008"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ゲームオーバー画面</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>415124</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57034</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>362152</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>134870</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3852407" y="1523056"/>
+          <a:ext cx="634484" cy="839836"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>684601</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>248193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175503</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>106098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6184253" y="1465736"/>
+          <a:ext cx="865815" cy="868384"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>665180</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42593</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>329835</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>135616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8227202" y="1508615"/>
+          <a:ext cx="1039568" cy="855023"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -348,13 +1838,357 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O42" sqref="O42"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+    </row>
+    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.4">
+      <c r="K6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="12:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+    </row>
+    <row r="18" spans="12:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="2"/>
+      <c r="K1" s="13"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="3"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B7" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="17"/>
+    </row>
+    <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="18"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="19"/>
+    </row>
+    <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="18"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="19"/>
+    </row>
+    <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="18"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="19"/>
+    </row>
+    <row r="11" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="19"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="18"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="19"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="18"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="19"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="18"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="19"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="19"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="19"/>
+    </row>
+    <row r="17" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="29"/>
+    </row>
+    <row r="18" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="26"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="L7:N10"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L17:N17"/>
+    <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I7:K10"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
-    <sheet name="鎌の属性" sheetId="3" r:id="rId2"/>
+    <sheet name="鎌の属性" sheetId="2" r:id="rId2"/>
+    <sheet name="ステージ" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <customWorkbookViews>
+    <customWorkbookView name="GA1B - 個人用ビュー" guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1616" windowHeight="876" activeSheetId="3"/>
+  </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -229,7 +233,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -272,6 +276,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -604,74 +617,89 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -697,6 +725,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1575,6 +1612,227 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9D4555ED-EA57-40C0-966D-9CF851BB2B73}" diskRevisions="1" revisionId="4" version="4">
+  <header guid="{812A420D-B8C2-4A6B-A929-857407BF411A}" dateTime="2024-10-17T10:16:44" maxSheetId="3" userName="GA1B" r:id="rId1">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{D815E76F-7725-400D-92FA-C86CD175AA15}" dateTime="2024-10-17T10:18:04" maxSheetId="3" userName="GA1B" r:id="rId2">
+    <sheetIdMap count="2">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{65496141-8A62-4055-878A-23323D535775}" dateTime="2024-10-17T10:22:01" maxSheetId="4" userName="GA1B" r:id="rId3" minRId="1" maxRId="2">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9D4555ED-EA57-40C0-966D-9CF851BB2B73}" dateTime="2024-10-17T10:22:28" maxSheetId="4" userName="GA1B" r:id="rId4" minRId="3" maxRId="4">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rfmt sheetId="2" sqref="E11:H11" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="20"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="I11:K11" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="20"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="L11:N11" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <sz val="20"/>
+      </font>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="2" sqref="E11:N16" start="0" length="2147483647">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </rfmt>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <ris rId="1" sheetId="3" name="[死神のお仕事　仕様書.xlsx]ステージ" sheetPosition="2"/>
+  <rfmt sheetId="3" sqref="A1:A4" start="0" length="0">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A1:E1" start="0" length="0">
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E1:E4" start="0" length="0">
+    <dxf>
+      <border>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A4:E4" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A1:E4">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A1:A4" start="0" length="0">
+    <dxf>
+      <border>
+        <left/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A1:E1" start="0" length="0">
+    <dxf>
+      <border>
+        <top/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="E1:E4" start="0" length="0">
+    <dxf>
+      <border>
+        <right/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A4:E4" start="0" length="0">
+    <dxf>
+      <border>
+        <bottom/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rfmt sheetId="3" sqref="A1:E4">
+    <dxf>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+  </rfmt>
+  <rcc rId="2" sId="3">
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>ステージ</t>
+        <phoneticPr fontId="0"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcv guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" action="delete"/>
+  <rcv guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rm rId="3" sheetId="3" source="A1" destination="B3" sourceSheetId="3">
+    <rfmt sheetId="3" sqref="B3" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rm>
+  <rrc rId="4" sId="3" ref="B1:B1048576" action="deleteCol">
+    <rfmt sheetId="3" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
+    <rfmt sheetId="3" sqref="B1" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rfmt sheetId="3" sqref="B2" start="0" length="0">
+      <dxf/>
+    </rfmt>
+    <rcc rId="0" sId="3" dxf="1">
+      <nc r="B3" t="inlineStr">
+        <is>
+          <t>ステージ</t>
+          <phoneticPr fontId="0"/>
+        </is>
+      </nc>
+      <ndxf/>
+    </rcc>
+    <rfmt sheetId="3" sqref="B4" start="0" length="0">
+      <dxf/>
+    </rfmt>
+  </rrc>
+  <rcv guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" action="delete"/>
+  <rcv guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" action="add"/>
+</revisions>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1847,49 +2105,56 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="A2" s="3"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.4">
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="12:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="12:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" scale="55">
+      <selection activeCell="O42" sqref="O42"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="1">
     <mergeCell ref="A1:H2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -1897,286 +2162,291 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="2"/>
-      <c r="K1" s="13"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="10"/>
+      <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18"/>
+      <c r="M7" s="18"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="18"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="19"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="18"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="18"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="24"/>
     </row>
-    <row r="11" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14" t="s">
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14" t="s">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="14"/>
-      <c r="N11" s="19"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="18"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14" t="s">
+      <c r="B12" s="19"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14" t="s">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14" t="s">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="M12" s="14"/>
-      <c r="N12" s="19"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="18"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14" t="s">
+      <c r="B13" s="19"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14" t="s">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14" t="s">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="14"/>
-      <c r="N13" s="19"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="18"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14" t="s">
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14" t="s">
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="M14" s="14"/>
-      <c r="N14" s="19"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14" t="s">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14" t="s">
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14" t="s">
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="14"/>
-      <c r="N15" s="19"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="18"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="14" t="s">
+      <c r="B16" s="19"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="14"/>
-      <c r="N16" s="19"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="29"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="34"/>
     </row>
     <row r="18" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="21"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="30"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="35"/>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" scale="115">
+      <selection activeCell="P15" sqref="P15"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <mergeCells count="31">
-    <mergeCell ref="L7:N10"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
+    <mergeCell ref="L16:N16"/>
+    <mergeCell ref="I7:K10"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="L7:N10"/>
     <mergeCell ref="L15:N15"/>
     <mergeCell ref="L14:N14"/>
     <mergeCell ref="L13:N13"/>
     <mergeCell ref="L12:N12"/>
     <mergeCell ref="L11:N11"/>
-    <mergeCell ref="L16:N16"/>
-    <mergeCell ref="E7:H10"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="I12:K12"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I7:K10"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="E15:H15"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="E17:H17"/>
     <mergeCell ref="E18:H18"/>
@@ -2186,9 +2456,57 @@
     <mergeCell ref="B15:D18"/>
     <mergeCell ref="E11:H11"/>
     <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+    </row>
+  </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}">
+      <selection activeCell="B3" sqref="B3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>
--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
-    <sheet name="鎌の属性" sheetId="2" r:id="rId2"/>
+    <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="ステージ" sheetId="3" r:id="rId3"/>
+    <sheet name="操作" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>これは最初のステージには出さない</t>
     <rPh sb="3" eb="5">
@@ -86,16 +87,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃スピード普通</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>フツウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>敵に当たれば継続ダメージがある　３秒</t>
     <rPh sb="0" eb="1">
       <t>テキ</t>
@@ -112,16 +103,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃力１０の　継続ダメージ１０ダメージ</t>
-    <rPh sb="0" eb="3">
-      <t>コウゲキリョク</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ケイゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>体力がハート一つ分無い</t>
     <rPh sb="0" eb="2">
       <t>タイリョク</t>
@@ -148,16 +129,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>攻撃スピード早い</t>
-    <rPh sb="0" eb="2">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>ハヤ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>弾のクールダウンが短い</t>
     <rPh sb="0" eb="1">
       <t>タマ</t>
@@ -219,12 +190,202 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移動速度が速くなる</t>
+    <t>魂</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力１０の　継続ダメージ合計１０ダメージ</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ケイゾク</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゴウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１ステージに１０個ある</t>
+    <rPh sb="8" eb="9">
+      <t>コ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vキーで取得可能</t>
+    <rPh sb="4" eb="6">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全部集めたら裏BOSSの部屋に行ける</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンブ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <rPh sb="0" eb="2">
+      <t>ハイケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>当たり判定なし</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>落とし穴</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>坂道</t>
+    <rPh sb="0" eb="2">
+      <t>サカミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <rPh sb="0" eb="2">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>十字キーの左右で横移動</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨコ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペースキーでジャンプ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Zキーで弾を撃つ</t>
+    <rPh sb="4" eb="5">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Xキーで魂を取得する</t>
+    <rPh sb="4" eb="5">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃スピード１</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃スピード２倍</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度　１</t>
     <rPh sb="0" eb="4">
       <t>イドウソクド</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>ハヤ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度　１</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度　２倍</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>バイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -233,7 +394,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +446,24 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -294,7 +473,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -611,13 +790,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -627,64 +941,88 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -693,6 +1031,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -702,38 +1097,137 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,228 +2103,501 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>207064</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>207064</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335445</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>140804</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="207064" y="6385890"/>
+          <a:ext cx="815838" cy="1631675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9D4555ED-EA57-40C0-966D-9CF851BB2B73}" diskRevisions="1" revisionId="4" version="4">
-  <header guid="{812A420D-B8C2-4A6B-A929-857407BF411A}" dateTime="2024-10-17T10:16:44" maxSheetId="3" userName="GA1B" r:id="rId1">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{D815E76F-7725-400D-92FA-C86CD175AA15}" dateTime="2024-10-17T10:18:04" maxSheetId="3" userName="GA1B" r:id="rId2">
-    <sheetIdMap count="2">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{65496141-8A62-4055-878A-23323D535775}" dateTime="2024-10-17T10:22:01" maxSheetId="4" userName="GA1B" r:id="rId3" minRId="1" maxRId="2">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-  <header guid="{9D4555ED-EA57-40C0-966D-9CF851BB2B73}" dateTime="2024-10-17T10:22:28" maxSheetId="4" userName="GA1B" r:id="rId4" minRId="3" maxRId="4">
-    <sheetIdMap count="3">
-      <sheetId val="1"/>
-      <sheetId val="2"/>
-      <sheetId val="3"/>
-    </sheetIdMap>
-  </header>
-</headers>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86443</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="2400423"/>
+          <a:ext cx="6486525" cy="3648670"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>183242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>212912</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>21494</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7534301"/>
+          <a:ext cx="6364941" cy="3603428"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>56030</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>30971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>246530</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>162127</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2790265" y="7146706"/>
+          <a:ext cx="7709647" cy="4366980"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673628</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180010</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14814175"/>
+          <a:ext cx="3407863" cy="1916923"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>183496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4796118" y="14802971"/>
+          <a:ext cx="3473823" cy="1954025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>190517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>146394</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="560294" y="18904341"/>
+          <a:ext cx="4941794" cy="2779759"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>60247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>180011</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6420971" y="18774071"/>
+          <a:ext cx="5233147" cy="2943646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
-</file>
-
-<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rfmt sheetId="2" sqref="E11:H11" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="I11:K11" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="L11:N11" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <sz val="20"/>
-      </font>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="2" sqref="E11:N16" start="0" length="2147483647">
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-  </rfmt>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog3.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <ris rId="1" sheetId="3" name="[死神のお仕事　仕様書.xlsx]ステージ" sheetPosition="2"/>
-  <rfmt sheetId="3" sqref="A1:A4" start="0" length="0">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="A1:E1" start="0" length="0">
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="E1:E4" start="0" length="0">
-    <dxf>
-      <border>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="A4:E4" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="A1:E4">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="A1:A4" start="0" length="0">
-    <dxf>
-      <border>
-        <left/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="A1:E1" start="0" length="0">
-    <dxf>
-      <border>
-        <top/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="E1:E4" start="0" length="0">
-    <dxf>
-      <border>
-        <right/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="A4:E4" start="0" length="0">
-    <dxf>
-      <border>
-        <bottom/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rfmt sheetId="3" sqref="A1:E4">
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-  </rfmt>
-  <rcc rId="2" sId="3">
-    <nc r="A1" t="inlineStr">
-      <is>
-        <t>ステージ</t>
-        <phoneticPr fontId="0"/>
-      </is>
-    </nc>
-  </rcc>
-  <rcv guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" action="delete"/>
-  <rcv guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/revisionLog4.xml><?xml version="1.0" encoding="utf-8"?>
-<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <rm rId="3" sheetId="3" source="A1" destination="B3" sourceSheetId="3">
-    <rfmt sheetId="3" sqref="B3" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rm>
-  <rrc rId="4" sId="3" ref="B1:B1048576" action="deleteCol">
-    <rfmt sheetId="3" xfDxf="1" sqref="B1:B1048576" start="0" length="0"/>
-    <rfmt sheetId="3" sqref="B1" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rfmt sheetId="3" sqref="B2" start="0" length="0">
-      <dxf/>
-    </rfmt>
-    <rcc rId="0" sId="3" dxf="1">
-      <nc r="B3" t="inlineStr">
-        <is>
-          <t>ステージ</t>
-          <phoneticPr fontId="0"/>
-        </is>
-      </nc>
-      <ndxf/>
-    </rcc>
-    <rfmt sheetId="3" sqref="B4" start="0" length="0">
-      <dxf/>
-    </rfmt>
-  </rrc>
-  <rcv guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" action="delete"/>
-  <rcv guid="{5A7A80A8-BDA1-499C-B2CC-886800D05AA4}" action="add"/>
-</revisions>
-</file>
-
-<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="2241831"/>
+          <a:ext cx="3819525" cy="2873094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>48448</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6286500"/>
+          <a:ext cx="4163248" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428798</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="8848725"/>
+          <a:ext cx="1905173" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2105,26 +2872,26 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.4">
       <c r="K6" s="1" t="s">
@@ -2160,114 +2927,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="14"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="18"/>
-      <c r="N7" s="23"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="19"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="24"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="19"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="24"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="19"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="24"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
       <c r="E11" s="22" t="s">
         <v>6</v>
       </c>
@@ -2275,148 +3042,204 @@
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
       <c r="L11" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" s="22"/>
+      <c r="N11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="M12" s="23"/>
+      <c r="N12" s="30"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="23"/>
+      <c r="N13" s="30"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="23"/>
+      <c r="N14" s="30"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="37"/>
-    </row>
-    <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="19"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="36"/>
-    </row>
-    <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="19"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
+      <c r="M15" s="23"/>
+      <c r="N15" s="30"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="52" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="M16" s="23"/>
+      <c r="N16" s="30"/>
+    </row>
+    <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+    </row>
+    <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
+    </row>
+    <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="19"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="5"/>
-      <c r="N14" s="36"/>
-    </row>
-    <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5" t="s">
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
+    </row>
+    <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
+    </row>
+    <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="M15" s="5"/>
-      <c r="N15" s="36"/>
-    </row>
-    <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="19"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="5" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="C28" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="36"/>
-    </row>
-    <row r="17" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="19"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="29"/>
-      <c r="N17" s="34"/>
-    </row>
-    <row r="18" spans="2:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="21"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="31"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="33"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="32"/>
-      <c r="N18" s="35"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="49" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2425,7 +3248,11 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="31">
+  <mergeCells count="35">
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="I18:K18"/>
@@ -2460,42 +3287,195 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="67"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="70"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="68"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="70"/>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="71"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="57" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+    </row>
+    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="60"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="62"/>
+    </row>
+    <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="63"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+    </row>
+    <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="66"/>
+      <c r="C28" s="66"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="67"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="68"/>
+      <c r="B29" s="69"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="70"/>
+      <c r="K29" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="71"/>
+      <c r="B30" s="72"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="72"/>
+      <c r="F30" s="72"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
+      <c r="I30" s="73"/>
+    </row>
+    <row r="52" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="57" t="s">
+        <v>26</v>
+      </c>
+      <c r="B53" s="58"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="58"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="58"/>
+      <c r="H53" s="59"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="60"/>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
+      <c r="G54" s="61"/>
+      <c r="H54" s="62"/>
+    </row>
+    <row r="55" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="63"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="64"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="64"/>
+      <c r="H55" s="65"/>
+    </row>
+    <row r="58" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
+    </row>
+    <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A75" s="57" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="59"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A76" s="60"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="61"/>
+      <c r="D76" s="61"/>
+      <c r="E76" s="62"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A77" s="60"/>
+      <c r="B77" s="61"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="62"/>
+    </row>
+    <row r="78" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A78" s="63"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="65"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -2505,8 +3485,178 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
+  <mergeCells count="6">
+    <mergeCell ref="A59:E61"/>
+    <mergeCell ref="A75:E78"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="A7:C9"/>
+    <mergeCell ref="A28:I30"/>
+    <mergeCell ref="A53:H55"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="57" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="84"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="85"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="88"/>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="90"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H11" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="75"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="76"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="80"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="81"/>
+      <c r="K12" s="81"/>
+      <c r="L12" s="81"/>
+      <c r="M12" s="82"/>
+    </row>
+    <row r="27" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H28" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="75"/>
+      <c r="J28" s="75"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="76"/>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H29" s="77"/>
+      <c r="I29" s="78"/>
+      <c r="J29" s="78"/>
+      <c r="K29" s="78"/>
+      <c r="L29" s="79"/>
+    </row>
+    <row r="30" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H30" s="80"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
+      <c r="L30" s="82"/>
+    </row>
+    <row r="38" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F39" s="92" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="93"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="93"/>
+      <c r="J39" s="94"/>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F40" s="4"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="95"/>
+    </row>
+    <row r="41" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F41" s="96"/>
+      <c r="G41" s="97"/>
+      <c r="H41" s="97"/>
+      <c r="I41" s="97"/>
+      <c r="J41" s="98"/>
+    </row>
+    <row r="48" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F49" s="74" t="s">
+        <v>34</v>
+      </c>
+      <c r="G49" s="75"/>
+      <c r="H49" s="75"/>
+      <c r="I49" s="75"/>
+      <c r="J49" s="76"/>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F50" s="77"/>
+      <c r="G50" s="78"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="78"/>
+      <c r="J50" s="79"/>
+    </row>
+    <row r="51" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F51" s="80"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="81"/>
+      <c r="I51" s="81"/>
+      <c r="J51" s="82"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F49:J51"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="H11:M12"/>
+    <mergeCell ref="H28:L30"/>
+    <mergeCell ref="F39:J41"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="ステージ" sheetId="3" r:id="rId3"/>
     <sheet name="操作" sheetId="4" r:id="rId4"/>
+    <sheet name="敵" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>これは最初のステージには出さない</t>
     <rPh sb="3" eb="5">
@@ -386,6 +387,193 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公の対となるような存在を敵にする</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>テキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵はすべて当たり判定があり、
+敵に当たると主人公のHPが１０（ハート１個分）減ってしまう。
+敵からの攻撃も同様。</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="21" eb="24">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ヘ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="53" eb="55">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖職者。
+体力は４０で攻撃はしてこない。
+倒した際に、１回だけ魂を落とす。
+スーパーマリオブラザーズの
+クリボーのような存在。
+移動速度は主人公よりも少し遅い。
+（主人公を基準に0.8倍）</t>
+    <rPh sb="0" eb="3">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="60" eb="62">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="64" eb="68">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="69" eb="72">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オソ</t>
+    </rPh>
+    <rPh sb="82" eb="85">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>キジュン</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと位の高い聖職者。
+HPは６０で主人公に
+向かって攻撃をしてくる。
+普通の聖職者と同じように、倒すと
+１回だけ魂を落とす。
+移動速度は主人公と同じくらい。</t>
+    <rPh sb="4" eb="5">
+      <t>クライ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="55" eb="56">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="65" eb="69">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="70" eb="73">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>オナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SY作成</t>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -394,7 +582,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -464,6 +652,38 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -931,7 +1151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -950,6 +1170,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,129 +1314,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1227,6 +1447,54 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2600,6 +2868,99 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114300" y="3933825"/>
+          <a:ext cx="1714500" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="2000250"/>
+          <a:ext cx="1543050" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -2865,7 +3226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
@@ -2929,317 +3290,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="31"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="32"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="32"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="32"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="33"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="23" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="30"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="23" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="30"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="23" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="30"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="23" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="52" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="23" t="s">
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3249,13 +3610,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -3272,18 +3638,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3296,14 +3657,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="66"/>
@@ -3352,7 +3713,7 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="66"/>
@@ -3427,24 +3788,24 @@
       <c r="A59" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -3541,18 +3902,18 @@
       <c r="B6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -3659,4 +4020,250 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="100"/>
+      <c r="B3" s="100"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="102"/>
+      <c r="C4" s="102"/>
+      <c r="D4" s="102"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="103"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="104"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="106"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="108"/>
+      <c r="C6" s="108"/>
+      <c r="D6" s="108"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="108"/>
+      <c r="G6" s="109"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="107"/>
+      <c r="B7" s="108"/>
+      <c r="C7" s="108"/>
+      <c r="D7" s="108"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="108"/>
+      <c r="G7" s="109"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="110"/>
+      <c r="B8" s="108"/>
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="110"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="108"/>
+      <c r="D9" s="111" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="108"/>
+      <c r="F9" s="108"/>
+      <c r="G9" s="109"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="110"/>
+      <c r="B10" s="108"/>
+      <c r="C10" s="108"/>
+      <c r="D10" s="108"/>
+      <c r="E10" s="108"/>
+      <c r="F10" s="108"/>
+      <c r="G10" s="109"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="110"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="109"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="110"/>
+      <c r="B12" s="108"/>
+      <c r="C12" s="108"/>
+      <c r="D12" s="108"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="108"/>
+      <c r="G12" s="109"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="110"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="108"/>
+      <c r="G13" s="109"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="110"/>
+      <c r="B14" s="108"/>
+      <c r="C14" s="108"/>
+      <c r="D14" s="108"/>
+      <c r="E14" s="108"/>
+      <c r="F14" s="108"/>
+      <c r="G14" s="109"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="110"/>
+      <c r="B15" s="108"/>
+      <c r="C15" s="108"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="109"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="110"/>
+      <c r="B16" s="108"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="108"/>
+      <c r="G16" s="109"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="110"/>
+      <c r="B17" s="108"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="111" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="110"/>
+      <c r="B18" s="108"/>
+      <c r="C18" s="108"/>
+      <c r="D18" s="108"/>
+      <c r="E18" s="108"/>
+      <c r="F18" s="108"/>
+      <c r="G18" s="109"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="110"/>
+      <c r="B19" s="108"/>
+      <c r="C19" s="108"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="109"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="110"/>
+      <c r="B20" s="108"/>
+      <c r="C20" s="108"/>
+      <c r="D20" s="108"/>
+      <c r="E20" s="108"/>
+      <c r="F20" s="108"/>
+      <c r="G20" s="109"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="110"/>
+      <c r="B21" s="108"/>
+      <c r="C21" s="108"/>
+      <c r="D21" s="108"/>
+      <c r="E21" s="108"/>
+      <c r="F21" s="108"/>
+      <c r="G21" s="109"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="110"/>
+      <c r="B22" s="108"/>
+      <c r="C22" s="108"/>
+      <c r="D22" s="108"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="108"/>
+      <c r="G22" s="109"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="110"/>
+      <c r="B23" s="108"/>
+      <c r="C23" s="108"/>
+      <c r="D23" s="108"/>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="109"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="112"/>
+      <c r="B24" s="113"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="113"/>
+      <c r="G24" s="114"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A6:G8"/>
+    <mergeCell ref="A9:C16"/>
+    <mergeCell ref="D9:G16"/>
+    <mergeCell ref="A17:C24"/>
+    <mergeCell ref="D17:G24"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -1170,6 +1170,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1233,94 +1317,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3297,310 +3297,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="39"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="54"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="40"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="54"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="40"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="54"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="40"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="41" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41" t="s">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="54"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="35" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="54"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="35" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="54"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="35" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="54"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="35" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="35" t="s">
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="54"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="56"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="34"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3610,18 +3610,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -3638,13 +3633,18 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3664,7 +3664,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="66"/>
@@ -3713,7 +3713,7 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="66"/>
@@ -3788,24 +3788,24 @@
       <c r="A59" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -3902,18 +3902,18 @@
       <c r="B6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4027,12 +4027,12 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="99" t="s">
         <v>40</v>
       </c>
@@ -4254,16 +4254,17 @@
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A17:C24"/>
+    <mergeCell ref="D17:G24"/>
     <mergeCell ref="A1:D3"/>
     <mergeCell ref="A4:G5"/>
     <mergeCell ref="A6:G8"/>
     <mergeCell ref="A9:C16"/>
     <mergeCell ref="D9:G16"/>
-    <mergeCell ref="A17:C24"/>
-    <mergeCell ref="D17:G24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,14 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
     <sheet name="アイテム" sheetId="2" r:id="rId2"/>
     <sheet name="ステージ" sheetId="3" r:id="rId3"/>
-    <sheet name="操作" sheetId="4" r:id="rId4"/>
-    <sheet name="敵" sheetId="5" r:id="rId5"/>
+    <sheet name="ステージ２" sheetId="8" r:id="rId4"/>
+    <sheet name="ステージ３" sheetId="9" r:id="rId5"/>
+    <sheet name="ステージ４" sheetId="10" r:id="rId6"/>
+    <sheet name="ステージ５" sheetId="11" r:id="rId7"/>
+    <sheet name="操作" sheetId="4" r:id="rId8"/>
+    <sheet name="敵" sheetId="5" r:id="rId9"/>
+    <sheet name="タイトル" sheetId="6" r:id="rId10"/>
+    <sheet name="エンディング" sheetId="7" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -1170,6 +1176,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1200,129 +1320,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1447,6 +1453,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1475,27 +1502,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3226,7 +3232,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="O42" sqref="O42"/>
     </sheetView>
   </sheetViews>
@@ -3286,321 +3292,347 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="31"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="32"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="32"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="32"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="33"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="23" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23" t="s">
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="30"/>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="23" t="s">
+      <c r="B13" s="54"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23" t="s">
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="30"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="23" t="s">
+      <c r="B14" s="54"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23" t="s">
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23" t="s">
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="30"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23" t="s">
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23" t="s">
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="30"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="23" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="52" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="23" t="s">
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3610,13 +3642,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -3633,18 +3670,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3657,14 +3689,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="66"/>
@@ -3713,7 +3745,7 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="44" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="66"/>
@@ -3788,24 +3820,24 @@
       <c r="A59" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -3863,6 +3895,58 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3902,18 +3986,18 @@
       <c r="B6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4022,235 +4106,235 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="100"/>
-      <c r="D1" s="100"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
+      <c r="A2" s="107"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
       <c r="F2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="100"/>
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
+      <c r="A3" s="107"/>
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="107"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="101" t="s">
+      <c r="A4" s="108" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="102"/>
-      <c r="C4" s="102"/>
-      <c r="D4" s="102"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="103"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="110"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="104"/>
-      <c r="B5" s="105"/>
-      <c r="C5" s="105"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="106"/>
+      <c r="A5" s="111"/>
+      <c r="B5" s="112"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="112"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="113"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="114" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="108"/>
-      <c r="D6" s="108"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="108"/>
-      <c r="G6" s="109"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
+      <c r="G6" s="104"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="107"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="108"/>
-      <c r="D7" s="108"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="108"/>
-      <c r="G7" s="109"/>
+      <c r="A7" s="114"/>
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="100"/>
+      <c r="E7" s="100"/>
+      <c r="F7" s="100"/>
+      <c r="G7" s="104"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="110"/>
-      <c r="B8" s="108"/>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="104"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="110"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="111" t="s">
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="103" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="108"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="109"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="104"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="110"/>
-      <c r="B10" s="108"/>
-      <c r="C10" s="108"/>
-      <c r="D10" s="108"/>
-      <c r="E10" s="108"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="109"/>
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="104"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="110"/>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="109"/>
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="104"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="110"/>
-      <c r="B12" s="108"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="109"/>
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="104"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="110"/>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="108"/>
-      <c r="G13" s="109"/>
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="104"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="110"/>
-      <c r="B14" s="108"/>
-      <c r="C14" s="108"/>
-      <c r="D14" s="108"/>
-      <c r="E14" s="108"/>
-      <c r="F14" s="108"/>
-      <c r="G14" s="109"/>
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="104"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="110"/>
-      <c r="B15" s="108"/>
-      <c r="C15" s="108"/>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="109"/>
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="104"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="110"/>
-      <c r="B16" s="108"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="108"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="109"/>
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="104"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="110"/>
-      <c r="B17" s="108"/>
-      <c r="C17" s="108"/>
-      <c r="D17" s="111" t="s">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="103" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="104"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="110"/>
-      <c r="B18" s="108"/>
-      <c r="C18" s="108"/>
-      <c r="D18" s="108"/>
-      <c r="E18" s="108"/>
-      <c r="F18" s="108"/>
-      <c r="G18" s="109"/>
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="104"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="110"/>
-      <c r="B19" s="108"/>
-      <c r="C19" s="108"/>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="109"/>
+      <c r="A19" s="99"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="100"/>
+      <c r="E19" s="100"/>
+      <c r="F19" s="100"/>
+      <c r="G19" s="104"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="110"/>
-      <c r="B20" s="108"/>
-      <c r="C20" s="108"/>
-      <c r="D20" s="108"/>
-      <c r="E20" s="108"/>
-      <c r="F20" s="108"/>
-      <c r="G20" s="109"/>
+      <c r="A20" s="99"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="100"/>
+      <c r="E20" s="100"/>
+      <c r="F20" s="100"/>
+      <c r="G20" s="104"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="110"/>
-      <c r="B21" s="108"/>
-      <c r="C21" s="108"/>
-      <c r="D21" s="108"/>
-      <c r="E21" s="108"/>
-      <c r="F21" s="108"/>
-      <c r="G21" s="109"/>
+      <c r="A21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="104"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="110"/>
-      <c r="B22" s="108"/>
-      <c r="C22" s="108"/>
-      <c r="D22" s="108"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="109"/>
+      <c r="A22" s="99"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="100"/>
+      <c r="E22" s="100"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="104"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="110"/>
-      <c r="B23" s="108"/>
-      <c r="C23" s="108"/>
-      <c r="D23" s="108"/>
-      <c r="E23" s="108"/>
-      <c r="F23" s="108"/>
-      <c r="G23" s="109"/>
+      <c r="A23" s="99"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="100"/>
+      <c r="E23" s="100"/>
+      <c r="F23" s="100"/>
+      <c r="G23" s="104"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="112"/>
-      <c r="B24" s="113"/>
-      <c r="C24" s="113"/>
-      <c r="D24" s="113"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -1176,6 +1176,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,94 +1323,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2739,6 +2739,296 @@
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152400" y="133350"/>
+          <a:ext cx="47186850" cy="28346400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>450272</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>69273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>34636</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>17319</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="450272" y="311728"/>
+          <a:ext cx="4433455" cy="1645227"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000"/>
+            <a:t>ステージ２</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>288718</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>202128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487383</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>49482</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="288718" y="5536128"/>
+          <a:ext cx="5047756" cy="1302081"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1"/>
+            <a:t>動く床を追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>346363</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>75457</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>237506</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9897</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="角丸四角形 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6580908" y="5409457"/>
+          <a:ext cx="8203871" cy="1389167"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1"/>
+            <a:t>攻撃してくる敵を追加</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>363681</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>640772</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="角丸四角形 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="363681" y="2961410"/>
+          <a:ext cx="5126182" cy="1506682"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1"/>
+            <a:t>舞台は町</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2874,7 +3164,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3329,310 +3619,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="39"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="31"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="54"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="40"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="54"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="40"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="54"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="40"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="41" t="s">
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41" t="s">
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="41"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="33"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="54"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="35" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35" t="s">
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="30"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="54"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="35" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35" t="s">
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="30"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="54"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="17"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="30"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="35" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35" t="s">
+      <c r="J15" s="23"/>
+      <c r="K15" s="23"/>
+      <c r="L15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="30"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="54"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="35" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="35" t="s">
+      <c r="J16" s="53"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="30"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="54"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="56"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="34"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="29"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="42"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="45"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="48"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
+      <c r="D29" s="50"/>
+      <c r="E29" s="50"/>
+      <c r="F29" s="51"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3642,18 +3932,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -3670,13 +3955,18 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3689,14 +3979,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q77" sqref="Q77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="66"/>
@@ -3745,7 +4035,7 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="66"/>
@@ -3820,24 +4110,24 @@
       <c r="A59" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
+      <c r="A60" s="9"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="10"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="11"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="14"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -3897,12 +4187,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AB111" sqref="AB111"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3986,18 +4279,18 @@
       <c r="B6" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="14"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>これは最初のステージには出さない</t>
     <rPh sb="3" eb="5">
@@ -261,10 +261,6 @@
     <rPh sb="0" eb="2">
       <t>ハイケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オブジェクト</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -588,7 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -690,6 +686,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1157,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,6 +1180,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1206,127 +1324,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1502,6 +1506,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2429,15 +2460,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>9648</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>57273</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>86443</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2460,8 +2491,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="2400423"/>
-          <a:ext cx="6486525" cy="3648670"/>
+          <a:off x="0" y="5534148"/>
+          <a:ext cx="6529388" cy="3648670"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2473,25 +2504,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>183242</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>212912</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>21494</xdr:rowOff>
+      <xdr:colOff>155863</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>145675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>136764</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>180010</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPr id="5" name="図 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2504,8 +2535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7534301"/>
-          <a:ext cx="6364941" cy="3603428"/>
+          <a:off x="155863" y="15177857"/>
+          <a:ext cx="3444537" cy="1973971"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2516,26 +2547,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>56030</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>30971</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>246530</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>162127</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>67235</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>183496</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="6" name="図 5"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2548,8 +2579,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2790265" y="7146706"/>
-          <a:ext cx="7709647" cy="4366980"/>
+          <a:off x="4796118" y="14802971"/>
+          <a:ext cx="3473823" cy="1954025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2561,25 +2592,25 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>145675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>673628</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>180010</xdr:rowOff>
+      <xdr:colOff>560294</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>190517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>146394</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="7" name="図 6"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2592,8 +2623,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14814175"/>
-          <a:ext cx="3407863" cy="1916923"/>
+          <a:off x="560294" y="18904341"/>
+          <a:ext cx="4941794" cy="2779759"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2604,26 +2635,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>11206</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>112059</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>67235</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>183496</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>268942</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>60247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>180011</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPr id="8" name="図 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2636,8 +2667,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4796118" y="14802971"/>
-          <a:ext cx="3473823" cy="1954025"/>
+          <a:off x="6420971" y="18774071"/>
+          <a:ext cx="5233147" cy="2943646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2646,28 +2677,225 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3073" name="Text Box 1"/>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7543800" y="4314825"/>
+          <a:ext cx="381000" cy="371475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>else</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>    //空中</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>    nowAnime = jumpAnime;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>if (nowAnime != oldAnime)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>{</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>    oldAnime = nowAnime;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>    animator.Play(nowAnime);  //アニメーション再生</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="游ゴシック"/>
+              <a:ea typeface="游ゴシック"/>
+            </a:rPr>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>560294</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>190517</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>146394</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>106075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>673628</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>136080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPr id="10" name="図 9"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2680,8 +2908,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="560294" y="18904341"/>
-          <a:ext cx="4941794" cy="2779759"/>
+          <a:off x="0" y="9154825"/>
+          <a:ext cx="3435878" cy="1935005"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2692,26 +2920,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241156</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>268942</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>60247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>180011</xdr:rowOff>
+      <xdr:colOff>222057</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146593</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPr id="11" name="図 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2724,8 +2952,1944 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6420971" y="18774071"/>
-          <a:ext cx="5233147" cy="2943646"/>
+          <a:off x="3003406" y="9165338"/>
+          <a:ext cx="3433714" cy="1935005"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>188336</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>112568</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>169235</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>146903</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5712836" y="9161318"/>
+          <a:ext cx="3433712" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>474085</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>454985</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8760835" y="9191625"/>
+          <a:ext cx="3433713" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>457151</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>201023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11525250" y="9215438"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>480964</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177210</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14311313" y="9191625"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>647651</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>201023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17240250" y="9215438"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>480963</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>201023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19835812" y="9215438"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>480964</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>81960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19835813" y="7429500"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>290463</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>34335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21026437" y="6191250"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>147589</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>34335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22264688" y="5238750"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>452437</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>433339</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>10523</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23241000" y="5214938"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>500063</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>480965</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>129585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23288626" y="6524625"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>261937</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>242839</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>201022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23050500" y="7786687"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>457152</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>58147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23264813" y="8120062"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>338090</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>34335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="23145751" y="9286875"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>671465</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>201023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29003626" y="9453563"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>214312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>647652</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>10522</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28979813" y="7596187"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>52338</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>129585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29075062" y="5810250"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>147589</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>81960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29170313" y="5048250"/>
+          <a:ext cx="3433714" cy="1939335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>366664</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>34335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31927800" y="9334500"/>
+          <a:ext cx="3414664" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>323801</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>148635</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31889700" y="7620000"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>95201</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>186735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31661100" y="5829300"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>400001</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>224835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34023300" y="7010400"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>590501</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>110535</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="34213800" y="8724900"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>171401</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>34335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35852100" y="8648700"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>19001</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>72435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35013900" y="9601200"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>209501</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>72435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37947600" y="9601200"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>438101</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>186735</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40919400" y="9715500"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>323801</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>205785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43548300" y="9753600"/>
+          <a:ext cx="3409901" cy="1844085"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>590501</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42443400" y="4533900"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>590501</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>224835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45186600" y="4419600"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>133301</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>72435</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="図 45"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48158400" y="4533900"/>
+          <a:ext cx="3409901" cy="1863135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>165</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>129585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45434250" y="12096750"/>
+          <a:ext cx="64674750" cy="2320335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>154</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>224835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65627250" y="5619750"/>
+          <a:ext cx="37338000" cy="2320335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>117</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>129585</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="66389250" y="1524000"/>
+          <a:ext cx="11715750" cy="2320335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>152</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>224835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="86391750" y="1619250"/>
+          <a:ext cx="15430500" cy="2320335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>161</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>270</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>34335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="107918250" y="12287250"/>
+          <a:ext cx="72580500" cy="2320335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>162</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>204</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>34335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="108489750" y="9715500"/>
+          <a:ext cx="27622500" cy="2320335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>166</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>204</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>224835</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="111252000" y="7620000"/>
+          <a:ext cx="24860250" cy="2320335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>172</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>203</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>34335</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="114776250" y="5143500"/>
+          <a:ext cx="21050250" cy="2320335"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>242</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>283</xdr:col>
+      <xdr:colOff>232420</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>148597</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="161734500" y="0"/>
+          <a:ext cx="27188170" cy="15293347"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>291430</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>104396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="3619500"/>
+          <a:ext cx="17626930" cy="9915146"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>169181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>49898</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="図 55"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905501" y="3883931"/>
+          <a:ext cx="19145249" cy="10739217"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>143296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>145147</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44100750" y="3286546"/>
+          <a:ext cx="22383750" cy="12574851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>130</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>138360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="73342500" y="0"/>
+          <a:ext cx="13525500" cy="7567860"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2742,13 +4906,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>304800</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
       <xdr:row>99</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
@@ -2759,8 +4923,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="152400" y="133350"/>
-          <a:ext cx="47186850" cy="28346400"/>
+          <a:off x="304800" y="133350"/>
+          <a:ext cx="69037200" cy="22688550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2855,16 +5019,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>288718</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>202128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>487383</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>49482</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>687037</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>80900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>192975</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>170709</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2873,7 +5037,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="288718" y="5536128"/>
+          <a:off x="6228855" y="2990355"/>
           <a:ext cx="5047756" cy="1302081"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2912,16 +5076,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>346363</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>75457</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>237506</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9897</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>34635</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>58138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>618506</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>235033</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2930,7 +5094,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6580908" y="5409457"/>
+          <a:off x="11810999" y="2967593"/>
           <a:ext cx="8203871" cy="1389167"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2970,15 +5134,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>363681</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>51955</xdr:rowOff>
+      <xdr:colOff>294409</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>640772</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>103910</xdr:rowOff>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>155865</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2987,7 +5151,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="363681" y="2961410"/>
+          <a:off x="294409" y="2770910"/>
           <a:ext cx="5126182" cy="1506682"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3017,7 +5181,581 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1"/>
-            <a:t>舞台は町</a:t>
+            <a:t>背景は町</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>124783</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="20535900"/>
+          <a:ext cx="5638800" cy="2220283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>77158</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505575" y="18249900"/>
+          <a:ext cx="6791326" cy="1715458"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>220033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14820900" y="15373350"/>
+          <a:ext cx="12687300" cy="2220283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>181933</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18402300" y="12801600"/>
+          <a:ext cx="5791200" cy="1096333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>105733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="図 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="27241500" y="20288250"/>
+          <a:ext cx="11010900" cy="2220283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>29533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37414200" y="17487900"/>
+          <a:ext cx="6553200" cy="1744033"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>220033</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42481500" y="14687550"/>
+          <a:ext cx="15916274" cy="2220283"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>334432</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52082699" y="10515600"/>
+          <a:ext cx="8602133" cy="4838700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="下矢印 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8115300" y="13296900"/>
+          <a:ext cx="3924300" cy="3543300"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="角丸四角形 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5562600" y="10020300"/>
+          <a:ext cx="8648700" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="9600" b="1"/>
+            <a:t>上下に動く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="下矢印 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38900100" y="13792200"/>
+          <a:ext cx="1981200" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="角丸四角形 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="35623500" y="9467850"/>
+          <a:ext cx="8648700" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="9600" b="1"/>
+            <a:t>上下に動く</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3619,310 +6357,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="44" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="8"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="9"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
+      <c r="A3" s="47"/>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="12"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="31"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="37"/>
+      <c r="N7" s="39"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="18"/>
-      <c r="N8" s="32"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="40"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="32"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="40"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="32"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="22" t="s">
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22" t="s">
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="33"/>
+      <c r="M11" s="41"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="23" t="s">
+      <c r="B12" s="54"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
+      <c r="I12" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23" t="s">
+      <c r="J12" s="35"/>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36"/>
+    </row>
+    <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="54"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="M13" s="35"/>
+      <c r="N13" s="36"/>
+    </row>
+    <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="54"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="35"/>
+      <c r="N14" s="36"/>
+    </row>
+    <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="M15" s="35"/>
+      <c r="N15" s="36"/>
+    </row>
+    <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="54"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="M12" s="23"/>
-      <c r="N12" s="30"/>
-    </row>
-    <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="23"/>
-      <c r="N13" s="30"/>
-    </row>
-    <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="23"/>
-      <c r="N14" s="30"/>
-    </row>
-    <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="23"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="23"/>
-      <c r="N15" s="30"/>
-    </row>
-    <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="17"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="23" t="s">
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="35"/>
+      <c r="I16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="52" t="s">
+      <c r="J16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="J16" s="53"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="M16" s="23"/>
-      <c r="N16" s="30"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="36"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="17"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="33"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
-      <c r="K18" s="56"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="29"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="34"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="34" t="s">
+      <c r="A21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="37"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="37"/>
-      <c r="B23" s="38"/>
-      <c r="C23" s="38"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="40"/>
-      <c r="B24" s="41"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="42"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="45"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="46" t="s">
+      <c r="C28" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="48"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="49" t="s">
+      <c r="C29" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="50"/>
-      <c r="F29" s="51"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="23"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -3932,13 +6670,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -3955,18 +6698,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3979,14 +6717,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q77" sqref="Q77"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="CI105" sqref="CI105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="66"/>
@@ -4035,47 +6773,45 @@
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="115"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="116"/>
+      <c r="F28" s="116"/>
+      <c r="G28" s="116"/>
+      <c r="H28" s="116"/>
+      <c r="I28" s="117"/>
+    </row>
+    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="118"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="119"/>
+      <c r="G29" s="119"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="66"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="66"/>
-      <c r="F28" s="66"/>
-      <c r="G28" s="66"/>
-      <c r="H28" s="66"/>
-      <c r="I28" s="67"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="68"/>
-      <c r="B29" s="69"/>
-      <c r="C29" s="69"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="69"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="70"/>
-      <c r="K29" s="3" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="30" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="71"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="73"/>
+      <c r="A30" s="121"/>
+      <c r="B30" s="122"/>
+      <c r="C30" s="122"/>
+      <c r="D30" s="122"/>
+      <c r="E30" s="122"/>
+      <c r="F30" s="122"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="123"/>
     </row>
     <row r="52" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="57" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B53" s="58"/>
       <c r="C53" s="58"/>
@@ -4108,31 +6844,31 @@
     <row r="58" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="57" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
-      <c r="B59" s="7"/>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="8"/>
+      <c r="B59" s="45"/>
+      <c r="C59" s="45"/>
+      <c r="D59" s="45"/>
+      <c r="E59" s="46"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="9"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="11"/>
+      <c r="A60" s="47"/>
+      <c r="B60" s="48"/>
+      <c r="C60" s="48"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="49"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="12"/>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="13"/>
-      <c r="E61" s="14"/>
+      <c r="A61" s="50"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="52"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="57" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B75" s="58"/>
       <c r="C75" s="58"/>
@@ -4168,12 +6904,11 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="A59:E61"/>
     <mergeCell ref="A75:E78"/>
     <mergeCell ref="A1:E4"/>
     <mergeCell ref="A7:C9"/>
-    <mergeCell ref="A28:I30"/>
     <mergeCell ref="A53:H55"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
@@ -4187,8 +6922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AB111" sqref="AB111"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="AB102" sqref="AB102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4250,7 +6985,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="57" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="83"/>
       <c r="C1" s="83"/>
@@ -4277,25 +7012,25 @@
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="B6" s="91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="9"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="49"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="12"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="H11" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I11" s="75"/>
       <c r="J11" s="75"/>
@@ -4314,7 +7049,7 @@
     <row r="27" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="8:12" x14ac:dyDescent="0.4">
       <c r="H28" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I28" s="75"/>
       <c r="J28" s="75"/>
@@ -4338,7 +7073,7 @@
     <row r="38" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F39" s="92" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G39" s="93"/>
       <c r="H39" s="93"/>
@@ -4362,7 +7097,7 @@
     <row r="48" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="49" spans="6:10" x14ac:dyDescent="0.4">
       <c r="F49" s="74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G49" s="75"/>
       <c r="H49" s="75"/>
@@ -4411,7 +7146,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="106" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="107"/>
       <c r="C1" s="107"/>
@@ -4423,7 +7158,7 @@
       <c r="C2" s="107"/>
       <c r="D2" s="107"/>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
@@ -4434,7 +7169,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="109"/>
       <c r="C4" s="109"/>
@@ -4454,7 +7189,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="100"/>
       <c r="C6" s="100"/>
@@ -4486,7 +7221,7 @@
       <c r="B9" s="100"/>
       <c r="C9" s="100"/>
       <c r="D9" s="103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="100"/>
       <c r="F9" s="100"/>
@@ -4560,7 +7295,7 @@
       <c r="B17" s="100"/>
       <c r="C17" s="100"/>
       <c r="D17" s="103" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E17" s="100"/>
       <c r="F17" s="100"/>

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -1174,12 +1174,123 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1243,94 +1354,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1506,33 +1533,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5543,15 +5543,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5560,7 +5560,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8115300" y="13296900"/>
+          <a:off x="8153400" y="12420600"/>
           <a:ext cx="3924300" cy="3543300"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -5653,16 +5653,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>59</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5671,7 +5671,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38900100" y="13792200"/>
+          <a:off x="39090600" y="12230100"/>
           <a:ext cx="1981200" cy="2857500"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -5707,16 +5707,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>64</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5725,7 +5725,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="35623500" y="9467850"/>
+          <a:off x="35737800" y="9658350"/>
           <a:ext cx="8648700" cy="2514600"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -5762,10 +5762,1212 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60972</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>129547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1752600" y="17868900"/>
+          <a:ext cx="5852172" cy="3291847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>213372</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>53347</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22479000" y="12763500"/>
+          <a:ext cx="5852172" cy="3291847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>175272</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>205747</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29984700" y="17487900"/>
+          <a:ext cx="5852172" cy="3291847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>66296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>9146</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="18354296"/>
+          <a:ext cx="3962400" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="23279100"/>
+          <a:ext cx="69227700" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="下矢印 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="54063900" y="20154900"/>
+          <a:ext cx="3200400" cy="2705100"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>448235</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>571499</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="49664470" y="18713824"/>
+          <a:ext cx="7642411" cy="2382370"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="9600" b="1"/>
+            <a:t>落下死亡</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19773900" y="10058400"/>
+          <a:ext cx="2743200" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28346400" y="15944850"/>
+          <a:ext cx="2743200" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40081200" y="18230850"/>
+          <a:ext cx="2743200" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37299900" y="12363450"/>
+          <a:ext cx="2743200" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="15259050"/>
+          <a:ext cx="2743200" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>365772</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>110497</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13716000" y="12820650"/>
+          <a:ext cx="5852172" cy="3291847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>480072</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>186697</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48806100" y="11982450"/>
+          <a:ext cx="5852172" cy="3291847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="下矢印 32"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50558700" y="9563100"/>
+          <a:ext cx="2133600" cy="2247900"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="角丸四角形 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46796324" y="8372475"/>
+          <a:ext cx="6829425" cy="1638300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1"/>
+            <a:t>弾を撃ってくる敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="下矢印 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24498300" y="11239500"/>
+          <a:ext cx="1828800" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>207066</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>57978</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="角丸四角形 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22952765" y="10295283"/>
+          <a:ext cx="7353300" cy="1550504"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6600" b="1"/>
+            <a:t>弾を撃ってくる敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="下矢印 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31927800" y="15830550"/>
+          <a:ext cx="1828800" cy="1600200"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>134178</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>116784</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="角丸四角形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="29146500" y="14420850"/>
+          <a:ext cx="7335078" cy="1469334"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6600" b="1"/>
+            <a:t>弾を撃ってくる敵</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="図 38"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26898600" y="18154651"/>
+          <a:ext cx="3467100" cy="1085850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="下矢印 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="14187856">
+          <a:off x="24726901" y="18345150"/>
+          <a:ext cx="1981200" cy="2857500"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="角丸四角形 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16687800" y="19716750"/>
+          <a:ext cx="8648700" cy="2514600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="9600" b="1"/>
+            <a:t>上下に動く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>225137</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="23656636" cy="10650682"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -5902,7 +7104,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -6267,26 +7469,26 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.4">
       <c r="K6" s="1" t="s">
@@ -6357,310 +7559,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="49"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="47"/>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="49"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="52"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
-      <c r="M7" s="37"/>
-      <c r="N7" s="39"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="54"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="38"/>
-      <c r="N8" s="40"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="54"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="40"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="41"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="54"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="38"/>
-      <c r="N10" s="40"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="41" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="41"/>
+      <c r="M11" s="31"/>
       <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="54"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="35" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="35"/>
-      <c r="L12" s="35" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="54"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="35" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="36"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="54"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="35" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="35" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="35"/>
-      <c r="L14" s="35" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="35"/>
-      <c r="N14" s="36"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="55" t="s">
+      <c r="B15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="35" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35" t="s">
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="36"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="54"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="35" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="24" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="35" t="s">
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="54"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="29"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="33"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="56"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="31"/>
-      <c r="N18" s="34"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="8"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="9"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="9"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="11"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="20"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="23"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6670,18 +7872,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -6698,13 +7895,18 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6724,177 +7926,177 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="67"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="76"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="70"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="68"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="70"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="73"/>
+      <c r="A4" s="80"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="82"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
+      <c r="B7" s="67"/>
+      <c r="C7" s="68"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="60"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="63"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="115"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="116"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="117"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="118"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="119"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
       <c r="K29" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="121"/>
-      <c r="B30" s="122"/>
-      <c r="C30" s="122"/>
-      <c r="D30" s="122"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="122"/>
-      <c r="G30" s="122"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="123"/>
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
     </row>
     <row r="52" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="57" t="s">
+      <c r="A53" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B53" s="58"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="58"/>
-      <c r="E53" s="58"/>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
-      <c r="H53" s="59"/>
+      <c r="B53" s="67"/>
+      <c r="C53" s="67"/>
+      <c r="D53" s="67"/>
+      <c r="E53" s="67"/>
+      <c r="F53" s="67"/>
+      <c r="G53" s="67"/>
+      <c r="H53" s="68"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="60"/>
-      <c r="B54" s="61"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="61"/>
-      <c r="E54" s="61"/>
-      <c r="F54" s="61"/>
-      <c r="G54" s="61"/>
-      <c r="H54" s="62"/>
+      <c r="A54" s="69"/>
+      <c r="B54" s="70"/>
+      <c r="C54" s="70"/>
+      <c r="D54" s="70"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="70"/>
+      <c r="H54" s="71"/>
     </row>
     <row r="55" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="64"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
-      <c r="G55" s="64"/>
-      <c r="H55" s="65"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="73"/>
+      <c r="C55" s="73"/>
+      <c r="D55" s="73"/>
+      <c r="E55" s="73"/>
+      <c r="F55" s="73"/>
+      <c r="G55" s="73"/>
+      <c r="H55" s="74"/>
     </row>
     <row r="58" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="57" t="s">
+      <c r="A59" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="45"/>
-      <c r="C59" s="45"/>
-      <c r="D59" s="45"/>
-      <c r="E59" s="46"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="47"/>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="49"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="50"/>
-      <c r="B61" s="51"/>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="52"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="57" t="s">
+      <c r="A75" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="B75" s="58"/>
-      <c r="C75" s="58"/>
-      <c r="D75" s="58"/>
-      <c r="E75" s="59"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="68"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="60"/>
-      <c r="B76" s="61"/>
-      <c r="C76" s="61"/>
-      <c r="D76" s="61"/>
-      <c r="E76" s="62"/>
+      <c r="A76" s="69"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="71"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="60"/>
-      <c r="B77" s="61"/>
-      <c r="C77" s="61"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="62"/>
+      <c r="A77" s="69"/>
+      <c r="B77" s="70"/>
+      <c r="C77" s="70"/>
+      <c r="D77" s="70"/>
+      <c r="E77" s="71"/>
     </row>
     <row r="78" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="63"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="65"/>
+      <c r="A78" s="72"/>
+      <c r="B78" s="73"/>
+      <c r="C78" s="73"/>
+      <c r="D78" s="73"/>
+      <c r="E78" s="74"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -6922,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="AB102" sqref="AB102"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6938,12 +8140,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -6984,139 +8187,139 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="84"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="93"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="85"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
+      <c r="A2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="96"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
+      <c r="A3" s="94"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="96"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="88"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="90"/>
+      <c r="A4" s="97"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="99"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="47"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H11" s="74" t="s">
+      <c r="H11" s="83" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="75"/>
-      <c r="L11" s="75"/>
-      <c r="M11" s="76"/>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="84"/>
+      <c r="M11" s="85"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H12" s="80"/>
-      <c r="I12" s="81"/>
-      <c r="J12" s="81"/>
-      <c r="K12" s="81"/>
-      <c r="L12" s="81"/>
-      <c r="M12" s="82"/>
+      <c r="H12" s="89"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="90"/>
+      <c r="L12" s="90"/>
+      <c r="M12" s="91"/>
     </row>
     <row r="27" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H28" s="74" t="s">
+      <c r="H28" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="I28" s="75"/>
-      <c r="J28" s="75"/>
-      <c r="K28" s="75"/>
-      <c r="L28" s="76"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="85"/>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H29" s="77"/>
-      <c r="I29" s="78"/>
-      <c r="J29" s="78"/>
-      <c r="K29" s="78"/>
-      <c r="L29" s="79"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="87"/>
+      <c r="J29" s="87"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="88"/>
     </row>
     <row r="30" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H30" s="80"/>
-      <c r="I30" s="81"/>
-      <c r="J30" s="81"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="82"/>
+      <c r="H30" s="89"/>
+      <c r="I30" s="90"/>
+      <c r="J30" s="90"/>
+      <c r="K30" s="90"/>
+      <c r="L30" s="91"/>
     </row>
     <row r="38" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F39" s="92" t="s">
+      <c r="F39" s="101" t="s">
         <v>32</v>
       </c>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="94"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="102"/>
+      <c r="I39" s="102"/>
+      <c r="J39" s="103"/>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F40" s="4"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="95"/>
+      <c r="F40" s="13"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="104"/>
     </row>
     <row r="41" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F41" s="96"/>
-      <c r="G41" s="97"/>
-      <c r="H41" s="97"/>
-      <c r="I41" s="97"/>
-      <c r="J41" s="98"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="106"/>
+      <c r="H41" s="106"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="107"/>
     </row>
     <row r="48" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="49" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F49" s="74" t="s">
+      <c r="F49" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G49" s="75"/>
-      <c r="H49" s="75"/>
-      <c r="I49" s="75"/>
-      <c r="J49" s="76"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="85"/>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F50" s="77"/>
-      <c r="G50" s="78"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="78"/>
-      <c r="J50" s="79"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="87"/>
+      <c r="H50" s="87"/>
+      <c r="I50" s="87"/>
+      <c r="J50" s="88"/>
     </row>
     <row r="51" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F51" s="80"/>
-      <c r="G51" s="81"/>
-      <c r="H51" s="81"/>
-      <c r="I51" s="81"/>
-      <c r="J51" s="82"/>
+      <c r="F51" s="89"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -7138,231 +8341,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="115" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
+      <c r="B1" s="116"/>
+      <c r="C1" s="116"/>
+      <c r="D1" s="116"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="107"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="116"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="116"/>
       <c r="F2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="107"/>
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107"/>
+      <c r="A3" s="116"/>
+      <c r="B3" s="116"/>
+      <c r="C3" s="116"/>
+      <c r="D3" s="116"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="108" t="s">
+      <c r="A4" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="110"/>
+      <c r="B4" s="118"/>
+      <c r="C4" s="118"/>
+      <c r="D4" s="118"/>
+      <c r="E4" s="118"/>
+      <c r="F4" s="118"/>
+      <c r="G4" s="119"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="111"/>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="113"/>
+      <c r="A5" s="120"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="121"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
+      <c r="G5" s="122"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="114" t="s">
+      <c r="A6" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="100"/>
-      <c r="F6" s="100"/>
-      <c r="G6" s="104"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="109"/>
+      <c r="D6" s="109"/>
+      <c r="E6" s="109"/>
+      <c r="F6" s="109"/>
+      <c r="G6" s="113"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="114"/>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="104"/>
+      <c r="A7" s="123"/>
+      <c r="B7" s="109"/>
+      <c r="C7" s="109"/>
+      <c r="D7" s="109"/>
+      <c r="E7" s="109"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="113"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="99"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="100"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="100"/>
-      <c r="F8" s="100"/>
-      <c r="G8" s="104"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="109"/>
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="113"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="103" t="s">
+      <c r="A9" s="108"/>
+      <c r="B9" s="109"/>
+      <c r="C9" s="109"/>
+      <c r="D9" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="104"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="113"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="104"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="109"/>
+      <c r="C10" s="109"/>
+      <c r="D10" s="109"/>
+      <c r="E10" s="109"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="113"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="100"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="104"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="109"/>
+      <c r="C11" s="109"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="109"/>
+      <c r="F11" s="109"/>
+      <c r="G11" s="113"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="104"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="109"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="113"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="99"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="100"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="104"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="109"/>
+      <c r="C13" s="109"/>
+      <c r="D13" s="109"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="113"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="99"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="100"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="104"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="113"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="99"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="104"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="109"/>
+      <c r="C15" s="109"/>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="113"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="99"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="100"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="104"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="109"/>
+      <c r="C16" s="109"/>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="113"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="99"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="103" t="s">
+      <c r="A17" s="108"/>
+      <c r="B17" s="109"/>
+      <c r="C17" s="109"/>
+      <c r="D17" s="112" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="100"/>
-      <c r="F17" s="100"/>
-      <c r="G17" s="104"/>
+      <c r="E17" s="109"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="113"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="99"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="104"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="109"/>
+      <c r="C18" s="109"/>
+      <c r="D18" s="109"/>
+      <c r="E18" s="109"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="113"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="99"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="100"/>
-      <c r="F19" s="100"/>
-      <c r="G19" s="104"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="109"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="113"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="99"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="100"/>
-      <c r="F20" s="100"/>
-      <c r="G20" s="104"/>
+      <c r="A20" s="108"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="113"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="99"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="100"/>
-      <c r="F21" s="100"/>
-      <c r="G21" s="104"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="109"/>
+      <c r="C21" s="109"/>
+      <c r="D21" s="109"/>
+      <c r="E21" s="109"/>
+      <c r="F21" s="109"/>
+      <c r="G21" s="113"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="99"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="100"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="104"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="109"/>
+      <c r="C22" s="109"/>
+      <c r="D22" s="109"/>
+      <c r="E22" s="109"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="113"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="99"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="104"/>
+      <c r="A23" s="108"/>
+      <c r="B23" s="109"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="113"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="105"/>
+      <c r="A24" s="110"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="111"/>
+      <c r="D24" s="111"/>
+      <c r="E24" s="111"/>
+      <c r="F24" s="111"/>
+      <c r="G24" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -1207,6 +1207,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1237,127 +1351,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -5151,8 +5151,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="294409" y="2770910"/>
-          <a:ext cx="5126182" cy="1506682"/>
+          <a:off x="294409" y="2618510"/>
+          <a:ext cx="5077691" cy="1423555"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -5941,15 +5941,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>101</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>109</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5958,7 +5958,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="76200" y="23279100"/>
+          <a:off x="38100" y="22440900"/>
           <a:ext cx="69227700" cy="1638300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5997,16 +5997,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>100</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6015,7 +6015,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="54063900" y="20154900"/>
+          <a:off x="47472600" y="19392900"/>
           <a:ext cx="3200400" cy="2705100"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -6051,15 +6051,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>448235</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>600635</xdr:colOff>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>571499</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6069,8 +6069,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="49664470" y="18713824"/>
-          <a:ext cx="7642411" cy="2382370"/>
+          <a:off x="47235035" y="17725465"/>
+          <a:ext cx="7667064" cy="2315135"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst/>
@@ -6900,6 +6900,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="図 42"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43738800" y="11487150"/>
+          <a:ext cx="2743200" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7559,310 +7603,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="40"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="41"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="41"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="41"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="39"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="32" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="39"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="39"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="39"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="61" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="32" t="s">
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7872,13 +7916,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -7895,18 +7944,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7926,7 +7970,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="75"/>
@@ -8048,24 +8092,24 @@
       <c r="A59" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="61"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -8124,7 +8168,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
@@ -8217,18 +8261,18 @@
       <c r="B6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="4" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="敵" sheetId="5" r:id="rId9"/>
     <sheet name="タイトル" sheetId="6" r:id="rId10"/>
     <sheet name="エンディング" sheetId="7" r:id="rId11"/>
+    <sheet name="ステージ案" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -1207,6 +1208,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1270,94 +1355,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7230,6 +7231,451 @@
         <a:xfrm>
           <a:off x="285750" y="2000250"/>
           <a:ext cx="1543050" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>211629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1219493"/>
+          <a:ext cx="1171575" cy="659011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>211629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="1219493"/>
+          <a:ext cx="1171575" cy="659011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>202104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4791075" y="1209968"/>
+          <a:ext cx="1171575" cy="659011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>28868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>211629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2295525" y="1219493"/>
+          <a:ext cx="1171575" cy="659011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19343</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>202104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5924550" y="1209968"/>
+          <a:ext cx="1171575" cy="659011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65782</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>191686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38993</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2573048" y="2152511"/>
+          <a:ext cx="1193223" cy="665938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65782</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>172636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38993</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>153586</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2552700" y="3286418"/>
+          <a:ext cx="1171575" cy="659011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>65782</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>96436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>38993</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>77386</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2552700" y="4400843"/>
+          <a:ext cx="1171575" cy="659011"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>72710</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22834</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45921</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>3784</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2579976" y="5620477"/>
+          <a:ext cx="1193223" cy="665938"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>675410</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>248078</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>36715</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4831774" y="1627908"/>
+          <a:ext cx="2343577" cy="1318262"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7592,6 +8038,22 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
@@ -7603,310 +8065,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="48"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="63"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="49"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="63"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="49"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="41"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="49"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="50" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="63"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="44" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="63"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="44" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="63"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="44" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="44" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44" t="s">
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="63"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="44" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="33" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="44" t="s">
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="63"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="42"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="65"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="43"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -7916,18 +8378,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -7944,13 +8401,18 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7970,7 +8432,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="75"/>
@@ -8092,24 +8554,24 @@
       <c r="A59" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="55"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="56"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -8168,7 +8630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
@@ -8261,18 +8723,18 @@
       <c r="B6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -1208,6 +1208,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,127 +1352,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1541,6 +1541,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF583604"/>
+      <color rgb="FF584004"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -7244,418 +7250,1866 @@
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600634</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>206188</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600634" y="320488"/>
+          <a:ext cx="67979366" cy="19088100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6019800" y="5257800"/>
+          <a:ext cx="61150500" cy="12344400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="583604"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27710</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>221914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11000510" y="6231082"/>
+          <a:ext cx="5877790" cy="3134832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>155902</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="図 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="841702" y="5162141"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="角丸四角形 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="990600" y="685800"/>
+          <a:ext cx="6477000" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln w="57150">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ３の案</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>159307</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>205736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>682394</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>49834</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3242002" y="8553041"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>159307</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>53337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>682394</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>126035</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="図 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3242002" y="14572842"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>651202</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="図 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6823402" y="16973143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>498802</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="図 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12843202" y="16973143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>308302</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="図 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18824902" y="16973143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>41602</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="図 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="24730402" y="16973143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>536902</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="図 24"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="30712102" y="16973143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>194002</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="図 25"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="36541402" y="16973143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>498802</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="図 26"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16958002" y="5162141"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>41602</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132941</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198828</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="図 27"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11014402" y="5162141"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16421100" y="6345382"/>
+          <a:ext cx="6591300" cy="3134832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>575002</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="図 29"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="40351402" y="16973143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20318506" y="6565017"/>
+          <a:ext cx="6568888" cy="3228962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25069800" y="6383482"/>
+          <a:ext cx="6591300" cy="3134832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31508700" y="6383482"/>
+          <a:ext cx="6591300" cy="3134832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37783994" y="6565018"/>
+          <a:ext cx="6568889" cy="3222238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>20171</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>200077</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>437030</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>127785</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="39666583" y="6553812"/>
+          <a:ext cx="6568888" cy="3222238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>350885</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>194982</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="22908326" y="5307818"/>
+          <a:ext cx="5996127" cy="1348476"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>162626</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>126218</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>62753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="図 36"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28966226" y="5155418"/>
+          <a:ext cx="17401474" cy="1308135"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="609600"/>
+          <a:ext cx="1066800" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>384502</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="図 39"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46333102" y="16973143"/>
+          <a:ext cx="9445298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>384502</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="図 40"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="55248502" y="16973143"/>
+          <a:ext cx="9445298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>536902</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>56743</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>122630</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="図 41"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="62258902" y="16973143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>384502</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46333102" y="5162143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>614083</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>345142</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44505283" y="6287112"/>
+          <a:ext cx="6589059" cy="3128108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>117802</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="52238602" y="5162143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>540307</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>15239</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>377594</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>87937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="64659202" y="13391744"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>540307</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>377594</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>87937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="64689683" y="7478626"/>
+          <a:ext cx="5955335" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>155902</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>132943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>198830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57077302" y="5162143"/>
+          <a:ext cx="6016298" cy="1208887"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>385483</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50448883" y="6324600"/>
+          <a:ext cx="6589059" cy="3166820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>271183</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>2242</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56506783" y="6210300"/>
+          <a:ext cx="6589059" cy="3166820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="角丸四角形 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="17221200"/>
+          <a:ext cx="6515100" cy="1752600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="8000">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>地下ステージ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="左矢印 57"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12458700" y="647700"/>
+          <a:ext cx="6553200" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="leftArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+            <a:gd name="adj2" fmla="val 54918"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>近づくと見える壁</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>208128</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15247</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="59" name="図 58"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10896600" y="1351128"/>
+          <a:ext cx="8191500" cy="4607719"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>211629</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="1219493"/>
-          <a:ext cx="1171575" cy="659011"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>211629</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1162050" y="1219493"/>
-          <a:ext cx="1171575" cy="659011"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>202104</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4791075" y="1209968"/>
-          <a:ext cx="1171575" cy="659011"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28868</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>211629</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2295525" y="1219493"/>
-          <a:ext cx="1171575" cy="659011"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19343</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>202104</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5924550" y="1209968"/>
-          <a:ext cx="1171575" cy="659011"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>65782</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>191686</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38993</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>172636</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2573048" y="2152511"/>
-          <a:ext cx="1193223" cy="665938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>65782</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>172636</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38993</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>153586</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2552700" y="3286418"/>
-          <a:ext cx="1171575" cy="659011"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>65782</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>96436</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38993</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>77386</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2552700" y="4400843"/>
-          <a:ext cx="1171575" cy="659011"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>72710</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>22834</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>45921</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>3784</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="2579976" y="5620477"/>
-          <a:ext cx="1193223" cy="665938"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>675410</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>248078</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>36715</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>498861</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>123446</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="図 59"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7674,14 +9128,77 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4831774" y="1627908"/>
-          <a:ext cx="2343577" cy="1318262"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+          <a:off x="0" y="3086100"/>
+          <a:ext cx="5299461" cy="2980946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="下矢印 60"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7924800" y="3619500"/>
+          <a:ext cx="1866900" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400"/>
+            <a:t>落ちる</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -8042,8 +9559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -8065,310 +9582,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="40"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="41"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="41"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="41"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="39"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="32" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="39"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="39"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="39"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="61" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="32" t="s">
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -8378,13 +9895,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -8401,18 +9923,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8432,7 +9949,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="75"/>
@@ -8554,24 +10071,24 @@
       <c r="A59" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="61"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -8630,7 +10147,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="AG19" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="O106" sqref="O106"/>
     </sheetView>
   </sheetViews>
@@ -8723,18 +10240,18 @@
       <c r="B6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="4" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="3" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
@@ -7371,50 +7371,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>27710</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>58882</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>221914</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11000510" y="6231082"/>
-          <a:ext cx="5877790" cy="3134832"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>155902</xdr:colOff>
       <xdr:row>22</xdr:row>
@@ -7434,7 +7390,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7519,7 +7475,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ステージ３の案</a:t>
+            <a:t>ステージの案</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -7547,7 +7503,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7591,7 +7547,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7635,7 +7591,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7679,7 +7635,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7723,7 +7679,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7767,7 +7723,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7811,7 +7767,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7855,7 +7811,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7899,7 +7855,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7943,7 +7899,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -7958,50 +7914,6 @@
         <a:xfrm>
           <a:off x="11014402" y="5162141"/>
           <a:ext cx="6016298" cy="1208887"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>107614</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="図 28"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16421100" y="6345382"/>
-          <a:ext cx="6591300" cy="3134832"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8031,7 +7943,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8046,182 +7958,6 @@
         <a:xfrm>
           <a:off x="40351402" y="16973143"/>
           <a:ext cx="6016298" cy="1208887"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>211282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>39</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>145714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="図 30"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20318506" y="6565017"/>
-          <a:ext cx="6568888" cy="3228962"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>211282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>46</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>145714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="図 31"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25069800" y="6383482"/>
-          <a:ext cx="6591300" cy="3134832"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>211282</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>145714</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="図 32"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31508700" y="6383482"/>
-          <a:ext cx="6591300" cy="3134832"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>188259</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>211283</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>605118</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>138991</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="図 33"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37783994" y="6565018"/>
-          <a:ext cx="6568889" cy="3222238"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8251,7 +7987,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8295,7 +8031,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8339,7 +8075,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8388,9 +8124,19 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
         <a:ln w="76200">
           <a:solidFill>
             <a:schemeClr val="tx1"/>
@@ -8446,7 +8192,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8490,7 +8236,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8534,7 +8280,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8578,7 +8324,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8593,50 +8339,6 @@
         <a:xfrm>
           <a:off x="46333102" y="5162143"/>
           <a:ext cx="6016298" cy="1208887"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>614083</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>114912</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>345142</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>42620</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="図 44"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="44505283" y="6287112"/>
-          <a:ext cx="6589059" cy="3128108"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8666,7 +8368,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8710,7 +8412,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8754,7 +8456,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8798,7 +8500,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -8813,94 +8515,6 @@
         <a:xfrm>
           <a:off x="57077302" y="5162143"/>
           <a:ext cx="6016298" cy="1208887"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>73</xdr:col>
-      <xdr:colOff>385483</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>83</xdr:col>
-      <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>118820</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="図 51"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="50448883" y="6324600"/>
-          <a:ext cx="6589059" cy="3166820"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>82</xdr:col>
-      <xdr:colOff>271183</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>92</xdr:col>
-      <xdr:colOff>2242</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>4520</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="図 52"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="56506783" y="6210300"/>
-          <a:ext cx="6589059" cy="3166820"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9071,7 +8685,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9115,7 +8729,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9141,14 +8755,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9158,7 +8772,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7924800" y="3619500"/>
+          <a:off x="7848600" y="9334500"/>
           <a:ext cx="1866900" cy="4495800"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
@@ -9199,6 +8813,1979 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>575061</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>161546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="62" name="図 61"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6248400" y="14782800"/>
+          <a:ext cx="5299461" cy="2980946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>595313</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>89293</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="図 62"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11644313" y="14568487"/>
+          <a:ext cx="2300287" cy="284556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>422602</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>8330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14138602" y="11620499"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>101376</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="65" name="図 64"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63165037" y="16368712"/>
+          <a:ext cx="3776662" cy="420464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>435735</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24968</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>24966</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>21466</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="66" name="図 65"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17377102" y="10744201"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>377936</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>22112</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>112600</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="67" name="図 66"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="19098506" y="16180360"/>
+          <a:ext cx="3164433" cy="427391"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>93</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>96</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="上下矢印 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="64350900" y="6096000"/>
+          <a:ext cx="1600200" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="upDownArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>109537</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>97</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="69" name="図 68"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="63203137" y="5129212"/>
+          <a:ext cx="3776662" cy="420464"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8193" name="emb33D104FF0" descr="レバー スイッチ　イラスト に対する画像結果"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3429000" y="12620625"/>
+          <a:ext cx="1857375" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>476251</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>97041</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="71" name="図 70"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="66667" y1="45128" x2="66667" y2="45128"/>
+                      <a14:foregroundMark x1="49231" y1="65641" x2="49231" y2="65641"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17621251" y="9639300"/>
+          <a:ext cx="2363990" cy="2362201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>395453</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="15087600" y="2019300"/>
+          <a:ext cx="8625053" cy="4617724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>90653</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="29870400" y="2019300"/>
+          <a:ext cx="8625053" cy="4617724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>67</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>14453</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>198124</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="46253400" y="1981200"/>
+          <a:ext cx="8625053" cy="4617724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>94</xdr:col>
+      <xdr:colOff>536961</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="59702700" y="3009900"/>
+          <a:ext cx="5299461" cy="2980946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>91593</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>13753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>620125</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>128053</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="右矢印 76"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18933127">
+          <a:off x="14493393" y="13043953"/>
+          <a:ext cx="3957532" cy="1028700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="右矢印 72"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13563600" y="14401800"/>
+          <a:ext cx="6438900" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 100000"/>
+            <a:gd name="adj2" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400" u="sng">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>スイッチ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="5400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>を起動すると消える</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>419406</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>24971</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>8637</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>21469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="59194573" y="13716004"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>339836</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>119748</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>79943</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>103078</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="80" name="図 79"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="60682925" y="9042459"/>
+          <a:ext cx="3183730" cy="425907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>126688</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>55249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20002500" y="13842688"/>
+          <a:ext cx="8001000" cy="4500561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>473837</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>63068</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>59566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="37989204" y="10782301"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>117804</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>160733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28235604" y="13144502"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>421479</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>161586</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>92191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="39504768" y="15203772"/>
+          <a:ext cx="3183730" cy="425907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>54737</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>329768</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>59568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="31397904" y="13754103"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>132515</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>489859</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="図 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="26314437" y="16081863"/>
+          <a:ext cx="3782785" cy="357344"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>409155</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>235324</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1607</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="図 86"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20232361" y="11956676"/>
+          <a:ext cx="5294639" cy="281755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>240927</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>545276</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>112060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="図 87"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="66667" y1="45128" x2="66667" y2="45128"/>
+                      <a14:foregroundMark x1="49231" y1="65641" x2="49231" y2="65641"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20814927" y="9637059"/>
+          <a:ext cx="2361749" cy="2362201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>93009</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>60510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>397358</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>136711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="図 88"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="66667" y1="45128" x2="66667" y2="45128"/>
+                      <a14:foregroundMark x1="49231" y1="65641" x2="49231" y2="65641"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31639809" y="14919510"/>
+          <a:ext cx="2361749" cy="2362201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
+      <xdr:colOff>481853</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>87408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>515471</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>133840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="図 89"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37394029" y="10676967"/>
+          <a:ext cx="3451413" cy="281755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>224627</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>129783</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>528975</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>205985</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="91" name="図 90"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:lum bright="70000" contrast="-70000"/>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="66667" y1="45128" x2="66667" y2="45128"/>
+                      <a14:foregroundMark x1="49231" y1="65641" x2="49231" y2="65641"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38324627" y="8858147"/>
+          <a:ext cx="2382530" cy="2500747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>2379</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>223162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>428286</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>206492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="93" name="図 92"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent3">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="32913468" y="9145873"/>
+          <a:ext cx="3183730" cy="425907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>27710</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>58882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>221914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11000510" y="6231082"/>
+          <a:ext cx="5877790" cy="3134832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>107614</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16421100" y="6345382"/>
+          <a:ext cx="6591300" cy="3134832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20318506" y="6565017"/>
+          <a:ext cx="6568888" cy="3228962"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25069800" y="6383482"/>
+          <a:ext cx="6591300" cy="3134832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211282</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>145714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="図 32"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31508700" y="6383482"/>
+          <a:ext cx="6591300" cy="3134832"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>188259</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>211283</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>605118</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>138991</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="図 33"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="37783994" y="6565018"/>
+          <a:ext cx="6568889" cy="3222238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>614083</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>345142</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>42620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="44505283" y="6287112"/>
+          <a:ext cx="6589059" cy="3128108"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>385483</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>83</xdr:col>
+      <xdr:colOff>116542</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>118820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="50448883" y="6324600"/>
+          <a:ext cx="6589059" cy="3166820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>271183</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>2242</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>4520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56506783" y="6210300"/>
+          <a:ext cx="6589059" cy="3166820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>575004</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>76202</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>571502</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>122633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="56124804" y="11734802"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>50488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>207649</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="図 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="33832800" y="13766488"/>
+          <a:ext cx="8001000" cy="4500561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -9559,8 +11146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BH90" sqref="BH90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10147,8 +11734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="AG19" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="O106" sqref="O106"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="BJ119" sqref="BJ119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -1543,6 +1543,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF0066"/>
+      <color rgb="FFFB6F6F"/>
+      <color rgb="FFFF5805"/>
+      <color rgb="FFED7009"/>
       <color rgb="FF583604"/>
       <color rgb="FF584004"/>
     </mruColors>
@@ -9066,10 +9070,10 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
-            <a:schemeClr val="accent3">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:schemeClr>
+            <a:srgbClr val="D9C3A5">
+              <a:tint val="50000"/>
+              <a:satMod val="180000"/>
+            </a:srgbClr>
           </a:duotone>
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
@@ -9268,7 +9272,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:lum bright="70000" contrast="-70000"/>
+          <a:duotone>
+            <a:schemeClr val="bg2">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -9687,9 +9697,281 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:biLevel thresh="75000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="60682925" y="9042459"/>
+          <a:ext cx="3183730" cy="425907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>221939</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>166687</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>150500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="78" name="図 77"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20426363" y="14271314"/>
+          <a:ext cx="8053387" cy="4691061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>473837</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>63068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>63068</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>59566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="37989204" y="10782301"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>117804</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>114302</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>160733</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="83" name="図 82"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28235604" y="13144502"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>421479</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>108861</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>161586</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>92191</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="39504768" y="15203772"/>
+          <a:ext cx="3183730" cy="425907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>54737</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>329768</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>59568</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="31397904" y="13754103"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>132515</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>163285</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>489859</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>27213</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="図 85"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
-            <a:schemeClr val="accent3">
+            <a:schemeClr val="accent1">
               <a:tint val="45000"/>
               <a:satMod val="400000"/>
             </a:schemeClr>
@@ -9705,284 +9987,6 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="60682925" y="9042459"/>
-          <a:ext cx="3183730" cy="425907"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>126688</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>40</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>55249</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="図 77"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="20002500" y="13842688"/>
-          <a:ext cx="8001000" cy="4500561"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>473837</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>63068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>63068</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>59566</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="図 81"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="37989204" y="10782301"/>
-          <a:ext cx="6168698" cy="275031"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>117804</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>114302</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>160733</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="図 82"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="28235604" y="13144502"/>
-          <a:ext cx="6168698" cy="275031"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>421479</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>108861</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>161586</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>92191</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="図 83"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:schemeClr val="accent3">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:schemeClr>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="39504768" y="15203772"/>
-          <a:ext cx="3183730" cy="425907"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>54737</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>63070</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>329768</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>59568</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="図 84"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="31397904" y="13754103"/>
-          <a:ext cx="6168698" cy="275031"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>132515</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>163285</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>489859</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>27213</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="図 85"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:schemeClr val="accent3">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:schemeClr>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
         <a:xfrm rot="16200000">
           <a:off x="26314437" y="16081863"/>
           <a:ext cx="3782785" cy="357344"/>
@@ -10060,7 +10064,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:lum bright="70000" contrast="-70000"/>
+          <a:duotone>
+            <a:schemeClr val="accent1">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -10117,7 +10127,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:lum bright="70000" contrast="-70000"/>
+          <a:duotone>
+            <a:schemeClr val="accent6">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -10218,7 +10234,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:lum bright="70000" contrast="-70000"/>
+          <a:duotone>
+            <a:schemeClr val="accent4">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -10277,7 +10299,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:duotone>
             <a:prstClr val="black"/>
-            <a:schemeClr val="accent3">
+            <a:schemeClr val="accent6">
               <a:tint val="45000"/>
               <a:satMod val="400000"/>
             </a:schemeClr>
@@ -10747,15 +10769,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>49</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:colOff>252413</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>50488</xdr:rowOff>
+      <xdr:rowOff>26676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>61</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>23813</xdr:colOff>
       <xdr:row>79</xdr:row>
-      <xdr:rowOff>207649</xdr:rowOff>
+      <xdr:rowOff>183837</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10778,7 +10800,476 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="33832800" y="13766488"/>
+          <a:off x="34089976" y="14314176"/>
+          <a:ext cx="8058150" cy="4681536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>194004</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>190502</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>84533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="48200004" y="13754102"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>52553</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>45724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="46977300" y="10515600"/>
+          <a:ext cx="8625053" cy="4617724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>64776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>221937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="図 97"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="51273076" y="13780776"/>
+          <a:ext cx="8001000" cy="4500561"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>453227</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>209447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>71775</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>57049</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="図 98"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="tx1">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="66667" y1="45128" x2="66667" y2="45128"/>
+                      <a14:foregroundMark x1="49231" y1="65641" x2="49231" y2="65641"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59432027" y="14839847"/>
+          <a:ext cx="2361748" cy="2362202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>665629</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>85167</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>13447</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>131599</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="100" name="図 99"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41127829" y="11743767"/>
+          <a:ext cx="3462618" cy="275032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>453227</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>95147</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>71775</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>171349</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="101" name="図 100"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent6">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId7">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000">
+                      <a14:foregroundMark x1="66667" y1="45128" x2="66667" y2="45128"/>
+                      <a14:foregroundMark x1="49231" y1="65641" x2="49231" y2="65641"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="40000" contrast="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="41601227" y="9696347"/>
+          <a:ext cx="2361748" cy="2362202"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>540727</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>138549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>86</xdr:col>
+      <xdr:colOff>280834</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>26882</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="102" name="図 101"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent6">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="58482523" y="16595662"/>
+          <a:ext cx="2312878" cy="432834"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>85</xdr:col>
+      <xdr:colOff>519561</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>237896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>415636</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>192748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="103" name="図 102"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent6">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="59401379" y="15270078"/>
+          <a:ext cx="3359712" cy="439761"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>66676</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>64776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>221937</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="図 103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43272076" y="13780776"/>
           <a:ext cx="8001000" cy="4500561"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11146,8 +11637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="BH90" sqref="BH90"/>
+    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="CB99" sqref="CB99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="3" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
@@ -1208,6 +1208,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,94 +1355,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7336,8 +7336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6019800" y="5257800"/>
-          <a:ext cx="61150500" cy="12344400"/>
+          <a:off x="5867400" y="5476875"/>
+          <a:ext cx="59455050" cy="12858750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9634,59 +9634,59 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>90</xdr:col>
-      <xdr:colOff>419406</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>24971</xdr:rowOff>
+      <xdr:colOff>495606</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>24973</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>91</xdr:col>
-      <xdr:colOff>8637</xdr:colOff>
+      <xdr:colOff>84837</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>21471</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="79" name="図 78"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="59270773" y="10744206"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>454136</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>43549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>194243</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>21469</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="図 78"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="59194573" y="13716004"/>
-          <a:ext cx="6168698" cy="275031"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>339836</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>119748</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>91</xdr:col>
-      <xdr:colOff>79943</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>103078</xdr:rowOff>
+      <xdr:rowOff>26879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9710,7 +9710,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="60682925" y="9042459"/>
+          <a:off x="60797225" y="15138460"/>
           <a:ext cx="3183730" cy="425907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9766,16 +9766,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>473837</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>63068</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>63068</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>59566</xdr:rowOff>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>188087</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>205943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>105</xdr:col>
+      <xdr:colOff>444068</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>202441</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9798,8 +9798,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="37989204" y="10782301"/>
-          <a:ext cx="6168698" cy="275031"/>
+          <a:off x="67111891" y="12101514"/>
+          <a:ext cx="6425873" cy="255981"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9854,16 +9854,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>421479</xdr:colOff>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>40481</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>108861</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>161586</xdr:colOff>
+      <xdr:rowOff>61236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>471150</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>92191</xdr:rowOff>
+      <xdr:rowOff>44566</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9893,8 +9893,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="39504768" y="15203772"/>
-          <a:ext cx="3183730" cy="425907"/>
+          <a:off x="56604526" y="15791941"/>
+          <a:ext cx="3317080" cy="430669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10170,16 +10170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>481853</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>87408</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>515471</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>133840</xdr:rowOff>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>396128</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>135033</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>429746</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>181465</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10202,28 +10202,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37394029" y="10676967"/>
-          <a:ext cx="3451413" cy="281755"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>224627</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>129783</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>528975</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>205985</xdr:rowOff>
+          <a:off x="44973128" y="13622433"/>
+          <a:ext cx="3462618" cy="275032"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>148427</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>158358</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>471825</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>5960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10265,8 +10265,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="38324627" y="8858147"/>
-          <a:ext cx="2382530" cy="2500747"/>
+          <a:off x="53640827" y="9988158"/>
+          <a:ext cx="2380798" cy="2362202"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10580,8 +10580,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="37783994" y="6565018"/>
-          <a:ext cx="6568889" cy="3222238"/>
+          <a:off x="36859509" y="6640658"/>
+          <a:ext cx="6417609" cy="3261458"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10724,20 +10724,108 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>575004</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:col>101</xdr:col>
+      <xdr:colOff>479754</xdr:colOff>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>571502</xdr:colOff>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>476252</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>122633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="94" name="図 93"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="67821504" y="17221202"/>
+          <a:ext cx="5997248" cy="284556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>2864</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>160025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="95" name="図 94"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25088851" y="22386614"/>
+          <a:ext cx="7772400" cy="4681536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>241629</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>122633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="図 93"/>
+      <xdr:rowOff>38102</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>238127</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>75008</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="96" name="図 95"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10756,32 +10844,76 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="56124804" y="11734802"/>
-          <a:ext cx="6168698" cy="275031"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>252413</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>26676</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>23813</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>183837</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="図 94"/>
+          <a:off x="51676629" y="11925302"/>
+          <a:ext cx="6168698" cy="265506"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>78</xdr:col>
+      <xdr:colOff>338303</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>45724</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="97" name="図 96"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="43967400" y="22383750"/>
+          <a:ext cx="8377403" cy="4808224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>238126</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>160026</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>79062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="98" name="図 97"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -10800,160 +10932,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="34089976" y="14314176"/>
-          <a:ext cx="8058150" cy="4681536"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>70</xdr:col>
-      <xdr:colOff>194004</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38102</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
+          <a:off x="39576376" y="22305651"/>
+          <a:ext cx="7772400" cy="4681536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
       <xdr:col>79</xdr:col>
-      <xdr:colOff>190502</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>84533</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="48200004" y="13754102"/>
-          <a:ext cx="6168698" cy="275031"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>68</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>52553</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>45724</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="図 96"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="46977300" y="10515600"/>
-          <a:ext cx="8625053" cy="4617724"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>64776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>221937</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="図 97"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51273076" y="13780776"/>
-          <a:ext cx="8001000" cy="4500561"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>453227</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>209447</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>71775</xdr:colOff>
+      <xdr:colOff>196052</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>123722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>82</xdr:col>
+      <xdr:colOff>500400</xdr:colOff>
       <xdr:row>75</xdr:row>
-      <xdr:rowOff>57049</xdr:rowOff>
+      <xdr:rowOff>209449</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10995,28 +10995,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59432027" y="14839847"/>
-          <a:ext cx="2361748" cy="2362202"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>665629</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>85167</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>13447</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>131599</xdr:rowOff>
+          <a:off x="52869302" y="15601847"/>
+          <a:ext cx="2304598" cy="2466977"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>332254</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>132792</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>346822</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>179224</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11039,28 +11039,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="41127829" y="11743767"/>
-          <a:ext cx="3462618" cy="275032"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>60</xdr:col>
-      <xdr:colOff>453227</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>95147</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>64</xdr:col>
-      <xdr:colOff>71775</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>171349</xdr:rowOff>
+          <a:off x="33669754" y="13705917"/>
+          <a:ext cx="3348318" cy="284557"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>310352</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>142772</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>595650</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>218974</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11105,28 +11105,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="41601227" y="9696347"/>
-          <a:ext cx="2361748" cy="2362202"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>540727</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>138549</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>86</xdr:col>
-      <xdr:colOff>280834</xdr:colOff>
+          <a:off x="33647852" y="15620897"/>
+          <a:ext cx="2285548" cy="2457452"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>121626</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>114302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>90373</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>26882</xdr:rowOff>
+      <xdr:rowOff>26884</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11165,28 +11165,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="58482523" y="16595662"/>
-          <a:ext cx="2312878" cy="432834"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>85</xdr:col>
-      <xdr:colOff>519561</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>237896</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>90</xdr:col>
-      <xdr:colOff>415636</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>192748</xdr:rowOff>
+          <a:off x="58442709" y="14945219"/>
+          <a:ext cx="3341582" cy="654547"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>100461</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>47396</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>682336</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>2248</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11225,52 +11225,334 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="59401379" y="15270078"/>
-          <a:ext cx="3359712" cy="439761"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>63</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
+          <a:off x="52907061" y="21764396"/>
+          <a:ext cx="3325075" cy="412052"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>207651</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>112</xdr:row>
+      <xdr:rowOff>126687</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="104" name="図 103"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="31499176" y="22115151"/>
+          <a:ext cx="7791450" cy="4681536"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>122631</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>225098</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="92" name="図 91"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3072967" y="8204633"/>
+          <a:ext cx="6168698" cy="275031"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>87</xdr:col>
+      <xdr:colOff>589356</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>234623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="106" name="図 105"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="55255679" y="10943071"/>
+          <a:ext cx="6425873" cy="255981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>84</xdr:col>
+      <xdr:colOff>398856</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>64776</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>74</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>221937</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="図 103"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="43272076" y="13780776"/>
-          <a:ext cx="8001000" cy="4500561"/>
+      <xdr:rowOff>234623</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="図 106"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="53064929" y="11181196"/>
+          <a:ext cx="6425873" cy="255981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>273507</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>221455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="108" name="図 107"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:biLevel thresh="75000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4412289" y="6931986"/>
+          <a:ext cx="3317080" cy="406857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>457199</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>78462</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="109" name="図 108"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:biLevel thresh="75000"/>
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="36174818" y="14993481"/>
+          <a:ext cx="3545562" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>76203</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>361313</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>64984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="110" name="図 109"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:duotone>
+            <a:prstClr val="black"/>
+            <a:schemeClr val="accent6">
+              <a:tint val="45000"/>
+              <a:satMod val="400000"/>
+            </a:schemeClr>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:brightnessContrast bright="-40000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="50040116" y="9510187"/>
+          <a:ext cx="4103581" cy="780413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11637,8 +11919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="CB99" sqref="CB99"/>
+    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="DU108" sqref="DU108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11660,310 +11942,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="A4" s="21"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="23"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="62" t="s">
+      <c r="B7" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="48"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="40"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="63"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="49"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="41"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="63"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="49"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="41"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="49"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="41"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="50" t="s">
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50" t="s">
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50" t="s">
+      <c r="J11" s="31"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="42"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="63"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="44" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44" t="s">
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44" t="s">
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="39"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="63"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="44" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44" t="s">
+      <c r="J13" s="32"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="39"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="63"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="44" t="s">
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44" t="s">
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44" t="s">
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
+      <c r="M14" s="32"/>
+      <c r="N14" s="39"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="44" t="s">
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44" t="s">
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44" t="s">
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="39"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="63"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="44" t="s">
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="33" t="s">
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="44" t="s">
+      <c r="J16" s="62"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="39"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="63"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="42"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="64"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="65"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="43"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="37"/>
+      <c r="K18" s="65"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="37"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="48"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="46"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="49"/>
+      <c r="B24" s="50"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="51"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="54"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="27" t="s">
+      <c r="C28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="57"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -11973,18 +12255,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -12001,13 +12278,18 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12027,7 +12309,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="75"/>
@@ -12149,24 +12431,24 @@
       <c r="A59" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="55"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="17"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="56"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
+      <c r="A60" s="18"/>
+      <c r="B60" s="19"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="20"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
+      <c r="A61" s="21"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="23"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -12318,18 +12600,18 @@
       <c r="B6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="23"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -12442,7 +12724,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -1208,90 +1208,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1355,10 +1271,94 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7336,8 +7336,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5867400" y="5476875"/>
-          <a:ext cx="59455050" cy="12858750"/>
+          <a:off x="6019800" y="5257800"/>
+          <a:ext cx="61150500" cy="12344400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8670,16 +8670,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>208128</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>15247</xdr:rowOff>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>110</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>110497</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8702,8 +8702,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10896600" y="1351128"/>
-          <a:ext cx="8191500" cy="4607719"/>
+          <a:off x="65570100" y="1732128"/>
+          <a:ext cx="7962900" cy="4807744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9315,20 +9315,108 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>443078</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>150499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="72" name="図 71"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="16716375" y="22955250"/>
+          <a:ext cx="8396453" cy="4817749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>185903</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>7624</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5810250" y="22574250"/>
+          <a:ext cx="8377403" cy="4817749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>395453</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7624</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="図 71"/>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>376403</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>150499</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="75" name="図 74"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -9347,38 +9435,38 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15087600" y="2019300"/>
-          <a:ext cx="8625053" cy="4617724"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>43</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>90653</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>7624</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="図 73"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:off x="0" y="22488525"/>
+          <a:ext cx="8377403" cy="4808224"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>13086</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>142496</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="76" name="図 75"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -9391,96 +9479,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="29870400" y="2019300"/>
-          <a:ext cx="8625053" cy="4617724"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>67</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>80</xdr:col>
-      <xdr:colOff>14453</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>198124</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="図 74"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="46253400" y="1981200"/>
-          <a:ext cx="8625053" cy="4617724"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>87</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>94</xdr:col>
-      <xdr:colOff>536961</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47246</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="図 75"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="59702700" y="3009900"/>
-          <a:ext cx="5299461" cy="2980946"/>
+          <a:off x="60855225" y="2990850"/>
+          <a:ext cx="5166111" cy="3104771"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9679,14 +9679,14 @@
     <xdr:from>
       <xdr:col>90</xdr:col>
       <xdr:colOff>454136</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>43549</xdr:rowOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>81653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>91</xdr:col>
       <xdr:colOff>194243</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>26879</xdr:rowOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>64983</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9710,7 +9710,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="60797225" y="15138460"/>
+          <a:off x="60797225" y="18148364"/>
           <a:ext cx="3183730" cy="425907"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9855,15 +9855,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>40481</xdr:colOff>
+      <xdr:colOff>78581</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>61236</xdr:rowOff>
+      <xdr:rowOff>137440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>84</xdr:col>
-      <xdr:colOff>471150</xdr:colOff>
+      <xdr:colOff>509250</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>44566</xdr:rowOff>
+      <xdr:rowOff>120770</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9893,8 +9893,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="56604526" y="15791941"/>
-          <a:ext cx="3317080" cy="430669"/>
+          <a:off x="56309251" y="15229970"/>
+          <a:ext cx="3183730" cy="430669"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10170,16 +10170,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>396128</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>135033</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
       <xdr:col>70</xdr:col>
-      <xdr:colOff>429746</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>181465</xdr:rowOff>
+      <xdr:colOff>472328</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>20733</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>505946</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>67165</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10202,7 +10202,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="44973128" y="13622433"/>
+          <a:off x="48478328" y="11907933"/>
           <a:ext cx="3462618" cy="275032"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10724,16 +10724,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>101</xdr:col>
-      <xdr:colOff>479754</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>174954</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>76202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>122633</xdr:rowOff>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>171452</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10756,8 +10756,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="67821504" y="17221202"/>
-          <a:ext cx="5997248" cy="284556"/>
+          <a:off x="42694554" y="14020802"/>
+          <a:ext cx="6168698" cy="609598"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10856,16 +10856,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>338303</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>45724</xdr:rowOff>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>643103</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>7624</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10888,28 +10888,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="43967400" y="22383750"/>
-          <a:ext cx="8377403" cy="4808224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>160026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>79062</xdr:rowOff>
+          <a:off x="46882050" y="13906500"/>
+          <a:ext cx="8625053" cy="4617724"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>121926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>619126</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>40962</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10932,8 +10932,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="39576376" y="22305651"/>
-          <a:ext cx="7772400" cy="4681536"/>
+          <a:off x="41995726" y="11094726"/>
+          <a:ext cx="8001000" cy="4491036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11118,15 +11118,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>87</xdr:col>
-      <xdr:colOff>121626</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>114302</xdr:rowOff>
+      <xdr:colOff>235926</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>76205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>88</xdr:col>
-      <xdr:colOff>90373</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>26884</xdr:rowOff>
+      <xdr:colOff>204673</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>217387</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11165,7 +11165,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="58442709" y="14945219"/>
+          <a:off x="58557009" y="18107522"/>
           <a:ext cx="3341582" cy="654547"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11177,16 +11177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>100461</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>47396</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>682336</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>2248</xdr:rowOff>
+      <xdr:col>104</xdr:col>
+      <xdr:colOff>243336</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>95021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>109</xdr:col>
+      <xdr:colOff>158461</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>49873</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11225,28 +11225,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="52907061" y="21764396"/>
-          <a:ext cx="3325075" cy="412052"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>207651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
+          <a:off x="69585336" y="17001896"/>
+          <a:ext cx="3248875" cy="431102"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>54</xdr:col>
       <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>126687</xdr:rowOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>17151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>164787</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11269,8 +11269,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="31499176" y="22115151"/>
-          <a:ext cx="7791450" cy="4681536"/>
+          <a:off x="37652326" y="13733151"/>
+          <a:ext cx="8001000" cy="4491036"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11459,15 +11459,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:colOff>152399</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>55</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
+      <xdr:colOff>609599</xdr:colOff>
       <xdr:row>74</xdr:row>
-      <xdr:rowOff>78462</xdr:rowOff>
+      <xdr:rowOff>2262</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11491,7 +11491,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="36174818" y="14993481"/>
+          <a:off x="36327218" y="14917281"/>
           <a:ext cx="3545562" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11504,15 +11504,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>75</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>76203</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>76</xdr:col>
-      <xdr:colOff>361313</xdr:colOff>
+      <xdr:colOff>94613</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>64984</xdr:rowOff>
+      <xdr:rowOff>217384</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11551,7 +11551,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="50040116" y="9510187"/>
+          <a:off x="49773416" y="9662587"/>
           <a:ext cx="4103581" cy="780413"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11559,6 +11559,288 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>454701</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>34413</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>316432</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>148713</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="上矢印 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18811410">
+          <a:off x="39076117" y="16505597"/>
+          <a:ext cx="2857500" cy="4662331"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="角丸四角形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="42238613" y="21107400"/>
+          <a:ext cx="8553450" cy="1538287"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="6000" b="1"/>
+            <a:t>ブロックが反対に動く</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>485509</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>152781</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>155847</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>9906</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="上矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="4734627">
+          <a:off x="53541615" y="15771925"/>
+          <a:ext cx="2238375" cy="11005088"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>98</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>397809</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>204545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="111" name="図 110"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="65341500" y="5476875"/>
+          <a:ext cx="6398559" cy="3300170"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>90</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>91</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="60245625" y="809625"/>
+          <a:ext cx="1047750" cy="4800600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill dpi="0" rotWithShape="1">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </a:blipFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:prstDash val="sysDot"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11919,8 +12201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DU108" sqref="DU108"/>
+    <sheetView tabSelected="1" zoomScale="20" zoomScaleNormal="20" workbookViewId="0">
+      <selection activeCell="DA94" sqref="DA94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -11942,310 +12224,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="40"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="41"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="41"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="41"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="39"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="32" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="39"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="39"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="39"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="61" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="32" t="s">
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -12255,13 +12537,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -12278,18 +12565,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12309,7 +12591,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="75"/>
@@ -12431,24 +12713,24 @@
       <c r="A59" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="61"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -12600,18 +12882,18 @@
       <c r="B6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\shachiku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\shachiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="162">
   <si>
     <t>これは最初のステージには出さない</t>
     <rPh sb="3" eb="5">
@@ -580,12 +580,1123 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ステージ５</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>（時間があれば）</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人工天使ゼーレ・ヴァンデルグ</t>
+    <rPh sb="0" eb="2">
+      <t>ジンコウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃方法</t>
+    <rPh sb="0" eb="4">
+      <t>コウゲキホウホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定（もし図鑑的なやつ作る用）</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ズカンテキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏ボス</t>
+    <rPh sb="0" eb="1">
+      <t>ウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼーレ・ヴァンデルグ・バベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浮遊している</t>
+    <rPh sb="0" eb="2">
+      <t>フユウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対称ビーム○</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材に魂と人間</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ニンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対称ビーム</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材不明</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>フメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP４００</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦向きの２本のビーム（貫通）</t>
+    <rPh sb="0" eb="2">
+      <t>タテム</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>偉い聖職者の1人が独断で造った</t>
+    <rPh sb="0" eb="1">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヒトリ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ドクダン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP800</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>縦向きの2本のビーム（貫通）</t>
+    <rPh sb="0" eb="2">
+      <t>タテム</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホン</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>これは現実なのか？</t>
+    <rPh sb="3" eb="5">
+      <t>ゲンジツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力１０</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>準備で宝石が光る</t>
+    <rPh sb="0" eb="2">
+      <t>ジュンビ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ホウセキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力10</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倒すとクリア</t>
+    <rPh sb="0" eb="1">
+      <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨→雷（光輪光る）</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ワ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>未スタン時、足場貫通</t>
+    <rPh sb="0" eb="1">
+      <t>ミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カンツウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨を降らしたあと足場の下以外に攻撃</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>アシバ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電気玉は敵か主人公が当たると消滅</t>
+    <rPh sb="0" eb="2">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダマ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ショウメツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨自体は無害、電気玉が残る</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ジタイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ムガイ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>デンキダマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ノコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼーレ以外には１０ダメを与える</t>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進（狙い定める）</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ネラ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>サダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゼーレ以外には１0ダメを与える</t>
+    <rPh sb="3" eb="5">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>アタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雷も同様</t>
+    <rPh sb="0" eb="1">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ドウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>突進。電気玉に当たるとスタン</t>
+    <rPh sb="0" eb="2">
+      <t>トッシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>デンキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂×１０</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚（魔法陣グルグル）</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>マホウジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP10の雑魚を4体召喚</t>
+    <rPh sb="5" eb="7">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全体的に攻撃が早い</t>
+    <rPh sb="0" eb="3">
+      <t>ゼンタイテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP10の雑魚を6体召喚</t>
+    <rPh sb="5" eb="7">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>３体に1体行動デバフ付与持ち</t>
+    <rPh sb="1" eb="2">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フヨ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワーシュ・ダーソ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リッパ・プチ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力０（接触ダメはあり）</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>セッショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泡</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シュワシュワして涼しい</t>
+    <rPh sb="8" eb="9">
+      <t>スズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火薬で重い</t>
+    <rPh sb="0" eb="2">
+      <t>カヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>オモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚対象</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泡を数個出す、触れるとノックバック</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>スウコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>頭上の溶液をひっくり返すと
+泡が出せなくなってしまう</t>
+    <rPh sb="0" eb="2">
+      <t>ズジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヨウエキ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚対象（裏）</t>
+    <rPh sb="0" eb="2">
+      <t>ザコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自身に１０ダメ、範囲はリッパ３体分</t>
+    <rPh sb="0" eb="2">
+      <t>ジシン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっとしたことで爆発するので注意が必要</t>
+    <rPh sb="9" eb="11">
+      <t>バクハツ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバフ枠</t>
+    <rPh sb="3" eb="4">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡時に自爆（１０ダメ）</t>
+    <rPh sb="0" eb="3">
+      <t>シボウジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆ダメで他のリッパに誘爆</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ユウバク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度0.8</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自爆はリッパと主人公にダメ</t>
+    <rPh sb="0" eb="2">
+      <t>ジバク</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>シュジンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>近くにルビを置くな</t>
+    <rPh sb="0" eb="1">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>泡は攻撃一回につき一つ破壊可能</t>
+    <rPh sb="0" eb="1">
+      <t>アワ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>イッカイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ハカイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度0.７</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルビ・ローへ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョド・コロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>臭い</t>
+    <rPh sb="0" eb="1">
+      <t>クサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロドロ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>甘い匂いがする</t>
+    <rPh sb="0" eb="1">
+      <t>アマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ニオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚対象</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガスを出す触れると操作反転</t>
+    <rPh sb="3" eb="4">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ソウサハンテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最近偉い人が隠れて大量の酒を飲んでるという噂が流れている</t>
+    <rPh sb="0" eb="2">
+      <t>サイキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エラ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヒト</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイリョウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>サケ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウワサ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドロドロを出す触れると移動低下</t>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベタベタして掃除が大変</t>
+    <rPh sb="6" eb="8">
+      <t>ソウジ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>タイヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバフ枠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>範囲はルビ５体分ぐらい</t>
+    <rPh sb="0" eb="2">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デバフ枠</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>射程はチョド２.５体分ぐらい</t>
+    <rPh sb="0" eb="2">
+      <t>シャテイ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ブン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>引火はしにくいが火気厳禁</t>
+    <rPh sb="0" eb="2">
+      <t>インカ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>カキゲンキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夏は虫の死骸がついていない日がない</t>
+    <rPh sb="0" eb="1">
+      <t>ナツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シガイ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>混乱は５秒持続</t>
+    <rPh sb="0" eb="2">
+      <t>コンラン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>低下率は５０％、５秒持続</t>
+    <rPh sb="0" eb="3">
+      <t>テイカリツ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ビョウジゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミーグ・ニューム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HP１０</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衝撃に強い</t>
+    <rPh sb="0" eb="2">
+      <t>ショウゲキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚対象</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死神は鎌を使うため利点を生かせない</t>
+    <rPh sb="0" eb="2">
+      <t>シニガミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ツカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>リテン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>主人公に向かってくる</t>
+    <rPh sb="0" eb="3">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジュト・ミーシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>遠距離（増火）</t>
+    <rPh sb="0" eb="3">
+      <t>エンキョリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ゾウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>油汚れが収まらない</t>
+    <rPh sb="0" eb="2">
+      <t>アブラヨゴ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚召喚対象</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横方向に炎を飛ばす</t>
+    <rPh sb="0" eb="3">
+      <t>ヨコホウコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火加減は自由に調整可能</t>
+    <rPh sb="0" eb="3">
+      <t>ヒカゲン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ジユウ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>チョウセイカノウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>燃えてる</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨→雷は雨時点で死ぬ</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カミナリ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アメ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジテン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂を落とさない</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魂コンプ時</t>
+    <rPh sb="0" eb="1">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廊下</t>
+    <rPh sb="0" eb="2">
+      <t>ロウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>←</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボス戦はボス浮いてスタート</t>
+    <rPh sb="2" eb="3">
+      <t>タタカ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏入口</t>
+    <rPh sb="0" eb="1">
+      <t>ウラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -695,6 +1806,22 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -704,7 +1831,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="68">
     <border>
       <left/>
       <right/>
@@ -1156,13 +2283,422 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1208,6 +2744,120 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1238,129 +2888,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1534,6 +3070,189 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7026,16 +8745,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>70131</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>554160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>191022</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7058,28 +8777,28 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="304800" y="2241831"/>
-          <a:ext cx="3819525" cy="2873094"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+          <a:off x="952501" y="1781175"/>
+          <a:ext cx="2344859" cy="1772172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>48448</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>205264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7089,41 +8808,41 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6286500"/>
-          <a:ext cx="4163248" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428798</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209676" y="6410326"/>
+          <a:ext cx="1733550" cy="1310163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172141</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73225</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -7133,21 +8852,248 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581025" y="8848725"/>
-          <a:ext cx="1905173" cy="1838325"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="8210551"/>
+          <a:ext cx="1458016" cy="1101924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403830</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447799" y="9793350"/>
+          <a:ext cx="1699231" cy="1284226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678965</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210241</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1364765" y="4686300"/>
+          <a:ext cx="1588676" cy="1200672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162531</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="11382375"/>
+          <a:ext cx="2810481" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2344859" cy="1772172"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:artisticGlowEdges/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="240000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553701" y="1781175"/>
+          <a:ext cx="2344859" cy="1772172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10887076" y="4676776"/>
+          <a:ext cx="1647824" cy="1245375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7164,6 +9110,143 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="2241831"/>
+          <a:ext cx="3819525" cy="2873094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>48448</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6286500"/>
+          <a:ext cx="4163248" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428798</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="8848725"/>
+          <a:ext cx="1905173" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -7252,7 +9335,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11919,7 +14002,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
       <selection activeCell="DU108" sqref="DU108"/>
     </sheetView>
   </sheetViews>
@@ -11942,310 +14025,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="18"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="18"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="20"/>
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="21"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="61"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="40"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46"/>
+      <c r="M7" s="46"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="27"/>
-      <c r="N8" s="41"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="47"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="47"/>
+      <c r="K8" s="47"/>
+      <c r="L8" s="47"/>
+      <c r="M8" s="47"/>
+      <c r="N8" s="49"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="26"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="41"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="47"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="49"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="26"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="27"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="41"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="47"/>
+      <c r="I10" s="47"/>
+      <c r="J10" s="47"/>
+      <c r="K10" s="47"/>
+      <c r="L10" s="47"/>
+      <c r="M10" s="47"/>
+      <c r="N10" s="49"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="64" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="27"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="31" t="s">
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31" t="s">
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="J11" s="31"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="31"/>
-      <c r="N11" s="42"/>
+      <c r="M11" s="50"/>
+      <c r="N11" s="51"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="26"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="32" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32" t="s">
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32" t="s">
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="M12" s="32"/>
-      <c r="N12" s="39"/>
+      <c r="M12" s="44"/>
+      <c r="N12" s="45"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="26"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="32" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="32" t="s">
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="J13" s="32"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="M13" s="32"/>
-      <c r="N13" s="39"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="45"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="26"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="32" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32" t="s">
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32" t="s">
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="39"/>
+      <c r="M14" s="44"/>
+      <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="64" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="32" t="s">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32" t="s">
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="M15" s="32"/>
-      <c r="N15" s="39"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="45"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="32" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
-      <c r="I16" s="61" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="62"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="32" t="s">
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="M16" s="32"/>
-      <c r="N16" s="39"/>
+      <c r="M16" s="44"/>
+      <c r="N16" s="45"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="26"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="64"/>
-      <c r="L17" s="33"/>
-      <c r="M17" s="34"/>
-      <c r="N17" s="35"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="K18" s="65"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="38"/>
+      <c r="B18" s="65"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="40"/>
+      <c r="N18" s="43"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="46"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="48"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="48"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="49"/>
-      <c r="B24" s="50"/>
-      <c r="C24" s="50"/>
-      <c r="D24" s="51"/>
+      <c r="A24" s="21"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="52" t="s">
+      <c r="C27" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="54"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="26"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="55" t="s">
+      <c r="C28" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="56"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="57"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="60"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="32"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -12255,13 +14338,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -12278,18 +14366,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12309,7 +14392,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="53" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="75"/>
@@ -12431,24 +14514,24 @@
       <c r="A59" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B59" s="16"/>
-      <c r="C59" s="16"/>
-      <c r="D59" s="16"/>
-      <c r="E59" s="17"/>
+      <c r="B59" s="54"/>
+      <c r="C59" s="54"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="55"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="19"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="20"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="58"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="21"/>
-      <c r="B61" s="22"/>
-      <c r="C61" s="22"/>
-      <c r="D61" s="22"/>
-      <c r="E61" s="23"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="61"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -12548,14 +14631,1401 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33:H33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="124" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="56"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="58"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A3" s="56"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="58"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A4" s="56"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+    </row>
+    <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="59"/>
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="61"/>
+    </row>
+    <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="125" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="127"/>
+      <c r="N7" s="128"/>
+      <c r="O7" s="125" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="126" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q7" s="127"/>
+      <c r="R7" s="127"/>
+      <c r="S7" s="128"/>
+      <c r="T7" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55"/>
+      <c r="W7" s="129" t="s">
+        <v>50</v>
+      </c>
+      <c r="X7" s="54"/>
+      <c r="Y7" s="55"/>
+      <c r="Z7" s="130" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA7" s="127"/>
+      <c r="AB7" s="128"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B8" s="129"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="132"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="132"/>
+      <c r="K8" s="133"/>
+      <c r="L8" s="135" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="135"/>
+      <c r="N8" s="136"/>
+      <c r="P8" s="129"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
+      <c r="S8" s="54"/>
+      <c r="T8" s="131" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="132"/>
+      <c r="V8" s="133"/>
+      <c r="W8" s="134" t="s">
+        <v>58</v>
+      </c>
+      <c r="X8" s="132"/>
+      <c r="Y8" s="133"/>
+      <c r="Z8" s="135" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA8" s="135"/>
+      <c r="AB8" s="136"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="108" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="109"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="137" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="109"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="138" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" s="138"/>
+      <c r="N9" s="139"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+      <c r="S9" s="57"/>
+      <c r="T9" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="U9" s="109"/>
+      <c r="V9" s="113"/>
+      <c r="W9" s="137" t="s">
+        <v>64</v>
+      </c>
+      <c r="X9" s="109"/>
+      <c r="Y9" s="113"/>
+      <c r="Z9" s="138" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA9" s="138"/>
+      <c r="AB9" s="139"/>
+    </row>
+    <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="109"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="J10" s="111"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="139"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
+      <c r="S10" s="57"/>
+      <c r="T10" s="108" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="109"/>
+      <c r="V10" s="113"/>
+      <c r="W10" s="140" t="s">
+        <v>67</v>
+      </c>
+      <c r="X10" s="111"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="138"/>
+      <c r="AA10" s="138"/>
+      <c r="AB10" s="139"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="109"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="132"/>
+      <c r="K11" s="133"/>
+      <c r="L11" s="141"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="139"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="57"/>
+      <c r="T11" s="108" t="s">
+        <v>69</v>
+      </c>
+      <c r="U11" s="109"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="134" t="s">
+        <v>70</v>
+      </c>
+      <c r="X11" s="132"/>
+      <c r="Y11" s="133"/>
+      <c r="Z11" s="141"/>
+      <c r="AA11" s="138"/>
+      <c r="AB11" s="139"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="G12" s="109"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="J12" s="109"/>
+      <c r="K12" s="113"/>
+      <c r="L12" s="141"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="139"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="108" t="s">
+        <v>71</v>
+      </c>
+      <c r="U12" s="109"/>
+      <c r="V12" s="113"/>
+      <c r="W12" s="142" t="s">
+        <v>72</v>
+      </c>
+      <c r="X12" s="109"/>
+      <c r="Y12" s="113"/>
+      <c r="Z12" s="141"/>
+      <c r="AA12" s="138"/>
+      <c r="AB12" s="139"/>
+    </row>
+    <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="144"/>
+      <c r="H13" s="145"/>
+      <c r="I13" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="J13" s="111"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="141"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="139"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
+      <c r="S13" s="57"/>
+      <c r="T13" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="U13" s="144"/>
+      <c r="V13" s="145"/>
+      <c r="W13" s="140" t="s">
+        <v>74</v>
+      </c>
+      <c r="X13" s="111"/>
+      <c r="Y13" s="114"/>
+      <c r="Z13" s="141"/>
+      <c r="AA13" s="138"/>
+      <c r="AB13" s="139"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="143" t="s">
+        <v>75</v>
+      </c>
+      <c r="G14" s="109"/>
+      <c r="H14" s="113"/>
+      <c r="I14" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="J14" s="147"/>
+      <c r="K14" s="148"/>
+      <c r="L14" s="141"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="139"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
+      <c r="S14" s="57"/>
+      <c r="T14" s="143" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="109"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="146" t="s">
+        <v>76</v>
+      </c>
+      <c r="X14" s="147"/>
+      <c r="Y14" s="148"/>
+      <c r="Z14" s="141"/>
+      <c r="AA14" s="138"/>
+      <c r="AB14" s="139"/>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="G15" s="109"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="153"/>
+      <c r="N15" s="154"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
+      <c r="S15" s="57"/>
+      <c r="T15" s="108" t="s">
+        <v>78</v>
+      </c>
+      <c r="U15" s="109"/>
+      <c r="V15" s="113"/>
+      <c r="W15" s="149" t="s">
+        <v>79</v>
+      </c>
+      <c r="X15" s="150"/>
+      <c r="Y15" s="151"/>
+      <c r="Z15" s="152"/>
+      <c r="AA15" s="153"/>
+      <c r="AB15" s="154"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="108" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="109"/>
+      <c r="H16" s="113"/>
+      <c r="I16" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="132"/>
+      <c r="K16" s="133"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
+      <c r="S16" s="57"/>
+      <c r="T16" s="108" t="s">
+        <v>82</v>
+      </c>
+      <c r="U16" s="109"/>
+      <c r="V16" s="113"/>
+      <c r="W16" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="X16" s="132"/>
+      <c r="Y16" s="133"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B17" s="56"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="109"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="137" t="s">
+        <v>83</v>
+      </c>
+      <c r="J17" s="109"/>
+      <c r="K17" s="113"/>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
+      <c r="S17" s="57"/>
+      <c r="T17" s="108" t="s">
+        <v>84</v>
+      </c>
+      <c r="U17" s="109"/>
+      <c r="V17" s="113"/>
+      <c r="W17" s="137" t="s">
+        <v>85</v>
+      </c>
+      <c r="X17" s="109"/>
+      <c r="Y17" s="113"/>
+    </row>
+    <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="59"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="155"/>
+      <c r="G18" s="150"/>
+      <c r="H18" s="156"/>
+      <c r="I18" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="111"/>
+      <c r="K18" s="114"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="60"/>
+      <c r="S18" s="60"/>
+      <c r="T18" s="155"/>
+      <c r="U18" s="150"/>
+      <c r="V18" s="156"/>
+      <c r="W18" s="140" t="s">
+        <v>86</v>
+      </c>
+      <c r="X18" s="111"/>
+      <c r="Y18" s="114"/>
+    </row>
+    <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="125" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="126" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="127"/>
+      <c r="D19" s="127"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="157" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="135"/>
+      <c r="H19" s="136"/>
+      <c r="I19" s="158"/>
+      <c r="J19" s="158"/>
+      <c r="K19" s="159"/>
+      <c r="P19" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q19" s="127"/>
+      <c r="R19" s="127"/>
+      <c r="S19" s="127"/>
+      <c r="T19" s="157" t="s">
+        <v>92</v>
+      </c>
+      <c r="U19" s="135"/>
+      <c r="V19" s="136"/>
+      <c r="W19" s="158"/>
+      <c r="X19" s="158"/>
+      <c r="Y19" s="159"/>
+    </row>
+    <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="129"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="141" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20" s="138"/>
+      <c r="H20" s="138"/>
+      <c r="I20" s="131" t="s">
+        <v>94</v>
+      </c>
+      <c r="J20" s="132"/>
+      <c r="K20" s="133"/>
+      <c r="L20" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="M20" s="127"/>
+      <c r="N20" s="128"/>
+      <c r="P20" s="129"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
+      <c r="S20" s="54"/>
+      <c r="T20" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="U20" s="138"/>
+      <c r="V20" s="138"/>
+      <c r="W20" s="131" t="s">
+        <v>96</v>
+      </c>
+      <c r="X20" s="132"/>
+      <c r="Y20" s="133"/>
+      <c r="Z20" s="127" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA20" s="127"/>
+      <c r="AB20" s="128"/>
+    </row>
+    <row r="21" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="56"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="141" t="s">
+        <v>98</v>
+      </c>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="160" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="111"/>
+      <c r="K21" s="114"/>
+      <c r="L21" s="161" t="s">
+        <v>100</v>
+      </c>
+      <c r="M21" s="162"/>
+      <c r="N21" s="163"/>
+      <c r="P21" s="56"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
+      <c r="S21" s="57"/>
+      <c r="T21" s="141" t="s">
+        <v>101</v>
+      </c>
+      <c r="U21" s="138"/>
+      <c r="V21" s="138"/>
+      <c r="W21" s="164" t="s">
+        <v>102</v>
+      </c>
+      <c r="X21" s="109"/>
+      <c r="Y21" s="113"/>
+      <c r="Z21" s="162" t="s">
+        <v>103</v>
+      </c>
+      <c r="AA21" s="162"/>
+      <c r="AB21" s="163"/>
+    </row>
+    <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="56"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="141" t="s">
+        <v>104</v>
+      </c>
+      <c r="G22" s="138"/>
+      <c r="H22" s="138"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="168"/>
+      <c r="N22" s="169"/>
+      <c r="P22" s="56"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
+      <c r="S22" s="57"/>
+      <c r="T22" s="141" t="s">
+        <v>105</v>
+      </c>
+      <c r="U22" s="138"/>
+      <c r="V22" s="138"/>
+      <c r="W22" s="110" t="s">
+        <v>106</v>
+      </c>
+      <c r="X22" s="111"/>
+      <c r="Y22" s="114"/>
+      <c r="Z22" s="168"/>
+      <c r="AA22" s="168"/>
+      <c r="AB22" s="169"/>
+    </row>
+    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="56"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="141" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" s="138"/>
+      <c r="H23" s="138"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="109"/>
+      <c r="K23" s="113"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57"/>
+      <c r="R23" s="57"/>
+      <c r="S23" s="57"/>
+      <c r="T23" s="141" t="s">
+        <v>108</v>
+      </c>
+      <c r="U23" s="138"/>
+      <c r="V23" s="139"/>
+      <c r="W23" s="165"/>
+      <c r="X23" s="147"/>
+      <c r="Y23" s="166"/>
+      <c r="Z23" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA23" s="127"/>
+      <c r="AB23" s="128"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B24" s="56"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="170" t="s">
+        <v>110</v>
+      </c>
+      <c r="G24" s="138"/>
+      <c r="H24" s="138"/>
+      <c r="I24" s="108"/>
+      <c r="J24" s="109"/>
+      <c r="K24" s="113"/>
+      <c r="P24" s="56"/>
+      <c r="Q24" s="57"/>
+      <c r="R24" s="57"/>
+      <c r="S24" s="57"/>
+      <c r="T24" s="141" t="s">
+        <v>111</v>
+      </c>
+      <c r="U24" s="138"/>
+      <c r="V24" s="139"/>
+      <c r="W24" s="108"/>
+      <c r="X24" s="109"/>
+      <c r="Y24" s="113"/>
+    </row>
+    <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
+      <c r="F25" s="171" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="172"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="110"/>
+      <c r="J25" s="111"/>
+      <c r="K25" s="114"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="60"/>
+      <c r="R25" s="60"/>
+      <c r="S25" s="60"/>
+      <c r="T25" s="152" t="s">
+        <v>82</v>
+      </c>
+      <c r="U25" s="153"/>
+      <c r="V25" s="154"/>
+      <c r="W25" s="110"/>
+      <c r="X25" s="111"/>
+      <c r="Y25" s="114"/>
+    </row>
+    <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="126" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="127"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" s="132"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="159"/>
+      <c r="P26" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q26" s="127"/>
+      <c r="R26" s="127"/>
+      <c r="S26" s="127"/>
+      <c r="T26" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="U26" s="132"/>
+      <c r="V26" s="133"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="159"/>
+    </row>
+    <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="129"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="109"/>
+      <c r="H27" s="173"/>
+      <c r="I27" s="131" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="132"/>
+      <c r="K27" s="133"/>
+      <c r="L27" s="126" t="s">
+        <v>116</v>
+      </c>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
+      <c r="P27" s="129"/>
+      <c r="Q27" s="54"/>
+      <c r="R27" s="54"/>
+      <c r="S27" s="54"/>
+      <c r="T27" s="108" t="s">
+        <v>93</v>
+      </c>
+      <c r="U27" s="109"/>
+      <c r="V27" s="173"/>
+      <c r="W27" s="131" t="s">
+        <v>117</v>
+      </c>
+      <c r="X27" s="132"/>
+      <c r="Y27" s="133"/>
+      <c r="Z27" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA27" s="127"/>
+      <c r="AB27" s="128"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B28" s="56"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" s="109"/>
+      <c r="H28" s="173"/>
+      <c r="I28" s="108" t="s">
+        <v>120</v>
+      </c>
+      <c r="J28" s="109"/>
+      <c r="K28" s="113"/>
+      <c r="L28" s="161" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="162"/>
+      <c r="N28" s="163"/>
+      <c r="P28" s="56"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="U28" s="109"/>
+      <c r="V28" s="173"/>
+      <c r="W28" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="X28" s="109"/>
+      <c r="Y28" s="113"/>
+      <c r="Z28" s="161" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA28" s="162"/>
+      <c r="AB28" s="163"/>
+    </row>
+    <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="108" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="109"/>
+      <c r="H29" s="173"/>
+      <c r="I29" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="J29" s="111"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="168"/>
+      <c r="N29" s="169"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="57"/>
+      <c r="S29" s="57"/>
+      <c r="T29" s="108" t="s">
+        <v>126</v>
+      </c>
+      <c r="U29" s="109"/>
+      <c r="V29" s="173"/>
+      <c r="W29" s="110" t="s">
+        <v>127</v>
+      </c>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="114"/>
+      <c r="Z29" s="167"/>
+      <c r="AA29" s="168"/>
+      <c r="AB29" s="169"/>
+    </row>
+    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="56"/>
+      <c r="C30" s="57"/>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="108" t="s">
+        <v>129</v>
+      </c>
+      <c r="G30" s="109"/>
+      <c r="H30" s="173"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="126" t="s">
+        <v>130</v>
+      </c>
+      <c r="M30" s="127"/>
+      <c r="N30" s="128"/>
+      <c r="P30" s="56"/>
+      <c r="Q30" s="57"/>
+      <c r="R30" s="57"/>
+      <c r="S30" s="57"/>
+      <c r="T30" s="108" t="s">
+        <v>131</v>
+      </c>
+      <c r="U30" s="109"/>
+      <c r="V30" s="173"/>
+      <c r="W30" s="165"/>
+      <c r="X30" s="147"/>
+      <c r="Y30" s="166"/>
+      <c r="Z30" s="174" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA30" s="127"/>
+      <c r="AB30" s="128"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B31" s="56"/>
+      <c r="C31" s="57"/>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="108" t="s">
+        <v>133</v>
+      </c>
+      <c r="G31" s="109"/>
+      <c r="H31" s="173"/>
+      <c r="I31" s="108"/>
+      <c r="J31" s="109"/>
+      <c r="K31" s="113"/>
+      <c r="P31" s="56"/>
+      <c r="Q31" s="57"/>
+      <c r="R31" s="57"/>
+      <c r="S31" s="57"/>
+      <c r="T31" s="108" t="s">
+        <v>134</v>
+      </c>
+      <c r="U31" s="109"/>
+      <c r="V31" s="173"/>
+      <c r="W31" s="108"/>
+      <c r="X31" s="109"/>
+      <c r="Y31" s="113"/>
+    </row>
+    <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="110" t="s">
+        <v>135</v>
+      </c>
+      <c r="G32" s="111"/>
+      <c r="H32" s="175"/>
+      <c r="I32" s="110"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="114"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="60"/>
+      <c r="S32" s="60"/>
+      <c r="T32" s="110" t="s">
+        <v>136</v>
+      </c>
+      <c r="U32" s="111"/>
+      <c r="V32" s="175"/>
+      <c r="W32" s="110"/>
+      <c r="X32" s="111"/>
+      <c r="Y32" s="114"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="126" t="s">
+        <v>137</v>
+      </c>
+      <c r="C33" s="127"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="131" t="s">
+        <v>138</v>
+      </c>
+      <c r="G33" s="132"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="159"/>
+    </row>
+    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="129"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G34" s="109"/>
+      <c r="H34" s="173"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="126" t="s">
+        <v>139</v>
+      </c>
+      <c r="M34" s="127"/>
+      <c r="N34" s="128"/>
+    </row>
+    <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="56"/>
+      <c r="C35" s="57"/>
+      <c r="D35" s="57"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="108" t="s">
+        <v>140</v>
+      </c>
+      <c r="G35" s="109"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="165"/>
+      <c r="J35" s="147"/>
+      <c r="K35" s="166"/>
+      <c r="L35" s="130" t="s">
+        <v>141</v>
+      </c>
+      <c r="M35" s="127"/>
+      <c r="N35" s="128"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B36" s="56"/>
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="108" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" s="109"/>
+      <c r="H36" s="173"/>
+      <c r="I36" s="165"/>
+      <c r="J36" s="147"/>
+      <c r="K36" s="166"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="56"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="108" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="109"/>
+      <c r="H37" s="173"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="147"/>
+      <c r="K37" s="166"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="56"/>
+      <c r="C38" s="57"/>
+      <c r="D38" s="57"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="108" t="s">
+        <v>144</v>
+      </c>
+      <c r="G38" s="109"/>
+      <c r="H38" s="173"/>
+      <c r="I38" s="108"/>
+      <c r="J38" s="109"/>
+      <c r="K38" s="113"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="110"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="110"/>
+      <c r="J39" s="111"/>
+      <c r="K39" s="114"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="126" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="127"/>
+      <c r="D40" s="127"/>
+      <c r="E40" s="127"/>
+      <c r="F40" s="131" t="s">
+        <v>113</v>
+      </c>
+      <c r="G40" s="132"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="158"/>
+      <c r="J40" s="158"/>
+      <c r="K40" s="159"/>
+    </row>
+    <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="129"/>
+      <c r="C41" s="54"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
+      <c r="F41" s="108" t="s">
+        <v>66</v>
+      </c>
+      <c r="G41" s="109"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="131" t="s">
+        <v>146</v>
+      </c>
+      <c r="J41" s="132"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="126" t="s">
+        <v>147</v>
+      </c>
+      <c r="M41" s="127"/>
+      <c r="N41" s="128"/>
+    </row>
+    <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="56"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="109"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="176" t="s">
+        <v>149</v>
+      </c>
+      <c r="J42" s="177"/>
+      <c r="K42" s="178"/>
+      <c r="L42" s="126" t="s">
+        <v>150</v>
+      </c>
+      <c r="M42" s="127"/>
+      <c r="N42" s="128"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="56"/>
+      <c r="C43" s="57"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="108" t="s">
+        <v>151</v>
+      </c>
+      <c r="G43" s="109"/>
+      <c r="H43" s="173"/>
+      <c r="I43" s="165"/>
+      <c r="J43" s="147"/>
+      <c r="K43" s="166"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="56"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="108" t="s">
+        <v>128</v>
+      </c>
+      <c r="G44" s="109"/>
+      <c r="H44" s="173"/>
+      <c r="I44" s="165"/>
+      <c r="J44" s="147"/>
+      <c r="K44" s="166"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="56"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="108" t="s">
+        <v>152</v>
+      </c>
+      <c r="G45" s="109"/>
+      <c r="H45" s="173"/>
+      <c r="I45" s="108"/>
+      <c r="J45" s="109"/>
+      <c r="K45" s="113"/>
+    </row>
+    <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="56"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="60"/>
+      <c r="E46" s="60"/>
+      <c r="F46" s="110" t="s">
+        <v>153</v>
+      </c>
+      <c r="G46" s="111"/>
+      <c r="H46" s="175"/>
+      <c r="I46" s="110"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="114"/>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="126" t="s">
+        <v>154</v>
+      </c>
+      <c r="B47" s="128"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E52" s="179" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" t="s">
+        <v>157</v>
+      </c>
+      <c r="J53" s="180" t="s">
+        <v>158</v>
+      </c>
+      <c r="K53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>160</v>
+      </c>
+      <c r="E54" s="181" t="s">
+        <v>161</v>
+      </c>
+      <c r="F54" s="182"/>
+    </row>
+    <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="183"/>
+      <c r="B55" s="183"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="183"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="183"/>
+    </row>
+  </sheetData>
+  <mergeCells count="178">
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="P8:S18"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="P7:S7"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -12600,18 +16070,18 @@
       <c r="B6" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="17"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="18"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="20"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="61"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -5,25 +5,24 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1A\Desktop\shachiku\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GA1B\Desktop\shachiku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
-    <sheet name="アイテム" sheetId="2" r:id="rId2"/>
-    <sheet name="ステージ" sheetId="3" r:id="rId3"/>
-    <sheet name="ステージ２" sheetId="8" r:id="rId4"/>
-    <sheet name="ステージ３" sheetId="9" r:id="rId5"/>
-    <sheet name="ステージ４" sheetId="10" r:id="rId6"/>
-    <sheet name="ステージ５" sheetId="11" r:id="rId7"/>
-    <sheet name="操作" sheetId="4" r:id="rId8"/>
-    <sheet name="敵" sheetId="5" r:id="rId9"/>
-    <sheet name="タイトル" sheetId="6" r:id="rId10"/>
-    <sheet name="エンディング" sheetId="7" r:id="rId11"/>
-    <sheet name="ステージ案" sheetId="12" r:id="rId12"/>
+    <sheet name="タイトル" sheetId="6" r:id="rId2"/>
+    <sheet name="エンディング" sheetId="7" r:id="rId3"/>
+    <sheet name="アイテム" sheetId="2" r:id="rId4"/>
+    <sheet name="ステージ" sheetId="3" r:id="rId5"/>
+    <sheet name="ステージ２" sheetId="8" r:id="rId6"/>
+    <sheet name="ステージ３" sheetId="12" r:id="rId7"/>
+    <sheet name="ステージ４" sheetId="10" r:id="rId8"/>
+    <sheet name="ステージ５" sheetId="11" r:id="rId9"/>
+    <sheet name="操作" sheetId="4" r:id="rId10"/>
+    <sheet name="敵" sheetId="5" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -38,21 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="162">
-  <si>
-    <t>これは最初のステージには出さない</t>
-    <rPh sb="3" eb="5">
-      <t>サイショ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>シーンフロー　アルファ</t>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="160">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -2698,7 +2683,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2738,12 +2723,117 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2807,96 +2897,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2948,6 +2954,186 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3023,27 +3209,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3071,188 +3239,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3262,6 +3253,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFEF2F2F"/>
       <color rgb="FFFF0066"/>
       <color rgb="FFFB6F6F"/>
       <color rgb="FFFF5805"/>
@@ -3285,33 +3277,38 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>581024</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>383595</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>214594</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
+        <xdr:cNvPr id="26" name="角丸四角形 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2638424" y="885826"/>
-          <a:ext cx="1695451" cy="514350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="1755195" y="323850"/>
+          <a:ext cx="988005" cy="366994"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:srgbClr val="EF2F2F"/>
         </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3335,9 +3332,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>ゲーム起動</a:t>
@@ -3349,33 +3346,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>405246</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>178377</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>555045</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>405246</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>216476</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>52669</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="27" name="角丸四角形 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2483428" y="2602922"/>
-          <a:ext cx="2078182" cy="523009"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="3298245" y="1123950"/>
+          <a:ext cx="988005" cy="366994"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent5"/>
         </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3399,12 +3401,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>タイトル画面</a:t>
+            <a:t>ゲーム終了</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3413,33 +3415,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>274617</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>44533</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>587580</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>80158</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>202620</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>90769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="28" name="角丸四角形 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2352799" y="4408715"/>
-          <a:ext cx="2391145" cy="520534"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="1574220" y="2828925"/>
+          <a:ext cx="1445205" cy="366994"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
           <a:schemeClr val="accent2"/>
         </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3463,9 +3470,9 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
             <a:t>ステージ選択画面</a:t>
@@ -3477,33 +3484,38 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>47007</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>91540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>603663</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>129639</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>183570</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>186019</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvPr id="29" name="角丸四角形 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6974280" y="576449"/>
-          <a:ext cx="1942110" cy="523008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="1555170" y="1971675"/>
+          <a:ext cx="1483305" cy="366994"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent1"/>
         </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3527,13 +3539,18 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>武器選択画面</a:t>
+            <a:t>鎌の属性選択画面</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3541,33 +3558,40 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>575212</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>210292</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>213263</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>5937</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402645</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>62194</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="正方形/長方形 5"/>
+        <xdr:cNvPr id="30" name="角丸四角形 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2653394" y="6271656"/>
-          <a:ext cx="1716233" cy="523008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
+          <a:off x="1774245" y="1133475"/>
+          <a:ext cx="988005" cy="366994"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="accent2"/>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
+        <a:ln w="3175">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3591,12 +3615,12 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
               <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ステージ１</a:t>
+            <a:t>タイトル</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -3605,26 +3629,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>127413</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>435428</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>236268</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>20956</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="下矢印 6"/>
+        <xdr:cNvPr id="31" name="下矢印 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3151909" y="1582140"/>
-          <a:ext cx="747155" cy="836219"/>
+          <a:off x="2133600" y="735331"/>
+          <a:ext cx="247650" cy="369569"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3659,90 +3683,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>294409</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>207818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>17318</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>3463</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>116206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="32" name="下矢印 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="294409" y="8382000"/>
-          <a:ext cx="3186545" cy="523008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ステージ　クリア画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>398318</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>103909</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>452746</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>212764</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="下矢印 10"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3169227" y="3255818"/>
-          <a:ext cx="747155" cy="836219"/>
+          <a:off x="2143125" y="1554481"/>
+          <a:ext cx="247650" cy="369569"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3777,26 +3737,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>363682</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>418110</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>143492</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>230506</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="下矢印 11"/>
+        <xdr:cNvPr id="33" name="下矢印 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3134591" y="5126182"/>
-          <a:ext cx="747155" cy="836219"/>
+          <a:off x="2152650" y="2383156"/>
+          <a:ext cx="247650" cy="369569"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3831,26 +3791,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>294408</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>348836</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>56900</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>110491</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5716</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>5716</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="下矢印 12"/>
+        <xdr:cNvPr id="34" name="下矢印 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="2014052">
-          <a:off x="1679863" y="7394863"/>
-          <a:ext cx="747155" cy="836219"/>
+        <a:xfrm rot="16200000">
+          <a:off x="2914651" y="1135381"/>
+          <a:ext cx="247650" cy="369569"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
           <a:avLst/>
@@ -3878,124 +3838,6 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>190498</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>17319</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>244926</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>138546</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="下矢印 13"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="19815140">
-          <a:off x="5039589" y="7464137"/>
-          <a:ext cx="747155" cy="848591"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>380999</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>103908</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4537363" y="8416637"/>
-          <a:ext cx="3186545" cy="523008"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ゲームオーバー画面</a:t>
-          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -8684,662 +8526,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>103909</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>225137</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="正方形/長方形 1"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="23656636" cy="10650682"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="bg1"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>554160</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>191022</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="952501" y="1781175"/>
-          <a:ext cx="2344859" cy="1772172"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>523876</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200026</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>205264</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1209676" y="6410326"/>
-          <a:ext cx="1733550" cy="1310163"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>172141</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>73225</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1457325" y="8210551"/>
-          <a:ext cx="1458016" cy="1101924"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>39750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>403830</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1447799" y="9793350"/>
-          <a:ext cx="1699231" cy="1284226"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>678965</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>210241</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>95772</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1364765" y="4686300"/>
-          <a:ext cx="1588676" cy="1200672"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>162531</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3524250" y="11382375"/>
-          <a:ext cx="2810481" cy="2124075"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2344859" cy="1772172"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId8">
-                  <a14:imgEffect>
-                    <a14:artisticGlowEdges/>
-                  </a14:imgEffect>
-                  <a14:imgEffect>
-                    <a14:saturation sat="240000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10553701" y="1781175"/>
-          <a:ext cx="2344859" cy="1772172"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>600076</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>130951</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10887076" y="4676776"/>
-          <a:ext cx="1647824" cy="1245375"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>70131</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="304800" y="2241831"/>
-          <a:ext cx="3819525" cy="2873094"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>48448</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="6286500"/>
-          <a:ext cx="4163248" cy="1590675"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>428798</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581025" y="8848725"/>
-          <a:ext cx="1905173" cy="1838325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="図 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="114300" y="3933825"/>
-          <a:ext cx="1714500" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="285750" y="2000250"/>
-          <a:ext cx="1543050" cy="1714500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
       <xdr:colOff>600634</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>91888</xdr:rowOff>
@@ -9562,7 +8748,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>ステージの案</a:t>
+            <a:t>ステージ３</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -11849,50 +11035,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>188087</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>205943</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>105</xdr:col>
-      <xdr:colOff>444068</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>202441</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="図 81"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="67111891" y="12101514"/>
-          <a:ext cx="6425873" cy="255981"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>117804</xdr:colOff>
       <xdr:row>57</xdr:row>
@@ -12807,94 +11949,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>101</xdr:col>
-      <xdr:colOff>479754</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>76202</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>110</xdr:col>
-      <xdr:colOff>476252</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>122633</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="図 93"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="67821504" y="17221202"/>
-          <a:ext cx="5997248" cy="284556"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>2864</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>190501</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>160025</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="図 94"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="25088851" y="22386614"/>
-          <a:ext cx="7772400" cy="4681536"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>75</xdr:col>
       <xdr:colOff>241629</xdr:colOff>
       <xdr:row>52</xdr:row>
@@ -12929,94 +11983,6 @@
         <a:xfrm>
           <a:off x="51676629" y="11925302"/>
           <a:ext cx="6168698" cy="265506"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>65</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>94</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>78</xdr:col>
-      <xdr:colOff>338303</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>45724</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="図 96"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="43967400" y="22383750"/>
-          <a:ext cx="8377403" cy="4808224"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>59</xdr:col>
-      <xdr:colOff>238126</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>160026</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>71</xdr:col>
-      <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>113</xdr:row>
-      <xdr:rowOff>79062</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="図 97"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="39576376" y="22305651"/>
-          <a:ext cx="7772400" cy="4681536"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13260,110 +12226,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>77</xdr:col>
-      <xdr:colOff>100461</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>47396</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>81</xdr:col>
-      <xdr:colOff>682336</xdr:colOff>
-      <xdr:row>97</xdr:row>
-      <xdr:rowOff>2248</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="図 102"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
-          <a:duotone>
-            <a:prstClr val="black"/>
-            <a:schemeClr val="accent6">
-              <a:tint val="45000"/>
-              <a:satMod val="400000"/>
-            </a:schemeClr>
-          </a:duotone>
-          <a:extLst>
-            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
-              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-                <a14:imgLayer r:embed="rId12">
-                  <a14:imgEffect>
-                    <a14:brightnessContrast bright="-40000"/>
-                  </a14:imgEffect>
-                </a14:imgLayer>
-              </a14:imgProps>
-            </a:ext>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="52907061" y="21764396"/>
-          <a:ext cx="3325075" cy="412052"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>207651</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>58</xdr:col>
-      <xdr:colOff>619126</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>126687</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="図 103"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="31499176" y="22115151"/>
-          <a:ext cx="7791450" cy="4681536"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -13486,51 +12348,6 @@
         <a:xfrm rot="5400000">
           <a:off x="53064929" y="11181196"/>
           <a:ext cx="6425873" cy="255981"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>273507</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>221455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="図 107"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:biLevel thresh="75000"/>
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4412289" y="6931986"/>
-          <a:ext cx="3317080" cy="406857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13636,6 +12453,677 @@
         <a:xfrm rot="5400000">
           <a:off x="50040116" y="9510187"/>
           <a:ext cx="4103581" cy="780413"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="285750" y="133350"/>
+          <a:ext cx="1495425" cy="361950"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ステージ４</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>554160</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>191022</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952501" y="1781175"/>
+          <a:ext cx="2344859" cy="1772172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>523876</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>85726</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>205264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1209676" y="6410326"/>
+          <a:ext cx="1733550" cy="1310163"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>172141</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>73225</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1457325" y="8210551"/>
+          <a:ext cx="1458016" cy="1101924"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>39750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>403830</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1447799" y="9793350"/>
+          <a:ext cx="1699231" cy="1284226"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>678965</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>210241</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95772</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1364765" y="4686300"/>
+          <a:ext cx="1588676" cy="1200672"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>162531</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3524250" y="11382375"/>
+          <a:ext cx="2810481" cy="2124075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2344859" cy="1772172"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:artisticGlowEdges/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="240000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10553701" y="1781175"/>
+          <a:ext cx="2344859" cy="1772172"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>600076</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>130951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10887076" y="4676776"/>
+          <a:ext cx="1647824" cy="1245375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>70131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="304800" y="2241831"/>
+          <a:ext cx="3819525" cy="2873094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>48448</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6286500"/>
+          <a:ext cx="4163248" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>428798</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="581025" y="8848725"/>
+          <a:ext cx="1905173" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>155972</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="39651" t="13638" r="40399" b="28728"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="514349" y="2070497"/>
+          <a:ext cx="923925" cy="1501378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>192505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>638175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="38736" t="14468" r="42709" b="28241"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447674" y="4012030"/>
+          <a:ext cx="876301" cy="1521996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13912,38 +13400,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O42" sqref="O42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
+      <c r="A1" s="185"/>
+      <c r="B1" s="186"/>
+      <c r="C1" s="186"/>
+      <c r="D1" s="186"/>
+      <c r="E1" s="186"/>
+      <c r="F1" s="186"/>
+      <c r="G1" s="186"/>
+      <c r="H1" s="186"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="185"/>
+      <c r="B2" s="186"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
+      <c r="E2" s="186"/>
+      <c r="F2" s="186"/>
+      <c r="G2" s="186"/>
+      <c r="H2" s="186"/>
     </row>
-    <row r="6" spans="1:11" ht="33" x14ac:dyDescent="0.4">
-      <c r="K6" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K6" s="1"/>
     </row>
     <row r="17" spans="12:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M17" s="1"/>
@@ -13962,9 +13446,6 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
-  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -13973,6 +13454,414 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="73" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="159"/>
+      <c r="C1" s="159"/>
+      <c r="D1" s="160"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2" s="161"/>
+      <c r="B2" s="162"/>
+      <c r="C2" s="162"/>
+      <c r="D2" s="163"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="161"/>
+      <c r="B3" s="162"/>
+      <c r="C3" s="162"/>
+      <c r="D3" s="163"/>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="164"/>
+      <c r="B4" s="165"/>
+      <c r="C4" s="165"/>
+      <c r="D4" s="166"/>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="167" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+    </row>
+    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+    </row>
+    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="H11" s="150" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="151"/>
+      <c r="J11" s="151"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="151"/>
+      <c r="M11" s="152"/>
+    </row>
+    <row r="12" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H12" s="156"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="157"/>
+      <c r="K12" s="157"/>
+      <c r="L12" s="157"/>
+      <c r="M12" s="158"/>
+    </row>
+    <row r="27" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="28" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H28" s="150" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="151"/>
+      <c r="J28" s="151"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+    </row>
+    <row r="29" spans="8:12" x14ac:dyDescent="0.4">
+      <c r="H29" s="153"/>
+      <c r="I29" s="154"/>
+      <c r="J29" s="154"/>
+      <c r="K29" s="154"/>
+      <c r="L29" s="155"/>
+    </row>
+    <row r="30" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H30" s="156"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="157"/>
+      <c r="K30" s="157"/>
+      <c r="L30" s="158"/>
+    </row>
+    <row r="38" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F39" s="168" t="s">
+        <v>30</v>
+      </c>
+      <c r="G39" s="169"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="170"/>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F40" s="20"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="171"/>
+    </row>
+    <row r="41" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F41" s="172"/>
+      <c r="G41" s="173"/>
+      <c r="H41" s="173"/>
+      <c r="I41" s="173"/>
+      <c r="J41" s="174"/>
+    </row>
+    <row r="48" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="49" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F49" s="150" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="151"/>
+      <c r="H49" s="151"/>
+      <c r="I49" s="151"/>
+      <c r="J49" s="152"/>
+    </row>
+    <row r="50" spans="6:10" x14ac:dyDescent="0.4">
+      <c r="F50" s="153"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="155"/>
+    </row>
+    <row r="51" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="F51" s="156"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="158"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F49:J51"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B6:D8"/>
+    <mergeCell ref="H11:M12"/>
+    <mergeCell ref="H28:L30"/>
+    <mergeCell ref="F39:J41"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="176" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="177"/>
+      <c r="B2" s="177"/>
+      <c r="C2" s="177"/>
+      <c r="D2" s="177"/>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="177"/>
+      <c r="B3" s="177"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="179"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="180"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="181"/>
+      <c r="B5" s="182"/>
+      <c r="C5" s="182"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="183"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="184" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="100"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="184"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="100"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="100"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
+      <c r="D9" s="175" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
+      <c r="G9" s="100"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
+      <c r="G10" s="100"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="100"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="100"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+      <c r="G13" s="100"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14" s="97"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
+      <c r="G14" s="100"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
+      <c r="G15" s="100"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
+      <c r="G16" s="100"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17" s="97"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="175" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="100"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
+      <c r="G18" s="100"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
+      <c r="G19" s="100"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A20" s="97"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="100"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A21" s="97"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
+      <c r="G21" s="100"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A22" s="97"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
+      <c r="G22" s="100"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
+      <c r="G23" s="100"/>
+    </row>
+    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A17:C24"/>
+    <mergeCell ref="D17:G24"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A4:G5"/>
+    <mergeCell ref="A6:G8"/>
+    <mergeCell ref="A9:C16"/>
+    <mergeCell ref="D9:G16"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13985,7 +13874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -13998,337 +13887,321 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
-      <selection activeCell="DU108" sqref="DU108"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="A1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="59"/>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="61"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="46"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="46"/>
-      <c r="K7" s="46"/>
-      <c r="L7" s="46"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="48"/>
+      <c r="B7" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="63"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
-      <c r="K8" s="47"/>
-      <c r="L8" s="47"/>
-      <c r="M8" s="47"/>
-      <c r="N8" s="49"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="63"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
-      <c r="K9" s="47"/>
-      <c r="L9" s="47"/>
-      <c r="M9" s="47"/>
-      <c r="N9" s="49"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="49"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="50" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50" t="s">
-        <v>13</v>
-      </c>
-      <c r="M11" s="50"/>
-      <c r="N11" s="51"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="M11" s="38"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="63"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" s="44"/>
-      <c r="N12" s="45"/>
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="M12" s="39"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="63"/>
-      <c r="C13" s="47"/>
-      <c r="D13" s="47"/>
-      <c r="E13" s="44" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" s="44"/>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44" t="s">
-        <v>14</v>
-      </c>
-      <c r="M13" s="44"/>
-      <c r="N13" s="45"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="M13" s="39"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="63"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="44"/>
-      <c r="N14" s="45"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" s="39"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="64" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" s="44"/>
-      <c r="N15" s="45"/>
+      <c r="B15" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39" t="s">
+        <v>14</v>
+      </c>
+      <c r="M15" s="39"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="63"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="44" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="M16" s="44"/>
-      <c r="N16" s="45"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="63"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="36"/>
-      <c r="M17" s="37"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
       <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="65"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="39"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="39"/>
-      <c r="M18" s="40"/>
-      <c r="N18" s="43"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="17"/>
+      <c r="A21" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="20"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="20"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="21"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="25"/>
-      <c r="F27" s="26"/>
+      <c r="C27" s="59" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="29"/>
+      <c r="C28" s="62" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="32"/>
+      <c r="C29" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -14338,18 +14211,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -14366,13 +14234,18 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14381,7 +14254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
@@ -14392,52 +14265,52 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="76"/>
+      <c r="A1" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="83"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="77"/>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="79"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="79"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="86"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="80"/>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="82"/>
+      <c r="A4" s="87"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="89"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="74"/>
+      <c r="C7" s="75"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="78"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="72"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="74"/>
+      <c r="A9" s="79"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="81"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -14462,7 +14335,7 @@
       <c r="H29" s="8"/>
       <c r="I29" s="9"/>
       <c r="K29" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -14478,91 +14351,91 @@
     </row>
     <row r="52" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="66" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="67"/>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="68"/>
+      <c r="A53" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="74"/>
+      <c r="C53" s="74"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="74"/>
+      <c r="F53" s="74"/>
+      <c r="G53" s="74"/>
+      <c r="H53" s="75"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="69"/>
-      <c r="B54" s="70"/>
-      <c r="C54" s="70"/>
-      <c r="D54" s="70"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="70"/>
-      <c r="H54" s="71"/>
+      <c r="A54" s="76"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="77"/>
+      <c r="D54" s="77"/>
+      <c r="E54" s="77"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="77"/>
+      <c r="H54" s="78"/>
     </row>
     <row r="55" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="72"/>
-      <c r="B55" s="73"/>
-      <c r="C55" s="73"/>
-      <c r="D55" s="73"/>
-      <c r="E55" s="73"/>
-      <c r="F55" s="73"/>
-      <c r="G55" s="73"/>
-      <c r="H55" s="74"/>
+      <c r="A55" s="79"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="81"/>
     </row>
     <row r="58" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="54"/>
-      <c r="C59" s="54"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="56"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="58"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="61"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B75" s="67"/>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="68"/>
+      <c r="A75" s="73" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="75"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="69"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="71"/>
+      <c r="A76" s="76"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="78"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="69"/>
-      <c r="B77" s="70"/>
-      <c r="C77" s="70"/>
-      <c r="D77" s="70"/>
-      <c r="E77" s="71"/>
+      <c r="A77" s="76"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="77"/>
+      <c r="D77" s="77"/>
+      <c r="E77" s="78"/>
     </row>
     <row r="78" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="72"/>
-      <c r="B78" s="73"/>
-      <c r="C78" s="73"/>
-      <c r="D78" s="73"/>
-      <c r="E78" s="74"/>
+      <c r="A78" s="79"/>
+      <c r="B78" s="80"/>
+      <c r="C78" s="80"/>
+      <c r="D78" s="80"/>
+      <c r="E78" s="81"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -14586,11 +14459,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
       <selection activeCell="BJ119" sqref="BJ119"/>
     </sheetView>
   </sheetViews>
@@ -14602,11 +14475,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView zoomScale="10" zoomScaleNormal="10" workbookViewId="0">
+      <selection activeCell="AH88" sqref="AH88"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -14616,1279 +14491,1354 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F33" sqref="F33:H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="124" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="55"/>
+      <c r="A1" s="149" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="56"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="58"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="56"/>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="58"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="56"/>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="59"/>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="61"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="125" t="s">
-        <v>39</v>
+      <c r="B6" s="13" t="s">
+        <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="109" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="126" t="s">
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="128"/>
-      <c r="F7" s="129" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="113" t="s">
         <v>49</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="129" t="s">
+      <c r="M7" s="105"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="130" t="s">
+      <c r="P7" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="M7" s="127"/>
-      <c r="N7" s="128"/>
-      <c r="O7" s="125" t="s">
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="109" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="126" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q7" s="127"/>
-      <c r="R7" s="127"/>
-      <c r="S7" s="128"/>
-      <c r="T7" s="129" t="s">
-        <v>54</v>
-      </c>
-      <c r="U7" s="54"/>
-      <c r="V7" s="55"/>
-      <c r="W7" s="129" t="s">
-        <v>50</v>
-      </c>
-      <c r="X7" s="54"/>
-      <c r="Y7" s="55"/>
-      <c r="Z7" s="130" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA7" s="127"/>
-      <c r="AB7" s="128"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="109" t="s">
+        <v>48</v>
+      </c>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="113" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="91"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="129"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="131" t="s">
+      <c r="B8" s="109"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="139" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="137" t="s">
         <v>55</v>
       </c>
-      <c r="G8" s="132"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="134" t="s">
+      <c r="M8" s="137"/>
+      <c r="N8" s="138"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="106" t="s">
+        <v>53</v>
+      </c>
+      <c r="U8" s="107"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="J8" s="132"/>
-      <c r="K8" s="133"/>
-      <c r="L8" s="135" t="s">
+      <c r="X8" s="107"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="137" t="s">
         <v>57</v>
       </c>
-      <c r="M8" s="135"/>
-      <c r="N8" s="136"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
-      <c r="S8" s="54"/>
-      <c r="T8" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="U8" s="132"/>
-      <c r="V8" s="133"/>
-      <c r="W8" s="134" t="s">
-        <v>58</v>
-      </c>
-      <c r="X8" s="132"/>
-      <c r="Y8" s="133"/>
-      <c r="Z8" s="135" t="s">
-        <v>59</v>
-      </c>
-      <c r="AA8" s="135"/>
-      <c r="AB8" s="136"/>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="138"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="108" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="98"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="140" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="127" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="109"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="137" t="s">
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="109"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="138" t="s">
+      <c r="U9" s="98"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="M9" s="138"/>
-      <c r="N9" s="139"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="57"/>
-      <c r="R9" s="57"/>
-      <c r="S9" s="57"/>
-      <c r="T9" s="108" t="s">
+      <c r="X9" s="98"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="127" t="s">
         <v>63</v>
       </c>
-      <c r="U9" s="109"/>
-      <c r="V9" s="113"/>
-      <c r="W9" s="137" t="s">
-        <v>64</v>
-      </c>
-      <c r="X9" s="109"/>
-      <c r="Y9" s="113"/>
-      <c r="Z9" s="138" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA9" s="138"/>
-      <c r="AB9" s="139"/>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="128"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="108" t="s">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="98"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="97" t="s">
         <v>66</v>
       </c>
-      <c r="G10" s="109"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="J10" s="111"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="138"/>
-      <c r="M10" s="138"/>
-      <c r="N10" s="139"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="57"/>
-      <c r="R10" s="57"/>
-      <c r="S10" s="57"/>
-      <c r="T10" s="108" t="s">
-        <v>68</v>
-      </c>
-      <c r="U10" s="109"/>
-      <c r="V10" s="113"/>
-      <c r="W10" s="140" t="s">
-        <v>67</v>
-      </c>
-      <c r="X10" s="111"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="138"/>
-      <c r="AA10" s="138"/>
-      <c r="AB10" s="139"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="135" t="s">
+        <v>65</v>
+      </c>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="128"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="109"/>
-      <c r="H11" s="113"/>
-      <c r="I11" s="134" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="141"/>
-      <c r="M11" s="138"/>
-      <c r="N11" s="139"/>
-      <c r="P11" s="56"/>
-      <c r="Q11" s="57"/>
-      <c r="R11" s="57"/>
-      <c r="S11" s="57"/>
-      <c r="T11" s="108" t="s">
-        <v>69</v>
-      </c>
-      <c r="U11" s="109"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="134" t="s">
-        <v>70</v>
-      </c>
-      <c r="X11" s="132"/>
-      <c r="Y11" s="133"/>
-      <c r="Z11" s="141"/>
-      <c r="AA11" s="138"/>
-      <c r="AB11" s="139"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="U11" s="98"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="139" t="s">
+        <v>68</v>
+      </c>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="128"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="G12" s="109"/>
-      <c r="H12" s="113"/>
-      <c r="I12" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="J12" s="109"/>
-      <c r="K12" s="113"/>
-      <c r="L12" s="141"/>
-      <c r="M12" s="138"/>
-      <c r="N12" s="139"/>
-      <c r="P12" s="56"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="108" t="s">
-        <v>71</v>
-      </c>
-      <c r="U12" s="109"/>
-      <c r="V12" s="113"/>
-      <c r="W12" s="142" t="s">
-        <v>72</v>
-      </c>
-      <c r="X12" s="109"/>
-      <c r="Y12" s="113"/>
-      <c r="Z12" s="141"/>
-      <c r="AA12" s="138"/>
-      <c r="AB12" s="139"/>
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="98"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="148" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="98"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="128"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="U12" s="98"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="148" t="s">
+        <v>70</v>
+      </c>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="128"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
       <c r="F13" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="144"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="111"/>
-      <c r="K13" s="114"/>
-      <c r="L13" s="141"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="139"/>
-      <c r="P13" s="56"/>
-      <c r="Q13" s="57"/>
-      <c r="R13" s="57"/>
-      <c r="S13" s="57"/>
+        <v>71</v>
+      </c>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="J13" s="102"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
       <c r="T13" s="143" t="s">
-        <v>73</v>
-      </c>
-      <c r="U13" s="144"/>
-      <c r="V13" s="145"/>
-      <c r="W13" s="140" t="s">
-        <v>74</v>
-      </c>
-      <c r="X13" s="111"/>
-      <c r="Y13" s="114"/>
-      <c r="Z13" s="141"/>
-      <c r="AA13" s="138"/>
-      <c r="AB13" s="139"/>
+        <v>71</v>
+      </c>
+      <c r="U13" s="146"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="135" t="s">
+        <v>72</v>
+      </c>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="128"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
       <c r="F14" s="143" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="98"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="95"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="128"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="143" t="s">
         <v>75</v>
       </c>
-      <c r="G14" s="109"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="147"/>
-      <c r="K14" s="148"/>
-      <c r="L14" s="141"/>
-      <c r="M14" s="138"/>
-      <c r="N14" s="139"/>
-      <c r="P14" s="56"/>
-      <c r="Q14" s="57"/>
-      <c r="R14" s="57"/>
-      <c r="S14" s="57"/>
-      <c r="T14" s="143" t="s">
-        <v>77</v>
-      </c>
-      <c r="U14" s="109"/>
-      <c r="V14" s="113"/>
-      <c r="W14" s="146" t="s">
-        <v>76</v>
-      </c>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="148"/>
-      <c r="Z14" s="141"/>
-      <c r="AA14" s="138"/>
-      <c r="AB14" s="139"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="144" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="128"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="G15" s="109"/>
-      <c r="H15" s="113"/>
-      <c r="I15" s="149" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="150"/>
-      <c r="K15" s="151"/>
-      <c r="L15" s="152"/>
-      <c r="M15" s="153"/>
-      <c r="N15" s="154"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="57"/>
-      <c r="R15" s="57"/>
-      <c r="S15" s="57"/>
-      <c r="T15" s="108" t="s">
-        <v>78</v>
-      </c>
-      <c r="U15" s="109"/>
-      <c r="V15" s="113"/>
-      <c r="W15" s="149" t="s">
-        <v>79</v>
-      </c>
-      <c r="X15" s="150"/>
-      <c r="Y15" s="151"/>
-      <c r="Z15" s="152"/>
-      <c r="AA15" s="153"/>
-      <c r="AB15" s="154"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="98"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15" s="133"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="125"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="U15" s="98"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="141" t="s">
+        <v>77</v>
+      </c>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="125"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="108" t="s">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="97" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="107"/>
+      <c r="K16" s="108"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="G16" s="109"/>
-      <c r="H16" s="113"/>
-      <c r="I16" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="J16" s="132"/>
-      <c r="K16" s="133"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="57"/>
-      <c r="T16" s="108" t="s">
-        <v>82</v>
-      </c>
-      <c r="U16" s="109"/>
-      <c r="V16" s="113"/>
-      <c r="W16" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="X16" s="132"/>
-      <c r="Y16" s="133"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="139" t="s">
+        <v>79</v>
+      </c>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="108"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="137" t="s">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="140" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="98"/>
+      <c r="K17" s="100"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="97" t="s">
+        <v>82</v>
+      </c>
+      <c r="U17" s="98"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="J17" s="109"/>
-      <c r="K17" s="113"/>
-      <c r="P17" s="56"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
-      <c r="S17" s="57"/>
-      <c r="T17" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="U17" s="109"/>
-      <c r="V17" s="113"/>
-      <c r="W17" s="137" t="s">
-        <v>85</v>
-      </c>
-      <c r="X17" s="109"/>
-      <c r="Y17" s="113"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="100"/>
     </row>
     <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="59"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="155"/>
-      <c r="G18" s="150"/>
-      <c r="H18" s="156"/>
-      <c r="I18" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="111"/>
-      <c r="K18" s="114"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="60"/>
-      <c r="R18" s="60"/>
-      <c r="S18" s="60"/>
-      <c r="T18" s="155"/>
-      <c r="U18" s="150"/>
-      <c r="V18" s="156"/>
-      <c r="W18" s="140" t="s">
-        <v>86</v>
-      </c>
-      <c r="X18" s="111"/>
-      <c r="Y18" s="114"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="J18" s="102"/>
+      <c r="K18" s="104"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="104"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="125" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="126" t="s">
+      <c r="A19" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="136" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="157" t="s">
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="P19" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="136" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="135"/>
-      <c r="H19" s="136"/>
-      <c r="I19" s="158"/>
-      <c r="J19" s="158"/>
-      <c r="K19" s="159"/>
-      <c r="P19" s="126" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q19" s="127"/>
-      <c r="R19" s="127"/>
-      <c r="S19" s="127"/>
-      <c r="T19" s="157" t="s">
-        <v>92</v>
-      </c>
-      <c r="U19" s="135"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="158"/>
-      <c r="X19" s="158"/>
-      <c r="Y19" s="159"/>
+      <c r="U19" s="137"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="129"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="141" t="s">
+      <c r="B20" s="109"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="126" t="s">
+        <v>91</v>
+      </c>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="90" t="s">
         <v>93</v>
       </c>
-      <c r="G20" s="138"/>
-      <c r="H20" s="138"/>
-      <c r="I20" s="131" t="s">
+      <c r="M20" s="105"/>
+      <c r="N20" s="91"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="126" t="s">
+        <v>64</v>
+      </c>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="106" t="s">
         <v>94</v>
       </c>
-      <c r="J20" s="132"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="126" t="s">
+      <c r="X20" s="107"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="105" t="s">
         <v>95</v>
       </c>
-      <c r="M20" s="127"/>
-      <c r="N20" s="128"/>
-      <c r="P20" s="129"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
-      <c r="S20" s="54"/>
-      <c r="T20" s="141" t="s">
-        <v>66</v>
-      </c>
-      <c r="U20" s="138"/>
-      <c r="V20" s="138"/>
-      <c r="W20" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="X20" s="132"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="127" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="128"/>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="91"/>
     </row>
     <row r="21" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="56"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="141" t="s">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="126" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="129" t="s">
+        <v>97</v>
+      </c>
+      <c r="J21" s="102"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="115" t="s">
         <v>98</v>
       </c>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="160" t="s">
+      <c r="M21" s="116"/>
+      <c r="N21" s="117"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="126" t="s">
         <v>99</v>
       </c>
-      <c r="J21" s="111"/>
-      <c r="K21" s="114"/>
-      <c r="L21" s="161" t="s">
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="130" t="s">
         <v>100</v>
       </c>
-      <c r="M21" s="162"/>
-      <c r="N21" s="163"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="57"/>
-      <c r="S21" s="57"/>
-      <c r="T21" s="141" t="s">
+      <c r="X21" s="98"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="116" t="s">
         <v>101</v>
       </c>
-      <c r="U21" s="138"/>
-      <c r="V21" s="138"/>
-      <c r="W21" s="164" t="s">
-        <v>102</v>
-      </c>
-      <c r="X21" s="109"/>
-      <c r="Y21" s="113"/>
-      <c r="Z21" s="162" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA21" s="162"/>
-      <c r="AB21" s="163"/>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="117"/>
     </row>
     <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="56"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="141" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="120"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="126" t="s">
+        <v>103</v>
+      </c>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="101" t="s">
         <v>104</v>
       </c>
-      <c r="G22" s="138"/>
-      <c r="H22" s="138"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="147"/>
-      <c r="K22" s="166"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="169"/>
-      <c r="P22" s="56"/>
-      <c r="Q22" s="57"/>
-      <c r="R22" s="57"/>
-      <c r="S22" s="57"/>
-      <c r="T22" s="141" t="s">
-        <v>105</v>
-      </c>
-      <c r="U22" s="138"/>
-      <c r="V22" s="138"/>
-      <c r="W22" s="110" t="s">
-        <v>106</v>
-      </c>
-      <c r="X22" s="111"/>
-      <c r="Y22" s="114"/>
-      <c r="Z22" s="168"/>
-      <c r="AA22" s="168"/>
-      <c r="AB22" s="169"/>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="120"/>
     </row>
     <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="56"/>
-      <c r="C23" s="57"/>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="141" t="s">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="126" t="s">
+        <v>106</v>
+      </c>
+      <c r="U23" s="127"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="138"/>
-      <c r="H23" s="138"/>
-      <c r="I23" s="108"/>
-      <c r="J23" s="109"/>
-      <c r="K23" s="113"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57"/>
-      <c r="R23" s="57"/>
-      <c r="S23" s="57"/>
-      <c r="T23" s="141" t="s">
-        <v>108</v>
-      </c>
-      <c r="U23" s="138"/>
-      <c r="V23" s="139"/>
-      <c r="W23" s="165"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="166"/>
-      <c r="Z23" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA23" s="127"/>
-      <c r="AB23" s="128"/>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="91"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="56"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="170" t="s">
-        <v>110</v>
-      </c>
-      <c r="G24" s="138"/>
-      <c r="H24" s="138"/>
-      <c r="I24" s="108"/>
-      <c r="J24" s="109"/>
-      <c r="K24" s="113"/>
-      <c r="P24" s="56"/>
-      <c r="Q24" s="57"/>
-      <c r="R24" s="57"/>
-      <c r="S24" s="57"/>
-      <c r="T24" s="141" t="s">
-        <v>111</v>
-      </c>
-      <c r="U24" s="138"/>
-      <c r="V24" s="139"/>
-      <c r="W24" s="108"/>
-      <c r="X24" s="109"/>
-      <c r="Y24" s="113"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="131" t="s">
+        <v>108</v>
+      </c>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="126" t="s">
+        <v>109</v>
+      </c>
+      <c r="U24" s="127"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="100"/>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="59"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
-      <c r="F25" s="171" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="172"/>
-      <c r="H25" s="172"/>
-      <c r="I25" s="110"/>
-      <c r="J25" s="111"/>
-      <c r="K25" s="114"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="60"/>
-      <c r="R25" s="60"/>
-      <c r="S25" s="60"/>
-      <c r="T25" s="152" t="s">
-        <v>82</v>
-      </c>
-      <c r="U25" s="153"/>
-      <c r="V25" s="154"/>
-      <c r="W25" s="110"/>
-      <c r="X25" s="111"/>
-      <c r="Y25" s="114"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="121" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="104"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="123" t="s">
+        <v>80</v>
+      </c>
+      <c r="U25" s="124"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="104"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="G26" s="107"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="P26" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="131" t="s">
-        <v>113</v>
-      </c>
-      <c r="G26" s="132"/>
-      <c r="H26" s="133"/>
-      <c r="I26" s="158"/>
-      <c r="J26" s="158"/>
-      <c r="K26" s="159"/>
-      <c r="P26" s="126" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="131" t="s">
-        <v>89</v>
-      </c>
-      <c r="U26" s="132"/>
-      <c r="V26" s="133"/>
-      <c r="W26" s="158"/>
-      <c r="X26" s="158"/>
-      <c r="Y26" s="159"/>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="106" t="s">
+        <v>87</v>
+      </c>
+      <c r="U26" s="107"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="15"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="129"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="109"/>
-      <c r="H27" s="173"/>
-      <c r="I27" s="131" t="s">
+      <c r="B27" s="109"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="106" t="s">
+        <v>113</v>
+      </c>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="90" t="s">
+        <v>114</v>
+      </c>
+      <c r="M27" s="105"/>
+      <c r="N27" s="91"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="97" t="s">
+        <v>91</v>
+      </c>
+      <c r="U27" s="98"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="126" t="s">
+      <c r="X27" s="107"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="90" t="s">
         <v>116</v>
       </c>
-      <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
-      <c r="P27" s="129"/>
-      <c r="Q27" s="54"/>
-      <c r="R27" s="54"/>
-      <c r="S27" s="54"/>
-      <c r="T27" s="108" t="s">
-        <v>93</v>
-      </c>
-      <c r="U27" s="109"/>
-      <c r="V27" s="173"/>
-      <c r="W27" s="131" t="s">
-        <v>117</v>
-      </c>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="133"/>
-      <c r="Z27" s="126" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA27" s="127"/>
-      <c r="AB27" s="128"/>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="91"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="56"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="108" t="s">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="97" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="98"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="115" t="s">
         <v>119</v>
       </c>
-      <c r="G28" s="109"/>
-      <c r="H28" s="173"/>
-      <c r="I28" s="108" t="s">
+      <c r="M28" s="116"/>
+      <c r="N28" s="117"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="U28" s="98"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="97" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="109"/>
-      <c r="K28" s="113"/>
-      <c r="L28" s="161" t="s">
+      <c r="X28" s="98"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="115" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="162"/>
-      <c r="N28" s="163"/>
-      <c r="P28" s="56"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="U28" s="109"/>
-      <c r="V28" s="173"/>
-      <c r="W28" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="X28" s="109"/>
-      <c r="Y28" s="113"/>
-      <c r="Z28" s="161" t="s">
-        <v>123</v>
-      </c>
-      <c r="AA28" s="162"/>
-      <c r="AB28" s="163"/>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="117"/>
     </row>
     <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="108" t="s">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="97" t="s">
+        <v>122</v>
+      </c>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="J29" s="102"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="120"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="97" t="s">
         <v>124</v>
       </c>
-      <c r="G29" s="109"/>
-      <c r="H29" s="173"/>
-      <c r="I29" s="110" t="s">
+      <c r="U29" s="98"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="101" t="s">
         <v>125</v>
       </c>
-      <c r="J29" s="111"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="167"/>
-      <c r="M29" s="168"/>
-      <c r="N29" s="169"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="57"/>
-      <c r="S29" s="57"/>
-      <c r="T29" s="108" t="s">
-        <v>126</v>
-      </c>
-      <c r="U29" s="109"/>
-      <c r="V29" s="173"/>
-      <c r="W29" s="110" t="s">
-        <v>127</v>
-      </c>
-      <c r="X29" s="111"/>
-      <c r="Y29" s="114"/>
-      <c r="Z29" s="167"/>
-      <c r="AA29" s="168"/>
-      <c r="AB29" s="169"/>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="120"/>
     </row>
     <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="108" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="97" t="s">
+        <v>127</v>
+      </c>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="90" t="s">
+        <v>128</v>
+      </c>
+      <c r="M30" s="105"/>
+      <c r="N30" s="91"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="109"/>
-      <c r="H30" s="173"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="147"/>
-      <c r="K30" s="166"/>
-      <c r="L30" s="126" t="s">
+      <c r="U30" s="98"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="M30" s="127"/>
-      <c r="N30" s="128"/>
-      <c r="P30" s="56"/>
-      <c r="Q30" s="57"/>
-      <c r="R30" s="57"/>
-      <c r="S30" s="57"/>
-      <c r="T30" s="108" t="s">
-        <v>131</v>
-      </c>
-      <c r="U30" s="109"/>
-      <c r="V30" s="173"/>
-      <c r="W30" s="165"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="166"/>
-      <c r="Z30" s="174" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA30" s="127"/>
-      <c r="AB30" s="128"/>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="91"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="108" t="s">
-        <v>133</v>
-      </c>
-      <c r="G31" s="109"/>
-      <c r="H31" s="173"/>
-      <c r="I31" s="108"/>
-      <c r="J31" s="109"/>
-      <c r="K31" s="113"/>
-      <c r="P31" s="56"/>
-      <c r="Q31" s="57"/>
-      <c r="R31" s="57"/>
-      <c r="S31" s="57"/>
-      <c r="T31" s="108" t="s">
-        <v>134</v>
-      </c>
-      <c r="U31" s="109"/>
-      <c r="V31" s="173"/>
-      <c r="W31" s="108"/>
-      <c r="X31" s="109"/>
-      <c r="Y31" s="113"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="100"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="97" t="s">
+        <v>132</v>
+      </c>
+      <c r="U31" s="98"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="100"/>
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="59"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="60"/>
-      <c r="E32" s="60"/>
-      <c r="F32" s="110" t="s">
-        <v>135</v>
-      </c>
-      <c r="G32" s="111"/>
-      <c r="H32" s="175"/>
-      <c r="I32" s="110"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="114"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="60"/>
-      <c r="R32" s="60"/>
-      <c r="S32" s="60"/>
-      <c r="T32" s="110" t="s">
-        <v>136</v>
-      </c>
-      <c r="U32" s="111"/>
-      <c r="V32" s="175"/>
-      <c r="W32" s="110"/>
-      <c r="X32" s="111"/>
-      <c r="Y32" s="114"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="104"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="101" t="s">
+        <v>134</v>
+      </c>
+      <c r="U32" s="102"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="104"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="126" t="s">
-        <v>137</v>
-      </c>
-      <c r="C33" s="127"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="127"/>
-      <c r="F33" s="131" t="s">
-        <v>138</v>
-      </c>
-      <c r="G33" s="132"/>
-      <c r="H33" s="133"/>
-      <c r="I33" s="158"/>
-      <c r="J33" s="158"/>
-      <c r="K33" s="159"/>
+      <c r="B33" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="106" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="129"/>
-      <c r="C34" s="54"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="109"/>
-      <c r="H34" s="173"/>
-      <c r="I34" s="131"/>
-      <c r="J34" s="132"/>
-      <c r="K34" s="133"/>
-      <c r="L34" s="126" t="s">
-        <v>139</v>
-      </c>
-      <c r="M34" s="127"/>
-      <c r="N34" s="128"/>
+      <c r="B34" s="109"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="98"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="90" t="s">
+        <v>137</v>
+      </c>
+      <c r="M34" s="105"/>
+      <c r="N34" s="91"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="56"/>
-      <c r="C35" s="57"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="57"/>
-      <c r="F35" s="108" t="s">
-        <v>140</v>
-      </c>
-      <c r="G35" s="109"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="165"/>
-      <c r="J35" s="147"/>
-      <c r="K35" s="166"/>
-      <c r="L35" s="130" t="s">
-        <v>141</v>
-      </c>
-      <c r="M35" s="127"/>
-      <c r="N35" s="128"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="97" t="s">
+        <v>138</v>
+      </c>
+      <c r="G35" s="98"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="113" t="s">
+        <v>139</v>
+      </c>
+      <c r="M35" s="105"/>
+      <c r="N35" s="91"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="56"/>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="108" t="s">
-        <v>142</v>
-      </c>
-      <c r="G36" s="109"/>
-      <c r="H36" s="173"/>
-      <c r="I36" s="165"/>
-      <c r="J36" s="147"/>
-      <c r="K36" s="166"/>
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="96"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="56"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="108" t="s">
-        <v>143</v>
-      </c>
-      <c r="G37" s="109"/>
-      <c r="H37" s="173"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="147"/>
-      <c r="K37" s="166"/>
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="96"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="56"/>
-      <c r="C38" s="57"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="57"/>
-      <c r="F38" s="108" t="s">
-        <v>144</v>
-      </c>
-      <c r="G38" s="109"/>
-      <c r="H38" s="173"/>
-      <c r="I38" s="108"/>
-      <c r="J38" s="109"/>
-      <c r="K38" s="113"/>
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="97" t="s">
+        <v>142</v>
+      </c>
+      <c r="G38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="100"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="60"/>
-      <c r="E39" s="60"/>
-      <c r="F39" s="110"/>
-      <c r="G39" s="111"/>
-      <c r="H39" s="175"/>
-      <c r="I39" s="110"/>
-      <c r="J39" s="111"/>
-      <c r="K39" s="114"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="104"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="126" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="131" t="s">
-        <v>113</v>
-      </c>
-      <c r="G40" s="132"/>
-      <c r="H40" s="133"/>
-      <c r="I40" s="158"/>
-      <c r="J40" s="158"/>
-      <c r="K40" s="159"/>
+      <c r="B40" s="90" t="s">
+        <v>143</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="106" t="s">
+        <v>111</v>
+      </c>
+      <c r="G40" s="107"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="129"/>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="108" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="109"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="131" t="s">
-        <v>146</v>
-      </c>
-      <c r="J41" s="132"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="126" t="s">
-        <v>147</v>
-      </c>
-      <c r="M41" s="127"/>
-      <c r="N41" s="128"/>
+      <c r="B41" s="109"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="G41" s="98"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="106" t="s">
+        <v>144</v>
+      </c>
+      <c r="J41" s="107"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="90" t="s">
+        <v>145</v>
+      </c>
+      <c r="M41" s="105"/>
+      <c r="N41" s="91"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="56"/>
-      <c r="C42" s="57"/>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="108" t="s">
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="98"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="110" t="s">
+        <v>147</v>
+      </c>
+      <c r="J42" s="111"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="90" t="s">
         <v>148</v>
       </c>
-      <c r="G42" s="109"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="176" t="s">
-        <v>149</v>
-      </c>
-      <c r="J42" s="177"/>
-      <c r="K42" s="178"/>
-      <c r="L42" s="126" t="s">
-        <v>150</v>
-      </c>
-      <c r="M42" s="127"/>
-      <c r="N42" s="128"/>
+      <c r="M42" s="105"/>
+      <c r="N42" s="91"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="56"/>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="108" t="s">
-        <v>151</v>
-      </c>
-      <c r="G43" s="109"/>
-      <c r="H43" s="173"/>
-      <c r="I43" s="165"/>
-      <c r="J43" s="147"/>
-      <c r="K43" s="166"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="G43" s="98"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="96"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="56"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="108" t="s">
-        <v>128</v>
-      </c>
-      <c r="G44" s="109"/>
-      <c r="H44" s="173"/>
-      <c r="I44" s="165"/>
-      <c r="J44" s="147"/>
-      <c r="K44" s="166"/>
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="G44" s="98"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="96"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="56"/>
-      <c r="C45" s="57"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="G45" s="109"/>
-      <c r="H45" s="173"/>
-      <c r="I45" s="108"/>
-      <c r="J45" s="109"/>
-      <c r="K45" s="113"/>
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="G45" s="98"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="100"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="56"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60"/>
-      <c r="F46" s="110" t="s">
-        <v>153</v>
-      </c>
-      <c r="G46" s="111"/>
-      <c r="H46" s="175"/>
-      <c r="I46" s="110"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="114"/>
+      <c r="B46" s="25"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="101" t="s">
+        <v>151</v>
+      </c>
+      <c r="G46" s="102"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="104"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="126" t="s">
-        <v>154</v>
-      </c>
-      <c r="B47" s="128"/>
+      <c r="A47" s="90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B47" s="91"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E52" s="179" t="s">
-        <v>155</v>
+      <c r="E52" s="16" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
+        <v>154</v>
+      </c>
+      <c r="E53" t="s">
+        <v>155</v>
+      </c>
+      <c r="J53" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E53" t="s">
+      <c r="K53" t="s">
         <v>157</v>
-      </c>
-      <c r="J53" s="180" t="s">
-        <v>158</v>
-      </c>
-      <c r="K53" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
-        <v>160</v>
-      </c>
-      <c r="E54" s="181" t="s">
-        <v>161</v>
-      </c>
-      <c r="F54" s="182"/>
+        <v>158</v>
+      </c>
+      <c r="E54" s="92" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="18"/>
     </row>
     <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="183"/>
-      <c r="B55" s="183"/>
-      <c r="C55" s="183"/>
-      <c r="D55" s="183"/>
-      <c r="E55" s="184"/>
-      <c r="F55" s="183"/>
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="178">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="P8:S18"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="T24:V24"/>
     <mergeCell ref="W29:Y29"/>
     <mergeCell ref="F30:H30"/>
     <mergeCell ref="I30:K30"/>
@@ -15905,534 +15855,54 @@
     <mergeCell ref="Z28:AB29"/>
     <mergeCell ref="F29:H29"/>
     <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B27:E32"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="P27:S32"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="B20:E25"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="P20:S25"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="P8:S18"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="93"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="94"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="96"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="94"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="96"/>
-    </row>
-    <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="97"/>
-      <c r="B4" s="98"/>
-      <c r="C4" s="98"/>
-      <c r="D4" s="99"/>
-    </row>
-    <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="100" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
-    </row>
-    <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-    </row>
-    <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H11" s="83" t="s">
-        <v>30</v>
-      </c>
-      <c r="I11" s="84"/>
-      <c r="J11" s="84"/>
-      <c r="K11" s="84"/>
-      <c r="L11" s="84"/>
-      <c r="M11" s="85"/>
-    </row>
-    <row r="12" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H12" s="89"/>
-      <c r="I12" s="90"/>
-      <c r="J12" s="90"/>
-      <c r="K12" s="90"/>
-      <c r="L12" s="90"/>
-      <c r="M12" s="91"/>
-    </row>
-    <row r="27" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="28" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H28" s="83" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="85"/>
-    </row>
-    <row r="29" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H29" s="86"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="88"/>
-    </row>
-    <row r="30" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H30" s="89"/>
-      <c r="I30" s="90"/>
-      <c r="J30" s="90"/>
-      <c r="K30" s="90"/>
-      <c r="L30" s="91"/>
-    </row>
-    <row r="38" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F39" s="101" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="102"/>
-      <c r="H39" s="102"/>
-      <c r="I39" s="102"/>
-      <c r="J39" s="103"/>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F40" s="13"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="104"/>
-    </row>
-    <row r="41" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F41" s="105"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="107"/>
-    </row>
-    <row r="48" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="49" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F49" s="83" t="s">
-        <v>33</v>
-      </c>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
-      <c r="J49" s="85"/>
-    </row>
-    <row r="50" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F50" s="86"/>
-      <c r="G50" s="87"/>
-      <c r="H50" s="87"/>
-      <c r="I50" s="87"/>
-      <c r="J50" s="88"/>
-    </row>
-    <row r="51" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F51" s="89"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="91"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F49:J51"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B6:D8"/>
-    <mergeCell ref="H11:M12"/>
-    <mergeCell ref="H28:L30"/>
-    <mergeCell ref="F39:J41"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="115" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="116"/>
-      <c r="B2" s="116"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="116"/>
-      <c r="F2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="116"/>
-      <c r="B3" s="116"/>
-      <c r="C3" s="116"/>
-      <c r="D3" s="116"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="117" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="118"/>
-      <c r="C4" s="118"/>
-      <c r="D4" s="118"/>
-      <c r="E4" s="118"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="119"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="120"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="122"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="123" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="109"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="113"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="123"/>
-      <c r="B7" s="109"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="113"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="108"/>
-      <c r="B8" s="109"/>
-      <c r="C8" s="109"/>
-      <c r="D8" s="109"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="109"/>
-      <c r="G8" s="113"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="108"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="109"/>
-      <c r="D9" s="112" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="109"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="113"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="108"/>
-      <c r="B10" s="109"/>
-      <c r="C10" s="109"/>
-      <c r="D10" s="109"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="109"/>
-      <c r="G10" s="113"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="109"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="109"/>
-      <c r="G11" s="113"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="108"/>
-      <c r="B12" s="109"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="113"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="108"/>
-      <c r="B13" s="109"/>
-      <c r="C13" s="109"/>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="113"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="108"/>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="113"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="108"/>
-      <c r="B15" s="109"/>
-      <c r="C15" s="109"/>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="113"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="108"/>
-      <c r="B16" s="109"/>
-      <c r="C16" s="109"/>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="113"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="108"/>
-      <c r="B17" s="109"/>
-      <c r="C17" s="109"/>
-      <c r="D17" s="112" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="109"/>
-      <c r="F17" s="109"/>
-      <c r="G17" s="113"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="108"/>
-      <c r="B18" s="109"/>
-      <c r="C18" s="109"/>
-      <c r="D18" s="109"/>
-      <c r="E18" s="109"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="113"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="108"/>
-      <c r="B19" s="109"/>
-      <c r="C19" s="109"/>
-      <c r="D19" s="109"/>
-      <c r="E19" s="109"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="113"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="108"/>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="113"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="108"/>
-      <c r="B21" s="109"/>
-      <c r="C21" s="109"/>
-      <c r="D21" s="109"/>
-      <c r="E21" s="109"/>
-      <c r="F21" s="109"/>
-      <c r="G21" s="113"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="108"/>
-      <c r="B22" s="109"/>
-      <c r="C22" s="109"/>
-      <c r="D22" s="109"/>
-      <c r="E22" s="109"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="113"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="108"/>
-      <c r="B23" s="109"/>
-      <c r="C23" s="109"/>
-      <c r="D23" s="109"/>
-      <c r="E23" s="109"/>
-      <c r="F23" s="109"/>
-      <c r="G23" s="113"/>
-    </row>
-    <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="110"/>
-      <c r="B24" s="111"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="114"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A17:C24"/>
-    <mergeCell ref="D17:G24"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A4:G5"/>
-    <mergeCell ref="A6:G8"/>
-    <mergeCell ref="A9:C16"/>
-    <mergeCell ref="D9:G16"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
@@ -502,63 +502,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ちょっと位の高い聖職者。
-HPは６０で主人公に
-向かって攻撃をしてくる。
-普通の聖職者と同じように、倒すと
-１回だけ魂を落とす。
-移動速度は主人公と同じくらい。</t>
-    <rPh sb="4" eb="5">
-      <t>クライ</t>
-    </rPh>
-    <rPh sb="6" eb="7">
-      <t>タカ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>セイショクシャ</t>
-    </rPh>
-    <rPh sb="19" eb="22">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ム</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>コウゲキ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>フツウ</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>セイショクシャ</t>
-    </rPh>
-    <rPh sb="44" eb="45">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="50" eb="51">
-      <t>タオ</t>
-    </rPh>
-    <rPh sb="55" eb="56">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="58" eb="59">
-      <t>タマシイ</t>
-    </rPh>
-    <rPh sb="60" eb="61">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="65" eb="69">
-      <t>イドウソクド</t>
-    </rPh>
-    <rPh sb="70" eb="73">
-      <t>シュジンコウ</t>
-    </rPh>
-    <rPh sb="74" eb="75">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SY作成</t>
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
@@ -1673,6 +1616,63 @@
     </rPh>
     <rPh sb="1" eb="3">
       <t>イリグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ちょっと位の高いらしい聖職者。
+HPは６０で主人公に
+向かって攻撃をしてくる。
+普通の聖職者と同じように、倒すと
+１回だけ魂を落とす。
+移動速度は主人公と同じくらい。</t>
+    <rPh sb="4" eb="5">
+      <t>クライ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="22" eb="25">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>フツウ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>セイショクシャ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>タオ</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>タマシイ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="68" eb="72">
+      <t>イドウソクド</t>
+    </rPh>
+    <rPh sb="73" eb="76">
+      <t>シュジンコウ</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>オナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2745,458 +2745,464 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3238,12 +3244,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12469,15 +12469,77 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="14401800" cy="5391150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12486,7 +12548,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="285750" y="133350"/>
+          <a:off x="152400" y="95250"/>
           <a:ext cx="1495425" cy="361950"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -12538,6 +12600,358 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1468759"/>
+          <a:ext cx="590550" cy="332184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="523875" y="1468759"/>
+          <a:ext cx="590550" cy="332184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="1468759"/>
+          <a:ext cx="590550" cy="332184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1609725" y="1468759"/>
+          <a:ext cx="590550" cy="332184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2162175" y="1468759"/>
+          <a:ext cx="590550" cy="332184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="図 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2724150" y="1468759"/>
+          <a:ext cx="590550" cy="332184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3286125" y="1468759"/>
+          <a:ext cx="590550" cy="332184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>40009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>134068</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="図 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3838575" y="1468759"/>
+          <a:ext cx="590550" cy="332184"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -13407,24 +13821,24 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="185"/>
-      <c r="B1" s="186"/>
-      <c r="C1" s="186"/>
-      <c r="D1" s="186"/>
-      <c r="E1" s="186"/>
-      <c r="F1" s="186"/>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="185"/>
-      <c r="B2" s="186"/>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
-      <c r="E2" s="186"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="K6" s="1"/>
@@ -13494,18 +13908,18 @@
       <c r="B6" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="65"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="68"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -13561,18 +13975,18 @@
       <c r="J39" s="170"/>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F40" s="20"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
-      <c r="I40" s="21"/>
-      <c r="J40" s="171"/>
+      <c r="F40" s="171"/>
+      <c r="G40" s="172"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="173"/>
     </row>
     <row r="41" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F41" s="172"/>
-      <c r="G41" s="173"/>
-      <c r="H41" s="173"/>
-      <c r="I41" s="173"/>
-      <c r="J41" s="174"/>
+      <c r="F41" s="174"/>
+      <c r="G41" s="175"/>
+      <c r="H41" s="175"/>
+      <c r="I41" s="175"/>
+      <c r="J41" s="176"/>
     </row>
     <row r="48" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="49" spans="6:10" x14ac:dyDescent="0.4">
@@ -13618,231 +14032,231 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="176" t="s">
+      <c r="A1" s="178" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="177"/>
-      <c r="C1" s="177"/>
-      <c r="D1" s="177"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="179"/>
+      <c r="D1" s="179"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="177"/>
-      <c r="B2" s="177"/>
-      <c r="C2" s="177"/>
-      <c r="D2" s="177"/>
+      <c r="A2" s="179"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
       <c r="F2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="177"/>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
+      <c r="A3" s="179"/>
+      <c r="B3" s="179"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="178" t="s">
+      <c r="A4" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="179"/>
-      <c r="C4" s="179"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180"/>
+      <c r="B4" s="181"/>
+      <c r="C4" s="181"/>
+      <c r="D4" s="181"/>
+      <c r="E4" s="181"/>
+      <c r="F4" s="181"/>
+      <c r="G4" s="182"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="181"/>
-      <c r="B5" s="182"/>
-      <c r="C5" s="182"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
+      <c r="A5" s="183"/>
+      <c r="B5" s="184"/>
+      <c r="C5" s="184"/>
+      <c r="D5" s="184"/>
+      <c r="E5" s="184"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="185"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="184" t="s">
+      <c r="A6" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
       <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="184"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
+      <c r="A7" s="186"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
       <c r="G7" s="100"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
+      <c r="A8" s="98"/>
+      <c r="B8" s="99"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="99"/>
+      <c r="E8" s="99"/>
+      <c r="F8" s="99"/>
       <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="175" t="s">
+      <c r="A9" s="98"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
+      <c r="E9" s="99"/>
+      <c r="F9" s="99"/>
       <c r="G9" s="100"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
+      <c r="A10" s="98"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="99"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="99"/>
       <c r="G10" s="100"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
+      <c r="A11" s="98"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
       <c r="G11" s="100"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
+      <c r="A12" s="98"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="99"/>
+      <c r="D12" s="99"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="99"/>
       <c r="G12" s="100"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
+      <c r="A13" s="98"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
       <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
+      <c r="A14" s="98"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
       <c r="G14" s="100"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
+      <c r="A15" s="98"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="99"/>
       <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
+      <c r="A16" s="98"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="99"/>
+      <c r="D16" s="99"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="99"/>
       <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="175" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
+      <c r="A17" s="98"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="177" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
       <c r="G17" s="100"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
+      <c r="A18" s="98"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="99"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="99"/>
       <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
+      <c r="A19" s="98"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="99"/>
+      <c r="D19" s="99"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="99"/>
       <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
+      <c r="A20" s="98"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="99"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="99"/>
       <c r="G20" s="100"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
+      <c r="A21" s="98"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
       <c r="G21" s="100"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
+      <c r="A22" s="98"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="99"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="99"/>
       <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="97"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
+      <c r="A23" s="98"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
       <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="104"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="E24" s="110"/>
+      <c r="F24" s="110"/>
+      <c r="G24" s="111"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13898,310 +14312,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="66"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="67"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="47"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="48"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="56"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="48"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="48"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="56"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="38" t="s">
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38" t="s">
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38" t="s">
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="49"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="39" t="s">
+      <c r="B12" s="70"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39" t="s">
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="46"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="52"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="70"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39" t="s">
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="46"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="52"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="39" t="s">
+      <c r="B14" s="70"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="s">
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39" t="s">
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="46"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="52"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="39" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39" t="s">
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="46"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="52"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="39" t="s">
+      <c r="B16" s="70"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="68" t="s">
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="39" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="46"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="52"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="45"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="44"/>
+      <c r="N17" s="49"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="48"/>
+      <c r="L18" s="46"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="50"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="A22" s="25"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="36"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="39"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -14211,13 +14625,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -14234,18 +14653,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14265,7 +14679,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="60" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="82"/>
@@ -14387,24 +14801,24 @@
       <c r="A59" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="62"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
+      <c r="A60" s="63"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="65"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="67"/>
+      <c r="C61" s="67"/>
+      <c r="D61" s="67"/>
+      <c r="E61" s="68"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -14495,9 +14909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>
@@ -14511,1204 +14923,1204 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F33" sqref="F33:H33"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="149" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="A1" s="90" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="62"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="65"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="65"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="65"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="66"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
         <v>37</v>
       </c>
       <c r="O6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="109" t="s">
+      <c r="G7" s="61"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="109" t="s">
+      <c r="J7" s="61"/>
+      <c r="K7" s="62"/>
+      <c r="L7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="113" t="s">
+      <c r="M7" s="92"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="105"/>
-      <c r="N7" s="91"/>
-      <c r="O7" s="13" t="s">
+      <c r="P7" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="Q7" s="92"/>
+      <c r="R7" s="92"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="109" t="s">
-        <v>52</v>
-      </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="109" t="s">
+      <c r="U7" s="61"/>
+      <c r="V7" s="62"/>
+      <c r="W7" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="61"/>
+      <c r="Y7" s="62"/>
+      <c r="Z7" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="113" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="91"/>
+      <c r="AA7" s="92"/>
+      <c r="AB7" s="93"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="109"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="106" t="s">
+      <c r="B8" s="94"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="107" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="139" t="s">
+      <c r="J8" s="105"/>
+      <c r="K8" s="106"/>
+      <c r="L8" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="137" t="s">
+      <c r="M8" s="96"/>
+      <c r="N8" s="97"/>
+      <c r="P8" s="94"/>
+      <c r="Q8" s="61"/>
+      <c r="R8" s="61"/>
+      <c r="S8" s="61"/>
+      <c r="T8" s="104" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="105"/>
+      <c r="V8" s="106"/>
+      <c r="W8" s="107" t="s">
         <v>55</v>
       </c>
-      <c r="M8" s="137"/>
-      <c r="N8" s="138"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="106" t="s">
-        <v>53</v>
-      </c>
-      <c r="U8" s="107"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="139" t="s">
+      <c r="X8" s="105"/>
+      <c r="Y8" s="106"/>
+      <c r="Z8" s="96" t="s">
         <v>56</v>
       </c>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="137" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="138"/>
+      <c r="AA8" s="96"/>
+      <c r="AB8" s="97"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="97" t="s">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="98" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="99"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="140" t="s">
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="102" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="127" t="s">
+      <c r="M9" s="102"/>
+      <c r="N9" s="103"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="64"/>
+      <c r="R9" s="64"/>
+      <c r="S9" s="64"/>
+      <c r="T9" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="97" t="s">
+      <c r="U9" s="99"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="101" t="s">
         <v>61</v>
       </c>
-      <c r="U9" s="98"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="140" t="s">
+      <c r="X9" s="99"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="102" t="s">
         <v>62</v>
       </c>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="127" t="s">
-        <v>63</v>
-      </c>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="128"/>
+      <c r="AA9" s="102"/>
+      <c r="AB9" s="103"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="97" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="99"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="109" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="135" t="s">
+      <c r="J10" s="110"/>
+      <c r="K10" s="111"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="102"/>
+      <c r="N10" s="103"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="64"/>
+      <c r="R10" s="64"/>
+      <c r="S10" s="64"/>
+      <c r="T10" s="98" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="128"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="97" t="s">
-        <v>66</v>
-      </c>
-      <c r="U10" s="98"/>
+      <c r="U10" s="99"/>
       <c r="V10" s="100"/>
-      <c r="W10" s="135" t="s">
-        <v>65</v>
-      </c>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="128"/>
+      <c r="W10" s="109" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="110"/>
+      <c r="Y10" s="111"/>
+      <c r="Z10" s="102"/>
+      <c r="AA10" s="102"/>
+      <c r="AB10" s="103"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="97" t="s">
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="64"/>
+      <c r="F11" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="99"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="139" t="s">
-        <v>68</v>
-      </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="128"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="97" t="s">
+      <c r="J11" s="105"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="102"/>
+      <c r="N11" s="103"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="64"/>
+      <c r="R11" s="64"/>
+      <c r="S11" s="64"/>
+      <c r="T11" s="98" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="99"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="107" t="s">
         <v>67</v>
       </c>
-      <c r="U11" s="98"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="139" t="s">
-        <v>68</v>
-      </c>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="128"/>
+      <c r="X11" s="105"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="108"/>
+      <c r="AA11" s="102"/>
+      <c r="AB11" s="103"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="97" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="64"/>
+      <c r="F12" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="99"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="148" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="98"/>
+      <c r="J12" s="99"/>
       <c r="K12" s="100"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="128"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="97" t="s">
+      <c r="L12" s="108"/>
+      <c r="M12" s="102"/>
+      <c r="N12" s="103"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="64"/>
+      <c r="R12" s="64"/>
+      <c r="S12" s="64"/>
+      <c r="T12" s="98" t="s">
+        <v>68</v>
+      </c>
+      <c r="U12" s="99"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="U12" s="98"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="148" t="s">
-        <v>70</v>
-      </c>
-      <c r="X12" s="98"/>
+      <c r="X12" s="99"/>
       <c r="Y12" s="100"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="128"/>
+      <c r="Z12" s="108"/>
+      <c r="AA12" s="102"/>
+      <c r="AB12" s="103"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="143" t="s">
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="113"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="128"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="143" t="s">
+      <c r="J13" s="110"/>
+      <c r="K13" s="111"/>
+      <c r="L13" s="108"/>
+      <c r="M13" s="102"/>
+      <c r="N13" s="103"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="64"/>
+      <c r="T13" s="112" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="113"/>
+      <c r="V13" s="114"/>
+      <c r="W13" s="109" t="s">
         <v>71</v>
       </c>
-      <c r="U13" s="146"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="135" t="s">
-        <v>72</v>
-      </c>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="128"/>
+      <c r="X13" s="110"/>
+      <c r="Y13" s="111"/>
+      <c r="Z13" s="108"/>
+      <c r="AA13" s="102"/>
+      <c r="AB13" s="103"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="143" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="112" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="99"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="122" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="144" t="s">
+      <c r="J14" s="123"/>
+      <c r="K14" s="124"/>
+      <c r="L14" s="108"/>
+      <c r="M14" s="102"/>
+      <c r="N14" s="103"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="128"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="143" t="s">
-        <v>75</v>
-      </c>
-      <c r="U14" s="98"/>
+      <c r="U14" s="99"/>
       <c r="V14" s="100"/>
-      <c r="W14" s="144" t="s">
-        <v>74</v>
-      </c>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="128"/>
+      <c r="W14" s="122" t="s">
+        <v>73</v>
+      </c>
+      <c r="X14" s="123"/>
+      <c r="Y14" s="124"/>
+      <c r="Z14" s="108"/>
+      <c r="AA14" s="102"/>
+      <c r="AB14" s="103"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="97" t="s">
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="99"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="141" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="133"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="125"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="97" t="s">
+      <c r="J15" s="117"/>
+      <c r="K15" s="118"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="121"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="64"/>
+      <c r="T15" s="98" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" s="99"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="116" t="s">
         <v>76</v>
       </c>
-      <c r="U15" s="98"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="141" t="s">
-        <v>77</v>
-      </c>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="125"/>
+      <c r="X15" s="117"/>
+      <c r="Y15" s="118"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="121"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="97" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="99"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="107" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="139" t="s">
+      <c r="J16" s="105"/>
+      <c r="K16" s="106"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="64"/>
+      <c r="T16" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="97" t="s">
-        <v>80</v>
-      </c>
-      <c r="U16" s="98"/>
+      <c r="U16" s="99"/>
       <c r="V16" s="100"/>
-      <c r="W16" s="139" t="s">
-        <v>79</v>
-      </c>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="108"/>
+      <c r="W16" s="107" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="105"/>
+      <c r="Y16" s="106"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="98"/>
+      <c r="G17" s="99"/>
       <c r="H17" s="100"/>
-      <c r="I17" s="140" t="s">
+      <c r="I17" s="101" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="64"/>
+      <c r="T17" s="98" t="s">
         <v>81</v>
       </c>
-      <c r="J17" s="98"/>
-      <c r="K17" s="100"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="97" t="s">
+      <c r="U17" s="99"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="U17" s="98"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="140" t="s">
-        <v>83</v>
-      </c>
-      <c r="X17" s="98"/>
+      <c r="X17" s="99"/>
       <c r="Y17" s="100"/>
     </row>
     <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="104"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="135" t="s">
-        <v>84</v>
-      </c>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="104"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="126"/>
+      <c r="I18" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="110"/>
+      <c r="K18" s="111"/>
+      <c r="P18" s="66"/>
+      <c r="Q18" s="67"/>
+      <c r="R18" s="67"/>
+      <c r="S18" s="67"/>
+      <c r="T18" s="125"/>
+      <c r="U18" s="117"/>
+      <c r="V18" s="126"/>
+      <c r="W18" s="109" t="s">
+        <v>83</v>
+      </c>
+      <c r="X18" s="110"/>
+      <c r="Y18" s="111"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="B19" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="136" t="s">
-        <v>88</v>
-      </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="138"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="127" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="96"/>
+      <c r="H19" s="97"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
-      <c r="P19" s="90" t="s">
+      <c r="P19" s="91" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="92"/>
+      <c r="R19" s="92"/>
+      <c r="S19" s="92"/>
+      <c r="T19" s="127" t="s">
         <v>89</v>
       </c>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="136" t="s">
-        <v>90</v>
-      </c>
-      <c r="U19" s="137"/>
-      <c r="V19" s="138"/>
+      <c r="U19" s="96"/>
+      <c r="V19" s="97"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="109"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="126" t="s">
+      <c r="B20" s="94"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="108" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="102"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="104" t="s">
         <v>91</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="106" t="s">
+      <c r="J20" s="105"/>
+      <c r="K20" s="106"/>
+      <c r="L20" s="91" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="90" t="s">
+      <c r="M20" s="92"/>
+      <c r="N20" s="93"/>
+      <c r="P20" s="94"/>
+      <c r="Q20" s="61"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="108" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="102"/>
+      <c r="V20" s="102"/>
+      <c r="W20" s="104" t="s">
         <v>93</v>
       </c>
-      <c r="M20" s="105"/>
-      <c r="N20" s="91"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="126" t="s">
-        <v>64</v>
-      </c>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="106" t="s">
+      <c r="X20" s="105"/>
+      <c r="Y20" s="106"/>
+      <c r="Z20" s="92" t="s">
         <v>94</v>
       </c>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="105" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA20" s="105"/>
-      <c r="AB20" s="91"/>
+      <c r="AA20" s="92"/>
+      <c r="AB20" s="93"/>
     </row>
     <row r="21" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="126" t="s">
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="64"/>
+      <c r="E21" s="64"/>
+      <c r="F21" s="108" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="102"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="131" t="s">
         <v>96</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="129" t="s">
+      <c r="J21" s="110"/>
+      <c r="K21" s="111"/>
+      <c r="L21" s="132" t="s">
         <v>97</v>
       </c>
-      <c r="J21" s="102"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="115" t="s">
+      <c r="M21" s="133"/>
+      <c r="N21" s="134"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="64"/>
+      <c r="T21" s="108" t="s">
         <v>98</v>
       </c>
-      <c r="M21" s="116"/>
-      <c r="N21" s="117"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="126" t="s">
+      <c r="U21" s="102"/>
+      <c r="V21" s="102"/>
+      <c r="W21" s="138" t="s">
         <v>99</v>
       </c>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="130" t="s">
+      <c r="X21" s="99"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="133" t="s">
         <v>100</v>
       </c>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="117"/>
+      <c r="AA21" s="133"/>
+      <c r="AB21" s="134"/>
     </row>
     <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="126" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="108" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="102"/>
+      <c r="H22" s="102"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="123"/>
+      <c r="K22" s="130"/>
+      <c r="L22" s="135"/>
+      <c r="M22" s="136"/>
+      <c r="N22" s="137"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="64"/>
+      <c r="T22" s="108" t="s">
         <v>102</v>
       </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="120"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="126" t="s">
+      <c r="U22" s="102"/>
+      <c r="V22" s="102"/>
+      <c r="W22" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="119"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="120"/>
+      <c r="X22" s="110"/>
+      <c r="Y22" s="111"/>
+      <c r="Z22" s="136"/>
+      <c r="AA22" s="136"/>
+      <c r="AB22" s="137"/>
     </row>
     <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="126" t="s">
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="108" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="102"/>
+      <c r="H23" s="102"/>
+      <c r="I23" s="98"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="100"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="64"/>
+      <c r="T23" s="108" t="s">
         <v>105</v>
       </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="100"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="126" t="s">
+      <c r="U23" s="102"/>
+      <c r="V23" s="103"/>
+      <c r="W23" s="129"/>
+      <c r="X23" s="123"/>
+      <c r="Y23" s="130"/>
+      <c r="Z23" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="U23" s="127"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="90" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="91"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="93"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="131" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="64"/>
+      <c r="F24" s="139" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="102"/>
+      <c r="H24" s="102"/>
+      <c r="I24" s="98"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="64"/>
+      <c r="T24" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="100"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="126" t="s">
-        <v>109</v>
-      </c>
-      <c r="U24" s="127"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="98"/>
+      <c r="U24" s="102"/>
+      <c r="V24" s="103"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="99"/>
       <c r="Y24" s="100"/>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="121" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="104"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="123" t="s">
-        <v>80</v>
-      </c>
-      <c r="U25" s="124"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="104"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
+      <c r="E25" s="67"/>
+      <c r="F25" s="141" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="142"/>
+      <c r="H25" s="142"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="111"/>
+      <c r="P25" s="66"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="119" t="s">
+        <v>79</v>
+      </c>
+      <c r="U25" s="120"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="128"/>
+      <c r="X25" s="110"/>
+      <c r="Y25" s="111"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="104" t="s">
         <v>110</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="108"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="106"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
-      <c r="P26" s="90" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="U26" s="107"/>
-      <c r="V26" s="108"/>
+      <c r="P26" s="91" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="92"/>
+      <c r="R26" s="92"/>
+      <c r="S26" s="92"/>
+      <c r="T26" s="104" t="s">
+        <v>86</v>
+      </c>
+      <c r="U26" s="105"/>
+      <c r="V26" s="106"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="15"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="109"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="106" t="s">
+      <c r="B27" s="94"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="99"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="104" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="105"/>
+      <c r="K27" s="106"/>
+      <c r="L27" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="90" t="s">
+      <c r="M27" s="92"/>
+      <c r="N27" s="93"/>
+      <c r="P27" s="94"/>
+      <c r="Q27" s="61"/>
+      <c r="R27" s="61"/>
+      <c r="S27" s="61"/>
+      <c r="T27" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="U27" s="99"/>
+      <c r="V27" s="140"/>
+      <c r="W27" s="104" t="s">
         <v>114</v>
       </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="91"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="97" t="s">
-        <v>91</v>
-      </c>
-      <c r="U27" s="98"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="106" t="s">
+      <c r="X27" s="105"/>
+      <c r="Y27" s="106"/>
+      <c r="Z27" s="91" t="s">
         <v>115</v>
       </c>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="90" t="s">
-        <v>116</v>
-      </c>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="91"/>
+      <c r="AA27" s="92"/>
+      <c r="AB27" s="93"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="97" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="99"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="98" t="s">
         <v>117</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="97" t="s">
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="98"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="115" t="s">
+      <c r="M28" s="133"/>
+      <c r="N28" s="134"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="98" t="s">
+        <v>116</v>
+      </c>
+      <c r="U28" s="99"/>
+      <c r="V28" s="140"/>
+      <c r="W28" s="98" t="s">
         <v>119</v>
       </c>
-      <c r="M28" s="116"/>
-      <c r="N28" s="117"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="U28" s="98"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="97" t="s">
+      <c r="X28" s="99"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="132" t="s">
         <v>120</v>
       </c>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="115" t="s">
-        <v>121</v>
-      </c>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="117"/>
+      <c r="AA28" s="133"/>
+      <c r="AB28" s="134"/>
     </row>
     <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="97" t="s">
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="64"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="99"/>
+      <c r="H29" s="140"/>
+      <c r="I29" s="128" t="s">
         <v>122</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="101" t="s">
+      <c r="J29" s="110"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="135"/>
+      <c r="M29" s="136"/>
+      <c r="N29" s="137"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="120"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="97" t="s">
+      <c r="U29" s="99"/>
+      <c r="V29" s="140"/>
+      <c r="W29" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="U29" s="98"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="101" t="s">
-        <v>125</v>
-      </c>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="120"/>
+      <c r="X29" s="110"/>
+      <c r="Y29" s="111"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="136"/>
+      <c r="AB29" s="137"/>
     </row>
     <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="97" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="98" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="99"/>
+      <c r="H30" s="140"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="123"/>
+      <c r="K30" s="130"/>
+      <c r="L30" s="91" t="s">
         <v>127</v>
       </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="90" t="s">
+      <c r="M30" s="92"/>
+      <c r="N30" s="93"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="98" t="s">
         <v>128</v>
       </c>
-      <c r="M30" s="105"/>
-      <c r="N30" s="91"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="97" t="s">
+      <c r="U30" s="99"/>
+      <c r="V30" s="140"/>
+      <c r="W30" s="129"/>
+      <c r="X30" s="123"/>
+      <c r="Y30" s="130"/>
+      <c r="Z30" s="143" t="s">
         <v>129</v>
       </c>
-      <c r="U30" s="98"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="114" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA30" s="105"/>
-      <c r="AB30" s="91"/>
+      <c r="AA30" s="92"/>
+      <c r="AB30" s="93"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="97" t="s">
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="64"/>
+      <c r="E31" s="64"/>
+      <c r="F31" s="98" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="99"/>
+      <c r="H31" s="140"/>
+      <c r="I31" s="98"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="98" t="s">
         <v>131</v>
       </c>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="100"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="97" t="s">
-        <v>132</v>
-      </c>
-      <c r="U31" s="98"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="98"/>
+      <c r="U31" s="99"/>
+      <c r="V31" s="140"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="99"/>
       <c r="Y31" s="100"/>
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="101" t="s">
+      <c r="B32" s="66"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="128" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="110"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="111"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="67"/>
+      <c r="R32" s="67"/>
+      <c r="S32" s="67"/>
+      <c r="T32" s="128" t="s">
         <v>133</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="104"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="101" t="s">
-        <v>134</v>
-      </c>
-      <c r="U32" s="102"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="104"/>
+      <c r="U32" s="110"/>
+      <c r="V32" s="144"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="110"/>
+      <c r="Y32" s="111"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="91" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="92"/>
+      <c r="D33" s="92"/>
+      <c r="E33" s="92"/>
+      <c r="F33" s="104" t="s">
         <v>135</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="106" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="107"/>
-      <c r="H33" s="108"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="106"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="109"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="90" t="s">
-        <v>137</v>
-      </c>
-      <c r="M34" s="105"/>
-      <c r="N34" s="91"/>
+      <c r="B34" s="94"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="99"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="104"/>
+      <c r="J34" s="105"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="91" t="s">
+        <v>136</v>
+      </c>
+      <c r="M34" s="92"/>
+      <c r="N34" s="93"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="97" t="s">
+      <c r="B35" s="63"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="98" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="99"/>
+      <c r="H35" s="140"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="123"/>
+      <c r="K35" s="130"/>
+      <c r="L35" s="95" t="s">
         <v>138</v>
       </c>
-      <c r="G35" s="98"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="113" t="s">
-        <v>139</v>
-      </c>
-      <c r="M35" s="105"/>
-      <c r="N35" s="91"/>
+      <c r="M35" s="92"/>
+      <c r="N35" s="93"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="96"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="98" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="99"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="129"/>
+      <c r="J36" s="123"/>
+      <c r="K36" s="130"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="97" t="s">
-        <v>141</v>
-      </c>
-      <c r="G37" s="98"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="64"/>
+      <c r="E37" s="64"/>
+      <c r="F37" s="98" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="99"/>
+      <c r="H37" s="140"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="123"/>
+      <c r="K37" s="130"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="97" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="98"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="64"/>
+      <c r="F38" s="98" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="99"/>
+      <c r="H38" s="140"/>
+      <c r="I38" s="98"/>
+      <c r="J38" s="99"/>
       <c r="K38" s="100"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="104"/>
+      <c r="B39" s="66"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="67"/>
+      <c r="E39" s="67"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="110"/>
+      <c r="H39" s="144"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="110"/>
+      <c r="K39" s="111"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="90" t="s">
-        <v>143</v>
-      </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="106" t="s">
-        <v>111</v>
-      </c>
-      <c r="G40" s="107"/>
-      <c r="H40" s="108"/>
+      <c r="B40" s="91" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="92"/>
+      <c r="D40" s="92"/>
+      <c r="E40" s="92"/>
+      <c r="F40" s="104" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="105"/>
+      <c r="H40" s="106"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="109"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="97" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="98"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="106" t="s">
+      <c r="B41" s="94"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
+      <c r="F41" s="98" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="99"/>
+      <c r="H41" s="140"/>
+      <c r="I41" s="104" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="105"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="91" t="s">
         <v>144</v>
       </c>
-      <c r="J41" s="107"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="90" t="s">
-        <v>145</v>
-      </c>
-      <c r="M41" s="105"/>
-      <c r="N41" s="91"/>
+      <c r="M41" s="92"/>
+      <c r="N41" s="93"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="97" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
+      <c r="F42" s="98" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="99"/>
+      <c r="H42" s="140"/>
+      <c r="I42" s="145" t="s">
         <v>146</v>
       </c>
-      <c r="G42" s="98"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="110" t="s">
+      <c r="J42" s="146"/>
+      <c r="K42" s="147"/>
+      <c r="L42" s="91" t="s">
         <v>147</v>
       </c>
-      <c r="J42" s="111"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="90" t="s">
-        <v>148</v>
-      </c>
-      <c r="M42" s="105"/>
-      <c r="N42" s="91"/>
+      <c r="M42" s="92"/>
+      <c r="N42" s="93"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="96"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="64"/>
+      <c r="F43" s="98" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="99"/>
+      <c r="H43" s="140"/>
+      <c r="I43" s="129"/>
+      <c r="J43" s="123"/>
+      <c r="K43" s="130"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="97" t="s">
-        <v>126</v>
-      </c>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="96"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="64"/>
+      <c r="F44" s="98" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="99"/>
+      <c r="H44" s="140"/>
+      <c r="I44" s="129"/>
+      <c r="J44" s="123"/>
+      <c r="K44" s="130"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="98"/>
+      <c r="B45" s="63"/>
+      <c r="C45" s="64"/>
+      <c r="D45" s="64"/>
+      <c r="E45" s="64"/>
+      <c r="F45" s="98" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="99"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="98"/>
+      <c r="J45" s="99"/>
       <c r="K45" s="100"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="25"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="101" t="s">
-        <v>151</v>
-      </c>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="104"/>
+      <c r="B46" s="63"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="67"/>
+      <c r="E46" s="67"/>
+      <c r="F46" s="128" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="110"/>
+      <c r="H46" s="144"/>
+      <c r="I46" s="128"/>
+      <c r="J46" s="110"/>
+      <c r="K46" s="111"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="90" t="s">
-        <v>152</v>
-      </c>
-      <c r="B47" s="91"/>
+      <c r="A47" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="93"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E52" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
         <v>154</v>
       </c>
-      <c r="E53" t="s">
+      <c r="J53" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="J53" s="17" t="s">
+      <c r="K53" t="s">
         <v>156</v>
-      </c>
-      <c r="K53" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="D54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="148" t="s">
         <v>158</v>
-      </c>
-      <c r="E54" s="92" t="s">
-        <v>159</v>
       </c>
       <c r="F54" s="18"/>
     </row>
@@ -15717,11 +16129,165 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
-      <c r="E55" s="93"/>
+      <c r="E55" s="149"/>
       <c r="F55" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -15746,160 +16312,6 @@
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="P20:S25"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B27:E32"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="P27:S32"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="B20:E25"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N29"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
-    <sheet name="タイトル" sheetId="6" r:id="rId2"/>
-    <sheet name="エンディング" sheetId="7" r:id="rId3"/>
-    <sheet name="アイテム" sheetId="2" r:id="rId4"/>
-    <sheet name="ステージ" sheetId="3" r:id="rId5"/>
-    <sheet name="ステージ２" sheetId="8" r:id="rId6"/>
-    <sheet name="ステージ３" sheetId="12" r:id="rId7"/>
-    <sheet name="ステージ４" sheetId="10" r:id="rId8"/>
-    <sheet name="ステージ５" sheetId="11" r:id="rId9"/>
-    <sheet name="操作" sheetId="4" r:id="rId10"/>
-    <sheet name="敵" sheetId="5" r:id="rId11"/>
+    <sheet name="ステージ選択画面" sheetId="13" r:id="rId2"/>
+    <sheet name="タイトル" sheetId="6" r:id="rId3"/>
+    <sheet name="エンディング" sheetId="7" r:id="rId4"/>
+    <sheet name="アイテム" sheetId="2" r:id="rId5"/>
+    <sheet name="ステージ" sheetId="3" r:id="rId6"/>
+    <sheet name="ステージ２" sheetId="8" r:id="rId7"/>
+    <sheet name="ステージ３" sheetId="12" r:id="rId8"/>
+    <sheet name="ステージ４" sheetId="10" r:id="rId9"/>
+    <sheet name="ステージ５" sheetId="11" r:id="rId10"/>
+    <sheet name="操作" sheetId="4" r:id="rId11"/>
+    <sheet name="敵" sheetId="5" r:id="rId12"/>
   </sheets>
   <calcPr calcId="162913"/>
   <customWorkbookViews>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="166">
   <si>
     <t>属性</t>
     <rPh sb="0" eb="2">
@@ -1676,12 +1677,54 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ゲーム起動</t>
+    <rPh sb="3" eb="5">
+      <t>キドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択画面</t>
+    <rPh sb="4" eb="8">
+      <t>センタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鎌の属性選択画面</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="2" eb="8">
+      <t>ゾクセイセンタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーム終了</t>
+    <rPh sb="3" eb="5">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ１</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージ選択画面</t>
+    <rPh sb="4" eb="8">
+      <t>センタクガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1807,6 +1850,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2683,7 +2734,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2750,6 +2801,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2813,96 +2948,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2954,186 +3005,186 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3244,6 +3295,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3275,384 +3344,79 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>385880</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>173600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1844187" y="904141"/>
+          <a:ext cx="6806462" cy="3870767"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>383595</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>214594</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="角丸四角形 25"/>
+        <xdr:cNvPr id="4" name="楕円 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1755195" y="323850"/>
-          <a:ext cx="988005" cy="366994"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
+          <a:off x="4171950" y="1171576"/>
+          <a:ext cx="1438275" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:srgbClr val="EF2F2F"/>
+          <a:schemeClr val="bg1"/>
         </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ゲーム起動</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>555045</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>52669</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="角丸四角形 26"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3298245" y="1123950"/>
-          <a:ext cx="988005" cy="366994"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent5"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ゲーム終了</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>202620</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>90769</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="角丸四角形 27"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1574220" y="2828925"/>
-          <a:ext cx="1445205" cy="366994"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent2"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ステージ選択画面</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>183570</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>186019</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="角丸四角形 28"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1555170" y="1971675"/>
-          <a:ext cx="1483305" cy="366994"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1"/>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>鎌の属性選択画面</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200">
-            <a:solidFill>
-              <a:schemeClr val="bg1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>402645</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>62194</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="角丸四角形 29"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1774245" y="1133475"/>
-          <a:ext cx="988005" cy="366994"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent6">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln w="3175">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
-              <a:solidFill>
-                <a:schemeClr val="bg1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>タイトル</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>20956</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="下矢印 30"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="735331"/>
-          <a:ext cx="247650" cy="369569"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3683,30 +3447,33 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>116206</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>209549</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="下矢印 31"/>
+        <xdr:cNvPr id="7" name="楕円 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2143125" y="1554481"/>
-          <a:ext cx="247650" cy="369569"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="6772275" y="1171574"/>
+          <a:ext cx="1552575" cy="1590675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3737,30 +3504,94 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>230506</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>228601</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="下矢印 32"/>
+        <xdr:cNvPr id="8" name="楕円 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2152650" y="2383156"/>
-          <a:ext cx="247650" cy="369569"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="2038350" y="1676401"/>
+          <a:ext cx="1438275" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="楕円 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962650" y="3295651"/>
+          <a:ext cx="1438275" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -3791,28 +3622,247 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>110491</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>5716</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>480060</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>5716</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>219076</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>209551</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="下矢印 33"/>
+        <xdr:cNvPr id="10" name="楕円 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="2914651" y="1135381"/>
-          <a:ext cx="247650" cy="369569"/>
-        </a:xfrm>
-        <a:prstGeom prst="downArrow">
+        <a:xfrm>
+          <a:off x="3524250" y="3324226"/>
+          <a:ext cx="1438275" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="右矢印 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20404400">
+          <a:off x="3667125" y="1924050"/>
+          <a:ext cx="428625" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>329149</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>111699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>538699</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>104292</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="右矢印 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="6306236">
+          <a:off x="4207330" y="2791115"/>
+          <a:ext cx="717958" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>337250</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>27401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>366477</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>236951</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="右矢印 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5158365" y="3903343"/>
+          <a:ext cx="717958" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>538701</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>59520</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>145325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="右矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18230192">
+          <a:off x="6460727" y="2793681"/>
+          <a:ext cx="706968" cy="206619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -13815,7 +13865,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -13832,16 +13882,40 @@
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="187" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="188"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
       <c r="G2" s="21"/>
       <c r="H2" s="21"/>
     </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B3" s="189"/>
+      <c r="C3" s="190"/>
+    </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>161</v>
+      </c>
       <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="17" spans="12:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="M17" s="1"/>
@@ -13860,14 +13934,1416 @@
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
   </customSheetViews>
+  <mergeCells count="1">
+    <mergeCell ref="B2:C3"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
-  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AB55"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="K55" sqref="K55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="149" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="27"/>
+    </row>
+    <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+    </row>
+    <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="O6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="109" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="23"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="M7" s="105"/>
+      <c r="N7" s="91"/>
+      <c r="O7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="P7" s="90" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" s="105"/>
+      <c r="R7" s="105"/>
+      <c r="S7" s="91"/>
+      <c r="T7" s="109" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="23"/>
+      <c r="V7" s="24"/>
+      <c r="W7" s="109" t="s">
+        <v>47</v>
+      </c>
+      <c r="X7" s="23"/>
+      <c r="Y7" s="24"/>
+      <c r="Z7" s="113" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA7" s="105"/>
+      <c r="AB7" s="91"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B8" s="109"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="107"/>
+      <c r="H8" s="108"/>
+      <c r="I8" s="139" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="137" t="s">
+        <v>54</v>
+      </c>
+      <c r="M8" s="137"/>
+      <c r="N8" s="138"/>
+      <c r="P8" s="109"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="23"/>
+      <c r="S8" s="23"/>
+      <c r="T8" s="106" t="s">
+        <v>52</v>
+      </c>
+      <c r="U8" s="107"/>
+      <c r="V8" s="108"/>
+      <c r="W8" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" s="107"/>
+      <c r="Y8" s="108"/>
+      <c r="Z8" s="137" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="137"/>
+      <c r="AB8" s="138"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="98"/>
+      <c r="H9" s="100"/>
+      <c r="I9" s="140" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="98"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="127" t="s">
+        <v>59</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="128"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="26"/>
+      <c r="S9" s="26"/>
+      <c r="T9" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="U9" s="98"/>
+      <c r="V9" s="100"/>
+      <c r="W9" s="140" t="s">
+        <v>61</v>
+      </c>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="100"/>
+      <c r="Z9" s="127" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA9" s="127"/>
+      <c r="AB9" s="128"/>
+    </row>
+    <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="25"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="98"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="135" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="102"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="26"/>
+      <c r="S10" s="26"/>
+      <c r="T10" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="U10" s="98"/>
+      <c r="V10" s="100"/>
+      <c r="W10" s="135" t="s">
+        <v>64</v>
+      </c>
+      <c r="X10" s="102"/>
+      <c r="Y10" s="104"/>
+      <c r="Z10" s="127"/>
+      <c r="AA10" s="127"/>
+      <c r="AB10" s="128"/>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B11" s="25"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="98"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="J11" s="107"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="P11" s="25"/>
+      <c r="Q11" s="26"/>
+      <c r="R11" s="26"/>
+      <c r="S11" s="26"/>
+      <c r="T11" s="97" t="s">
+        <v>66</v>
+      </c>
+      <c r="U11" s="98"/>
+      <c r="V11" s="100"/>
+      <c r="W11" s="139" t="s">
+        <v>67</v>
+      </c>
+      <c r="X11" s="107"/>
+      <c r="Y11" s="108"/>
+      <c r="Z11" s="126"/>
+      <c r="AA11" s="127"/>
+      <c r="AB11" s="128"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B12" s="25"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="98"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="98"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="126"/>
+      <c r="M12" s="127"/>
+      <c r="N12" s="128"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="26"/>
+      <c r="S12" s="26"/>
+      <c r="T12" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="U12" s="98"/>
+      <c r="V12" s="100"/>
+      <c r="W12" s="148" t="s">
+        <v>69</v>
+      </c>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="100"/>
+      <c r="Z12" s="126"/>
+      <c r="AA12" s="127"/>
+      <c r="AB12" s="128"/>
+    </row>
+    <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="25"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="146"/>
+      <c r="H13" s="147"/>
+      <c r="I13" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="102"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="143" t="s">
+        <v>70</v>
+      </c>
+      <c r="U13" s="146"/>
+      <c r="V13" s="147"/>
+      <c r="W13" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="X13" s="102"/>
+      <c r="Y13" s="104"/>
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="127"/>
+      <c r="AB13" s="128"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B14" s="25"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="143" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="98"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="J14" s="95"/>
+      <c r="K14" s="145"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="128"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="26"/>
+      <c r="S14" s="26"/>
+      <c r="T14" s="143" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" s="98"/>
+      <c r="V14" s="100"/>
+      <c r="W14" s="144" t="s">
+        <v>73</v>
+      </c>
+      <c r="X14" s="95"/>
+      <c r="Y14" s="145"/>
+      <c r="Z14" s="126"/>
+      <c r="AA14" s="127"/>
+      <c r="AB14" s="128"/>
+    </row>
+    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="98"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="133"/>
+      <c r="K15" s="142"/>
+      <c r="L15" s="123"/>
+      <c r="M15" s="124"/>
+      <c r="N15" s="125"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="U15" s="98"/>
+      <c r="V15" s="100"/>
+      <c r="W15" s="141" t="s">
+        <v>76</v>
+      </c>
+      <c r="X15" s="133"/>
+      <c r="Y15" s="142"/>
+      <c r="Z15" s="123"/>
+      <c r="AA15" s="124"/>
+      <c r="AB15" s="125"/>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="97" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="98"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="J16" s="107"/>
+      <c r="K16" s="108"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="26"/>
+      <c r="S16" s="26"/>
+      <c r="T16" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="U16" s="98"/>
+      <c r="V16" s="100"/>
+      <c r="W16" s="139" t="s">
+        <v>78</v>
+      </c>
+      <c r="X16" s="107"/>
+      <c r="Y16" s="108"/>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B17" s="25"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="140" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="98"/>
+      <c r="K17" s="100"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="97" t="s">
+        <v>81</v>
+      </c>
+      <c r="U17" s="98"/>
+      <c r="V17" s="100"/>
+      <c r="W17" s="140" t="s">
+        <v>82</v>
+      </c>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="100"/>
+    </row>
+    <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="J18" s="102"/>
+      <c r="K18" s="104"/>
+      <c r="P18" s="28"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="133"/>
+      <c r="V18" s="134"/>
+      <c r="W18" s="135" t="s">
+        <v>83</v>
+      </c>
+      <c r="X18" s="102"/>
+      <c r="Y18" s="104"/>
+    </row>
+    <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="136" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="137"/>
+      <c r="H19" s="138"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="15"/>
+      <c r="P19" s="90" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q19" s="105"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="136" t="s">
+        <v>89</v>
+      </c>
+      <c r="U19" s="137"/>
+      <c r="V19" s="138"/>
+      <c r="W19" s="14"/>
+      <c r="X19" s="14"/>
+      <c r="Y19" s="15"/>
+    </row>
+    <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="109"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="126" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="127"/>
+      <c r="H20" s="127"/>
+      <c r="I20" s="106" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="107"/>
+      <c r="K20" s="108"/>
+      <c r="L20" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="M20" s="105"/>
+      <c r="N20" s="91"/>
+      <c r="P20" s="109"/>
+      <c r="Q20" s="23"/>
+      <c r="R20" s="23"/>
+      <c r="S20" s="23"/>
+      <c r="T20" s="126" t="s">
+        <v>63</v>
+      </c>
+      <c r="U20" s="127"/>
+      <c r="V20" s="127"/>
+      <c r="W20" s="106" t="s">
+        <v>93</v>
+      </c>
+      <c r="X20" s="107"/>
+      <c r="Y20" s="108"/>
+      <c r="Z20" s="105" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20" s="105"/>
+      <c r="AB20" s="91"/>
+    </row>
+    <row r="21" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="25"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="126" t="s">
+        <v>95</v>
+      </c>
+      <c r="G21" s="127"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="129" t="s">
+        <v>96</v>
+      </c>
+      <c r="J21" s="102"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="115" t="s">
+        <v>97</v>
+      </c>
+      <c r="M21" s="116"/>
+      <c r="N21" s="117"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="26"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="126" t="s">
+        <v>98</v>
+      </c>
+      <c r="U21" s="127"/>
+      <c r="V21" s="127"/>
+      <c r="W21" s="130" t="s">
+        <v>99</v>
+      </c>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="100"/>
+      <c r="Z21" s="116" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA21" s="116"/>
+      <c r="AB21" s="117"/>
+    </row>
+    <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="127"/>
+      <c r="H22" s="127"/>
+      <c r="I22" s="94"/>
+      <c r="J22" s="95"/>
+      <c r="K22" s="96"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="120"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="26"/>
+      <c r="S22" s="26"/>
+      <c r="T22" s="126" t="s">
+        <v>102</v>
+      </c>
+      <c r="U22" s="127"/>
+      <c r="V22" s="127"/>
+      <c r="W22" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="X22" s="102"/>
+      <c r="Y22" s="104"/>
+      <c r="Z22" s="119"/>
+      <c r="AA22" s="119"/>
+      <c r="AB22" s="120"/>
+    </row>
+    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="126" t="s">
+        <v>104</v>
+      </c>
+      <c r="G23" s="127"/>
+      <c r="H23" s="127"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="98"/>
+      <c r="K23" s="100"/>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="26"/>
+      <c r="R23" s="26"/>
+      <c r="S23" s="26"/>
+      <c r="T23" s="126" t="s">
+        <v>105</v>
+      </c>
+      <c r="U23" s="127"/>
+      <c r="V23" s="128"/>
+      <c r="W23" s="94"/>
+      <c r="X23" s="95"/>
+      <c r="Y23" s="96"/>
+      <c r="Z23" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="AA23" s="105"/>
+      <c r="AB23" s="91"/>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="131" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" s="127"/>
+      <c r="H24" s="127"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="98"/>
+      <c r="K24" s="100"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="26"/>
+      <c r="R24" s="26"/>
+      <c r="S24" s="26"/>
+      <c r="T24" s="126" t="s">
+        <v>108</v>
+      </c>
+      <c r="U24" s="127"/>
+      <c r="V24" s="128"/>
+      <c r="W24" s="97"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="100"/>
+    </row>
+    <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="28"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="121" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25" s="122"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="104"/>
+      <c r="P25" s="28"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="123" t="s">
+        <v>79</v>
+      </c>
+      <c r="U25" s="124"/>
+      <c r="V25" s="125"/>
+      <c r="W25" s="101"/>
+      <c r="X25" s="102"/>
+      <c r="Y25" s="104"/>
+    </row>
+    <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="105"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="G26" s="107"/>
+      <c r="H26" s="108"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="15"/>
+      <c r="P26" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q26" s="105"/>
+      <c r="R26" s="105"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="106" t="s">
+        <v>86</v>
+      </c>
+      <c r="U26" s="107"/>
+      <c r="V26" s="108"/>
+      <c r="W26" s="14"/>
+      <c r="X26" s="14"/>
+      <c r="Y26" s="15"/>
+    </row>
+    <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="109"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="106" t="s">
+        <v>112</v>
+      </c>
+      <c r="J27" s="107"/>
+      <c r="K27" s="108"/>
+      <c r="L27" s="90" t="s">
+        <v>113</v>
+      </c>
+      <c r="M27" s="105"/>
+      <c r="N27" s="91"/>
+      <c r="P27" s="109"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="23"/>
+      <c r="S27" s="23"/>
+      <c r="T27" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="U27" s="98"/>
+      <c r="V27" s="99"/>
+      <c r="W27" s="106" t="s">
+        <v>114</v>
+      </c>
+      <c r="X27" s="107"/>
+      <c r="Y27" s="108"/>
+      <c r="Z27" s="90" t="s">
+        <v>115</v>
+      </c>
+      <c r="AA27" s="105"/>
+      <c r="AB27" s="91"/>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B28" s="25"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="J28" s="98"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="115" t="s">
+        <v>118</v>
+      </c>
+      <c r="M28" s="116"/>
+      <c r="N28" s="117"/>
+      <c r="P28" s="25"/>
+      <c r="Q28" s="26"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="26"/>
+      <c r="T28" s="97" t="s">
+        <v>116</v>
+      </c>
+      <c r="U28" s="98"/>
+      <c r="V28" s="99"/>
+      <c r="W28" s="97" t="s">
+        <v>119</v>
+      </c>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="100"/>
+      <c r="Z28" s="115" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA28" s="116"/>
+      <c r="AB28" s="117"/>
+    </row>
+    <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="97" t="s">
+        <v>121</v>
+      </c>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="101" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="102"/>
+      <c r="K29" s="104"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="120"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="26"/>
+      <c r="R29" s="26"/>
+      <c r="S29" s="26"/>
+      <c r="T29" s="97" t="s">
+        <v>123</v>
+      </c>
+      <c r="U29" s="98"/>
+      <c r="V29" s="99"/>
+      <c r="W29" s="101" t="s">
+        <v>124</v>
+      </c>
+      <c r="X29" s="102"/>
+      <c r="Y29" s="104"/>
+      <c r="Z29" s="118"/>
+      <c r="AA29" s="119"/>
+      <c r="AB29" s="120"/>
+    </row>
+    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="25"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="97" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="94"/>
+      <c r="J30" s="95"/>
+      <c r="K30" s="96"/>
+      <c r="L30" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="M30" s="105"/>
+      <c r="N30" s="91"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="26"/>
+      <c r="R30" s="26"/>
+      <c r="S30" s="26"/>
+      <c r="T30" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="U30" s="98"/>
+      <c r="V30" s="99"/>
+      <c r="W30" s="94"/>
+      <c r="X30" s="95"/>
+      <c r="Y30" s="96"/>
+      <c r="Z30" s="114" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA30" s="105"/>
+      <c r="AB30" s="91"/>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="98"/>
+      <c r="K31" s="100"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="97" t="s">
+        <v>131</v>
+      </c>
+      <c r="U31" s="98"/>
+      <c r="V31" s="99"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="100"/>
+    </row>
+    <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="28"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="102"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="104"/>
+      <c r="P32" s="28"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="U32" s="102"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="101"/>
+      <c r="X32" s="102"/>
+      <c r="Y32" s="104"/>
+    </row>
+    <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="90" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="106" t="s">
+        <v>135</v>
+      </c>
+      <c r="G33" s="107"/>
+      <c r="H33" s="108"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="15"/>
+    </row>
+    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="109"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="98"/>
+      <c r="H34" s="99"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="107"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="M34" s="105"/>
+      <c r="N34" s="91"/>
+    </row>
+    <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="25"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="97" t="s">
+        <v>137</v>
+      </c>
+      <c r="G35" s="98"/>
+      <c r="H35" s="99"/>
+      <c r="I35" s="94"/>
+      <c r="J35" s="95"/>
+      <c r="K35" s="96"/>
+      <c r="L35" s="113" t="s">
+        <v>138</v>
+      </c>
+      <c r="M35" s="105"/>
+      <c r="N35" s="91"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B36" s="25"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="97" t="s">
+        <v>139</v>
+      </c>
+      <c r="G36" s="98"/>
+      <c r="H36" s="99"/>
+      <c r="I36" s="94"/>
+      <c r="J36" s="95"/>
+      <c r="K36" s="96"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B37" s="25"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="G37" s="98"/>
+      <c r="H37" s="99"/>
+      <c r="I37" s="94"/>
+      <c r="J37" s="95"/>
+      <c r="K37" s="96"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B38" s="25"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="G38" s="98"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="97"/>
+      <c r="J38" s="98"/>
+      <c r="K38" s="100"/>
+    </row>
+    <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="28"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="101"/>
+      <c r="G39" s="102"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="101"/>
+      <c r="J39" s="102"/>
+      <c r="K39" s="104"/>
+    </row>
+    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="90" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" s="105"/>
+      <c r="D40" s="105"/>
+      <c r="E40" s="105"/>
+      <c r="F40" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="G40" s="107"/>
+      <c r="H40" s="108"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="15"/>
+    </row>
+    <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="109"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="98"/>
+      <c r="H41" s="99"/>
+      <c r="I41" s="106" t="s">
+        <v>143</v>
+      </c>
+      <c r="J41" s="107"/>
+      <c r="K41" s="108"/>
+      <c r="L41" s="90" t="s">
+        <v>144</v>
+      </c>
+      <c r="M41" s="105"/>
+      <c r="N41" s="91"/>
+    </row>
+    <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="25"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="97" t="s">
+        <v>145</v>
+      </c>
+      <c r="G42" s="98"/>
+      <c r="H42" s="99"/>
+      <c r="I42" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="J42" s="111"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="90" t="s">
+        <v>147</v>
+      </c>
+      <c r="M42" s="105"/>
+      <c r="N42" s="91"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="97" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="98"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="94"/>
+      <c r="J43" s="95"/>
+      <c r="K43" s="96"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B44" s="25"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="97" t="s">
+        <v>125</v>
+      </c>
+      <c r="G44" s="98"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="94"/>
+      <c r="J44" s="95"/>
+      <c r="K44" s="96"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="B45" s="25"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="G45" s="98"/>
+      <c r="H45" s="99"/>
+      <c r="I45" s="97"/>
+      <c r="J45" s="98"/>
+      <c r="K45" s="100"/>
+    </row>
+    <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="25"/>
+      <c r="C46" s="29"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="101" t="s">
+        <v>150</v>
+      </c>
+      <c r="G46" s="102"/>
+      <c r="H46" s="103"/>
+      <c r="I46" s="101"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="104"/>
+    </row>
+    <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A47" s="90" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="91"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="E52" s="16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>153</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K53" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E54" s="92" t="s">
+        <v>158</v>
+      </c>
+      <c r="F54" s="18"/>
+    </row>
+    <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A55" s="19"/>
+      <c r="B55" s="19"/>
+      <c r="C55" s="19"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="178">
+    <mergeCell ref="A1:E5"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="T9:V9"/>
+    <mergeCell ref="W9:Y9"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="W7:Y7"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="P8:S18"/>
+    <mergeCell ref="T8:V8"/>
+    <mergeCell ref="W8:Y8"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M51"/>
   <sheetViews>
@@ -13908,18 +15384,18 @@
       <c r="B6" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="24"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="63"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="66"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="68"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -14028,11 +15504,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17:G24"/>
     </sheetView>
   </sheetViews>
@@ -14085,178 +15561,178 @@
       <c r="A6" s="186" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
       <c r="G6" s="100"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="186"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
       <c r="G7" s="100"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
       <c r="G8" s="100"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
+      <c r="A9" s="97"/>
+      <c r="B9" s="98"/>
+      <c r="C9" s="98"/>
       <c r="D9" s="177" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="100"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
+      <c r="A10" s="97"/>
+      <c r="B10" s="98"/>
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="98"/>
       <c r="G10" s="100"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
+      <c r="A11" s="97"/>
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
       <c r="G11" s="100"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
+      <c r="A12" s="97"/>
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="98"/>
       <c r="G12" s="100"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
+      <c r="A13" s="97"/>
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
       <c r="G13" s="100"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="98"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
+      <c r="A14" s="97"/>
+      <c r="B14" s="98"/>
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="98"/>
       <c r="G14" s="100"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
+      <c r="A15" s="97"/>
+      <c r="B15" s="98"/>
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="98"/>
       <c r="G15" s="100"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
+      <c r="A16" s="97"/>
+      <c r="B16" s="98"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="98"/>
       <c r="G16" s="100"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
+      <c r="A17" s="97"/>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
       <c r="D17" s="177" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="98"/>
       <c r="G17" s="100"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="99"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
+      <c r="A18" s="97"/>
+      <c r="B18" s="98"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="98"/>
       <c r="G18" s="100"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="99"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
+      <c r="A19" s="97"/>
+      <c r="B19" s="98"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="98"/>
       <c r="G19" s="100"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="98"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="99"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
+      <c r="A20" s="97"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
       <c r="G20" s="100"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
+      <c r="A21" s="97"/>
+      <c r="B21" s="98"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="98"/>
       <c r="G21" s="100"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="99"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
+      <c r="A22" s="97"/>
+      <c r="B22" s="98"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="98"/>
+      <c r="F22" s="98"/>
       <c r="G22" s="100"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
+      <c r="A23" s="97"/>
+      <c r="B23" s="98"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="98"/>
       <c r="G23" s="100"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="128"/>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="E24" s="110"/>
-      <c r="F24" s="110"/>
-      <c r="G24" s="111"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="102"/>
+      <c r="C24" s="102"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="102"/>
+      <c r="G24" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -14277,14 +15753,229 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A1" s="191" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C4" s="192"/>
+      <c r="D4" s="192"/>
+      <c r="E4" s="192"/>
+      <c r="F4" s="192"/>
+      <c r="G4" s="192"/>
+      <c r="H4" s="192"/>
+      <c r="I4" s="192"/>
+      <c r="J4" s="192"/>
+      <c r="K4" s="192"/>
+      <c r="L4" s="192"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C5" s="192"/>
+      <c r="D5" s="192"/>
+      <c r="E5" s="192"/>
+      <c r="F5" s="192"/>
+      <c r="G5" s="192"/>
+      <c r="H5" s="192"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="192"/>
+      <c r="L5" s="192"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C6" s="192"/>
+      <c r="D6" s="192"/>
+      <c r="E6" s="192"/>
+      <c r="F6" s="192"/>
+      <c r="G6" s="192"/>
+      <c r="H6" s="192"/>
+      <c r="I6" s="192"/>
+      <c r="J6" s="192"/>
+      <c r="K6" s="192"/>
+      <c r="L6" s="192"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C7" s="192"/>
+      <c r="D7" s="192"/>
+      <c r="E7" s="192"/>
+      <c r="F7" s="192"/>
+      <c r="G7" s="192"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="192"/>
+      <c r="J7" s="192"/>
+      <c r="K7" s="192"/>
+      <c r="L7" s="192"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C8" s="192"/>
+      <c r="D8" s="192"/>
+      <c r="E8" s="192"/>
+      <c r="F8" s="192"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="192"/>
+      <c r="J8" s="192"/>
+      <c r="K8" s="192"/>
+      <c r="L8" s="192"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C10" s="192"/>
+      <c r="D10" s="192"/>
+      <c r="E10" s="192"/>
+      <c r="F10" s="192"/>
+      <c r="G10" s="192"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="192"/>
+      <c r="J10" s="192"/>
+      <c r="K10" s="192"/>
+      <c r="L10" s="192"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C11" s="192"/>
+      <c r="D11" s="192"/>
+      <c r="E11" s="192"/>
+      <c r="F11" s="192"/>
+      <c r="G11" s="192"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="192"/>
+      <c r="J11" s="192"/>
+      <c r="K11" s="192"/>
+      <c r="L11" s="192"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C12" s="192"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="192"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="192"/>
+      <c r="G16" s="192"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="192"/>
+      <c r="J16" s="192"/>
+      <c r="K16" s="192"/>
+      <c r="L16" s="192"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C17" s="192"/>
+      <c r="D17" s="192"/>
+      <c r="E17" s="192"/>
+      <c r="F17" s="192"/>
+      <c r="G17" s="192"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="192"/>
+      <c r="J17" s="192"/>
+      <c r="K17" s="192"/>
+      <c r="L17" s="192"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C19" s="192"/>
+      <c r="D19" s="192"/>
+      <c r="E19" s="192"/>
+      <c r="F19" s="192"/>
+      <c r="G19" s="192"/>
+      <c r="H19" s="192"/>
+      <c r="I19" s="192"/>
+      <c r="J19" s="192"/>
+      <c r="K19" s="192"/>
+      <c r="L19" s="192"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E2"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14303,6 +15994,19 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
@@ -14312,310 +16016,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="24"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="27"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66"/>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="69" t="s">
+      <c r="B7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="55"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="70"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="56"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="70"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="56"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="70"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="56"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="71" t="s">
+      <c r="B11" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="57" t="s">
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57" t="s">
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57" t="s">
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="57"/>
-      <c r="N11" s="58"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="70"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="51" t="s">
+      <c r="B12" s="33"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51" t="s">
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51" t="s">
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="51"/>
-      <c r="N12" s="52"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="46"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="70"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="51" t="s">
+      <c r="B13" s="33"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51" t="s">
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51" t="s">
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="51"/>
-      <c r="N13" s="52"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="46"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="70"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="51" t="s">
+      <c r="B14" s="33"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="39" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51" t="s">
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51" t="s">
+      <c r="J14" s="39"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="51"/>
-      <c r="N14" s="52"/>
+      <c r="M14" s="39"/>
+      <c r="N14" s="46"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="71" t="s">
+      <c r="B15" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="51" t="s">
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51" t="s">
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51" t="s">
+      <c r="J15" s="39"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="51"/>
-      <c r="N15" s="52"/>
+      <c r="M15" s="39"/>
+      <c r="N15" s="46"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="70"/>
-      <c r="C16" s="54"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="51" t="s">
+      <c r="B16" s="33"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="40" t="s">
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="51" t="s">
+      <c r="J16" s="69"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="51"/>
-      <c r="N16" s="52"/>
+      <c r="M16" s="39"/>
+      <c r="N16" s="46"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="70"/>
-      <c r="C17" s="54"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="45"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="49"/>
+      <c r="B17" s="33"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="40"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="71"/>
+      <c r="L17" s="40"/>
+      <c r="M17" s="41"/>
+      <c r="N17" s="42"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="72"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="46"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="50"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="72"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="44"/>
+      <c r="N18" s="45"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="23"/>
-      <c r="D21" s="24"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="52"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="25"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
+      <c r="A22" s="53"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="25"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
+      <c r="A23" s="53"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="55"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="28"/>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
+      <c r="A24" s="56"/>
+      <c r="B24" s="57"/>
+      <c r="C24" s="57"/>
+      <c r="D24" s="58"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="31" t="s">
+      <c r="C27" s="59" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="33"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="61"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="64"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="37" t="s">
+      <c r="C29" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="39"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="67"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -14625,18 +16329,13 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -14653,13 +16352,18 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14668,7 +16372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K78"/>
   <sheetViews>
@@ -14679,7 +16383,7 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B1" s="82"/>
@@ -14801,24 +16505,24 @@
       <c r="A59" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="61"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="62"/>
+      <c r="B59" s="23"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="24"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="63"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="65"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="66"/>
-      <c r="B61" s="67"/>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="68"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="29"/>
+      <c r="C61" s="29"/>
+      <c r="D61" s="29"/>
+      <c r="E61" s="30"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
@@ -14873,7 +16577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14889,7 +16593,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14905,7 +16609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14917,1404 +16621,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB55"/>
-  <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="K55" sqref="K55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData>
-    <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="90" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="62"/>
-    </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="65"/>
-    </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="63"/>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="65"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="63"/>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
-      <c r="E4" s="65"/>
-    </row>
-    <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="66"/>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-    </row>
-    <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="O6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="92"/>
-      <c r="D7" s="92"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="94" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="61"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="61"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="M7" s="92"/>
-      <c r="N7" s="93"/>
-      <c r="O7" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="P7" s="91" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q7" s="92"/>
-      <c r="R7" s="92"/>
-      <c r="S7" s="93"/>
-      <c r="T7" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="62"/>
-      <c r="W7" s="94" t="s">
-        <v>47</v>
-      </c>
-      <c r="X7" s="61"/>
-      <c r="Y7" s="62"/>
-      <c r="Z7" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="AA7" s="92"/>
-      <c r="AB7" s="93"/>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="94"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107" t="s">
-        <v>53</v>
-      </c>
-      <c r="J8" s="105"/>
-      <c r="K8" s="106"/>
-      <c r="L8" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
-      <c r="P8" s="94"/>
-      <c r="Q8" s="61"/>
-      <c r="R8" s="61"/>
-      <c r="S8" s="61"/>
-      <c r="T8" s="104" t="s">
-        <v>52</v>
-      </c>
-      <c r="U8" s="105"/>
-      <c r="V8" s="106"/>
-      <c r="W8" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="X8" s="105"/>
-      <c r="Y8" s="106"/>
-      <c r="Z8" s="96" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA8" s="96"/>
-      <c r="AB8" s="97"/>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="G9" s="99"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="99"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="102" t="s">
-        <v>59</v>
-      </c>
-      <c r="M9" s="102"/>
-      <c r="N9" s="103"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="98" t="s">
-        <v>60</v>
-      </c>
-      <c r="U9" s="99"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="101" t="s">
-        <v>61</v>
-      </c>
-      <c r="X9" s="99"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="102" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA9" s="102"/>
-      <c r="AB9" s="103"/>
-    </row>
-    <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="110"/>
-      <c r="K10" s="111"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="103"/>
-      <c r="P10" s="63"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="98" t="s">
-        <v>65</v>
-      </c>
-      <c r="U10" s="99"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="109" t="s">
-        <v>64</v>
-      </c>
-      <c r="X10" s="110"/>
-      <c r="Y10" s="111"/>
-      <c r="Z10" s="102"/>
-      <c r="AA10" s="102"/>
-      <c r="AB10" s="103"/>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="G11" s="99"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="105"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="103"/>
-      <c r="P11" s="63"/>
-      <c r="Q11" s="64"/>
-      <c r="R11" s="64"/>
-      <c r="S11" s="64"/>
-      <c r="T11" s="98" t="s">
-        <v>66</v>
-      </c>
-      <c r="U11" s="99"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="107" t="s">
-        <v>67</v>
-      </c>
-      <c r="X11" s="105"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="108"/>
-      <c r="AA11" s="102"/>
-      <c r="AB11" s="103"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="64"/>
-      <c r="F12" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="G12" s="99"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="J12" s="99"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="108"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="103"/>
-      <c r="P12" s="63"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="64"/>
-      <c r="T12" s="98" t="s">
-        <v>68</v>
-      </c>
-      <c r="U12" s="99"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="115" t="s">
-        <v>69</v>
-      </c>
-      <c r="X12" s="99"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="108"/>
-      <c r="AA12" s="102"/>
-      <c r="AB12" s="103"/>
-    </row>
-    <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="113"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="110"/>
-      <c r="K13" s="111"/>
-      <c r="L13" s="108"/>
-      <c r="M13" s="102"/>
-      <c r="N13" s="103"/>
-      <c r="P13" s="63"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="64"/>
-      <c r="T13" s="112" t="s">
-        <v>70</v>
-      </c>
-      <c r="U13" s="113"/>
-      <c r="V13" s="114"/>
-      <c r="W13" s="109" t="s">
-        <v>71</v>
-      </c>
-      <c r="X13" s="110"/>
-      <c r="Y13" s="111"/>
-      <c r="Z13" s="108"/>
-      <c r="AA13" s="102"/>
-      <c r="AB13" s="103"/>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="64"/>
-      <c r="F14" s="112" t="s">
-        <v>72</v>
-      </c>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="J14" s="123"/>
-      <c r="K14" s="124"/>
-      <c r="L14" s="108"/>
-      <c r="M14" s="102"/>
-      <c r="N14" s="103"/>
-      <c r="P14" s="63"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="64"/>
-      <c r="T14" s="112" t="s">
-        <v>74</v>
-      </c>
-      <c r="U14" s="99"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="122" t="s">
-        <v>73</v>
-      </c>
-      <c r="X14" s="123"/>
-      <c r="Y14" s="124"/>
-      <c r="Z14" s="108"/>
-      <c r="AA14" s="102"/>
-      <c r="AB14" s="103"/>
-    </row>
-    <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="64"/>
-      <c r="F15" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="117"/>
-      <c r="K15" s="118"/>
-      <c r="L15" s="119"/>
-      <c r="M15" s="120"/>
-      <c r="N15" s="121"/>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="64"/>
-      <c r="T15" s="98" t="s">
-        <v>75</v>
-      </c>
-      <c r="U15" s="99"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="X15" s="117"/>
-      <c r="Y15" s="118"/>
-      <c r="Z15" s="119"/>
-      <c r="AA15" s="120"/>
-      <c r="AB15" s="121"/>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="64"/>
-      <c r="F16" s="98" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="99"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="J16" s="105"/>
-      <c r="K16" s="106"/>
-      <c r="P16" s="63"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="64"/>
-      <c r="T16" s="98" t="s">
-        <v>79</v>
-      </c>
-      <c r="U16" s="99"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="107" t="s">
-        <v>78</v>
-      </c>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="106"/>
-    </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="99"/>
-      <c r="K17" s="100"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="64"/>
-      <c r="T17" s="98" t="s">
-        <v>81</v>
-      </c>
-      <c r="U17" s="99"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="101" t="s">
-        <v>82</v>
-      </c>
-      <c r="X17" s="99"/>
-      <c r="Y17" s="100"/>
-    </row>
-    <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="66"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="125"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="126"/>
-      <c r="I18" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="J18" s="110"/>
-      <c r="K18" s="111"/>
-      <c r="P18" s="66"/>
-      <c r="Q18" s="67"/>
-      <c r="R18" s="67"/>
-      <c r="S18" s="67"/>
-      <c r="T18" s="125"/>
-      <c r="U18" s="117"/>
-      <c r="V18" s="126"/>
-      <c r="W18" s="109" t="s">
-        <v>83</v>
-      </c>
-      <c r="X18" s="110"/>
-      <c r="Y18" s="111"/>
-    </row>
-    <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B19" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="92"/>
-      <c r="D19" s="92"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="127" t="s">
-        <v>87</v>
-      </c>
-      <c r="G19" s="96"/>
-      <c r="H19" s="97"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="P19" s="91" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q19" s="92"/>
-      <c r="R19" s="92"/>
-      <c r="S19" s="92"/>
-      <c r="T19" s="127" t="s">
-        <v>89</v>
-      </c>
-      <c r="U19" s="96"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="14"/>
-      <c r="X19" s="14"/>
-      <c r="Y19" s="15"/>
-    </row>
-    <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="94"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="G20" s="102"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="104" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="105"/>
-      <c r="K20" s="106"/>
-      <c r="L20" s="91" t="s">
-        <v>92</v>
-      </c>
-      <c r="M20" s="92"/>
-      <c r="N20" s="93"/>
-      <c r="P20" s="94"/>
-      <c r="Q20" s="61"/>
-      <c r="R20" s="61"/>
-      <c r="S20" s="61"/>
-      <c r="T20" s="108" t="s">
-        <v>63</v>
-      </c>
-      <c r="U20" s="102"/>
-      <c r="V20" s="102"/>
-      <c r="W20" s="104" t="s">
-        <v>93</v>
-      </c>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="92" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA20" s="92"/>
-      <c r="AB20" s="93"/>
-    </row>
-    <row r="21" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="64"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="108" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="102"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="131" t="s">
-        <v>96</v>
-      </c>
-      <c r="J21" s="110"/>
-      <c r="K21" s="111"/>
-      <c r="L21" s="132" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" s="133"/>
-      <c r="N21" s="134"/>
-      <c r="P21" s="63"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="64"/>
-      <c r="T21" s="108" t="s">
-        <v>98</v>
-      </c>
-      <c r="U21" s="102"/>
-      <c r="V21" s="102"/>
-      <c r="W21" s="138" t="s">
-        <v>99</v>
-      </c>
-      <c r="X21" s="99"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="133" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA21" s="133"/>
-      <c r="AB21" s="134"/>
-    </row>
-    <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="108" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="102"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="123"/>
-      <c r="K22" s="130"/>
-      <c r="L22" s="135"/>
-      <c r="M22" s="136"/>
-      <c r="N22" s="137"/>
-      <c r="P22" s="63"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="64"/>
-      <c r="T22" s="108" t="s">
-        <v>102</v>
-      </c>
-      <c r="U22" s="102"/>
-      <c r="V22" s="102"/>
-      <c r="W22" s="128" t="s">
-        <v>103</v>
-      </c>
-      <c r="X22" s="110"/>
-      <c r="Y22" s="111"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="137"/>
-    </row>
-    <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="64"/>
-      <c r="F23" s="108" t="s">
-        <v>104</v>
-      </c>
-      <c r="G23" s="102"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="98"/>
-      <c r="J23" s="99"/>
-      <c r="K23" s="100"/>
-      <c r="P23" s="63"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="64"/>
-      <c r="T23" s="108" t="s">
-        <v>105</v>
-      </c>
-      <c r="U23" s="102"/>
-      <c r="V23" s="103"/>
-      <c r="W23" s="129"/>
-      <c r="X23" s="123"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA23" s="92"/>
-      <c r="AB23" s="93"/>
-    </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="64"/>
-      <c r="E24" s="64"/>
-      <c r="F24" s="139" t="s">
-        <v>107</v>
-      </c>
-      <c r="G24" s="102"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="98"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="100"/>
-      <c r="P24" s="63"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="64"/>
-      <c r="T24" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="U24" s="102"/>
-      <c r="V24" s="103"/>
-      <c r="W24" s="98"/>
-      <c r="X24" s="99"/>
-      <c r="Y24" s="100"/>
-    </row>
-    <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="66"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="141" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="142"/>
-      <c r="H25" s="142"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="111"/>
-      <c r="P25" s="66"/>
-      <c r="Q25" s="67"/>
-      <c r="R25" s="67"/>
-      <c r="S25" s="67"/>
-      <c r="T25" s="119" t="s">
-        <v>79</v>
-      </c>
-      <c r="U25" s="120"/>
-      <c r="V25" s="121"/>
-      <c r="W25" s="128"/>
-      <c r="X25" s="110"/>
-      <c r="Y25" s="111"/>
-    </row>
-    <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="92"/>
-      <c r="D26" s="92"/>
-      <c r="E26" s="92"/>
-      <c r="F26" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="105"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="15"/>
-      <c r="P26" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q26" s="92"/>
-      <c r="R26" s="92"/>
-      <c r="S26" s="92"/>
-      <c r="T26" s="104" t="s">
-        <v>86</v>
-      </c>
-      <c r="U26" s="105"/>
-      <c r="V26" s="106"/>
-      <c r="W26" s="14"/>
-      <c r="X26" s="14"/>
-      <c r="Y26" s="15"/>
-    </row>
-    <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="94"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="99"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="104" t="s">
-        <v>112</v>
-      </c>
-      <c r="J27" s="105"/>
-      <c r="K27" s="106"/>
-      <c r="L27" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="M27" s="92"/>
-      <c r="N27" s="93"/>
-      <c r="P27" s="94"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
-      <c r="S27" s="61"/>
-      <c r="T27" s="98" t="s">
-        <v>90</v>
-      </c>
-      <c r="U27" s="99"/>
-      <c r="V27" s="140"/>
-      <c r="W27" s="104" t="s">
-        <v>114</v>
-      </c>
-      <c r="X27" s="105"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="AA27" s="92"/>
-      <c r="AB27" s="93"/>
-    </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="G28" s="99"/>
-      <c r="H28" s="140"/>
-      <c r="I28" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="J28" s="99"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="132" t="s">
-        <v>118</v>
-      </c>
-      <c r="M28" s="133"/>
-      <c r="N28" s="134"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="64"/>
-      <c r="T28" s="98" t="s">
-        <v>116</v>
-      </c>
-      <c r="U28" s="99"/>
-      <c r="V28" s="140"/>
-      <c r="W28" s="98" t="s">
-        <v>119</v>
-      </c>
-      <c r="X28" s="99"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="132" t="s">
-        <v>120</v>
-      </c>
-      <c r="AA28" s="133"/>
-      <c r="AB28" s="134"/>
-    </row>
-    <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="98" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="99"/>
-      <c r="H29" s="140"/>
-      <c r="I29" s="128" t="s">
-        <v>122</v>
-      </c>
-      <c r="J29" s="110"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="135"/>
-      <c r="M29" s="136"/>
-      <c r="N29" s="137"/>
-      <c r="P29" s="63"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="64"/>
-      <c r="T29" s="98" t="s">
-        <v>123</v>
-      </c>
-      <c r="U29" s="99"/>
-      <c r="V29" s="140"/>
-      <c r="W29" s="128" t="s">
-        <v>124</v>
-      </c>
-      <c r="X29" s="110"/>
-      <c r="Y29" s="111"/>
-      <c r="Z29" s="135"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="137"/>
-    </row>
-    <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="64"/>
-      <c r="F30" s="98" t="s">
-        <v>126</v>
-      </c>
-      <c r="G30" s="99"/>
-      <c r="H30" s="140"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="123"/>
-      <c r="K30" s="130"/>
-      <c r="L30" s="91" t="s">
-        <v>127</v>
-      </c>
-      <c r="M30" s="92"/>
-      <c r="N30" s="93"/>
-      <c r="P30" s="63"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="64"/>
-      <c r="T30" s="98" t="s">
-        <v>128</v>
-      </c>
-      <c r="U30" s="99"/>
-      <c r="V30" s="140"/>
-      <c r="W30" s="129"/>
-      <c r="X30" s="123"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="143" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA30" s="92"/>
-      <c r="AB30" s="93"/>
-    </row>
-    <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="64"/>
-      <c r="E31" s="64"/>
-      <c r="F31" s="98" t="s">
-        <v>130</v>
-      </c>
-      <c r="G31" s="99"/>
-      <c r="H31" s="140"/>
-      <c r="I31" s="98"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="100"/>
-      <c r="P31" s="63"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="64"/>
-      <c r="T31" s="98" t="s">
-        <v>131</v>
-      </c>
-      <c r="U31" s="99"/>
-      <c r="V31" s="140"/>
-      <c r="W31" s="98"/>
-      <c r="X31" s="99"/>
-      <c r="Y31" s="100"/>
-    </row>
-    <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="66"/>
-      <c r="C32" s="67"/>
-      <c r="D32" s="67"/>
-      <c r="E32" s="67"/>
-      <c r="F32" s="128" t="s">
-        <v>132</v>
-      </c>
-      <c r="G32" s="110"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="111"/>
-      <c r="P32" s="66"/>
-      <c r="Q32" s="67"/>
-      <c r="R32" s="67"/>
-      <c r="S32" s="67"/>
-      <c r="T32" s="128" t="s">
-        <v>133</v>
-      </c>
-      <c r="U32" s="110"/>
-      <c r="V32" s="144"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="110"/>
-      <c r="Y32" s="111"/>
-    </row>
-    <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="91" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" s="92"/>
-      <c r="D33" s="92"/>
-      <c r="E33" s="92"/>
-      <c r="F33" s="104" t="s">
-        <v>135</v>
-      </c>
-      <c r="G33" s="105"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="15"/>
-    </row>
-    <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="94"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="G34" s="99"/>
-      <c r="H34" s="140"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="105"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="91" t="s">
-        <v>136</v>
-      </c>
-      <c r="M34" s="92"/>
-      <c r="N34" s="93"/>
-    </row>
-    <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="63"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="98" t="s">
-        <v>137</v>
-      </c>
-      <c r="G35" s="99"/>
-      <c r="H35" s="140"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="123"/>
-      <c r="K35" s="130"/>
-      <c r="L35" s="95" t="s">
-        <v>138</v>
-      </c>
-      <c r="M35" s="92"/>
-      <c r="N35" s="93"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="63"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="64"/>
-      <c r="F36" s="98" t="s">
-        <v>139</v>
-      </c>
-      <c r="G36" s="99"/>
-      <c r="H36" s="140"/>
-      <c r="I36" s="129"/>
-      <c r="J36" s="123"/>
-      <c r="K36" s="130"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
-      <c r="F37" s="98" t="s">
-        <v>140</v>
-      </c>
-      <c r="G37" s="99"/>
-      <c r="H37" s="140"/>
-      <c r="I37" s="129"/>
-      <c r="J37" s="123"/>
-      <c r="K37" s="130"/>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="98" t="s">
-        <v>141</v>
-      </c>
-      <c r="G38" s="99"/>
-      <c r="H38" s="140"/>
-      <c r="I38" s="98"/>
-      <c r="J38" s="99"/>
-      <c r="K38" s="100"/>
-    </row>
-    <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="66"/>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="110"/>
-      <c r="H39" s="144"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="110"/>
-      <c r="K39" s="111"/>
-    </row>
-    <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="91" t="s">
-        <v>142</v>
-      </c>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="104" t="s">
-        <v>110</v>
-      </c>
-      <c r="G40" s="105"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="15"/>
-    </row>
-    <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="94"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="98" t="s">
-        <v>63</v>
-      </c>
-      <c r="G41" s="99"/>
-      <c r="H41" s="140"/>
-      <c r="I41" s="104" t="s">
-        <v>143</v>
-      </c>
-      <c r="J41" s="105"/>
-      <c r="K41" s="106"/>
-      <c r="L41" s="91" t="s">
-        <v>144</v>
-      </c>
-      <c r="M41" s="92"/>
-      <c r="N41" s="93"/>
-    </row>
-    <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="64"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="98" t="s">
-        <v>145</v>
-      </c>
-      <c r="G42" s="99"/>
-      <c r="H42" s="140"/>
-      <c r="I42" s="145" t="s">
-        <v>146</v>
-      </c>
-      <c r="J42" s="146"/>
-      <c r="K42" s="147"/>
-      <c r="L42" s="91" t="s">
-        <v>147</v>
-      </c>
-      <c r="M42" s="92"/>
-      <c r="N42" s="93"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="64"/>
-      <c r="E43" s="64"/>
-      <c r="F43" s="98" t="s">
-        <v>148</v>
-      </c>
-      <c r="G43" s="99"/>
-      <c r="H43" s="140"/>
-      <c r="I43" s="129"/>
-      <c r="J43" s="123"/>
-      <c r="K43" s="130"/>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="64"/>
-      <c r="F44" s="98" t="s">
-        <v>125</v>
-      </c>
-      <c r="G44" s="99"/>
-      <c r="H44" s="140"/>
-      <c r="I44" s="129"/>
-      <c r="J44" s="123"/>
-      <c r="K44" s="130"/>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="63"/>
-      <c r="C45" s="64"/>
-      <c r="D45" s="64"/>
-      <c r="E45" s="64"/>
-      <c r="F45" s="98" t="s">
-        <v>149</v>
-      </c>
-      <c r="G45" s="99"/>
-      <c r="H45" s="140"/>
-      <c r="I45" s="98"/>
-      <c r="J45" s="99"/>
-      <c r="K45" s="100"/>
-    </row>
-    <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="63"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="67"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="128" t="s">
-        <v>150</v>
-      </c>
-      <c r="G46" s="110"/>
-      <c r="H46" s="144"/>
-      <c r="I46" s="128"/>
-      <c r="J46" s="110"/>
-      <c r="K46" s="111"/>
-    </row>
-    <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="91" t="s">
-        <v>151</v>
-      </c>
-      <c r="B47" s="93"/>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="E52" s="16" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D53" t="s">
-        <v>153</v>
-      </c>
-      <c r="E53" t="s">
-        <v>154</v>
-      </c>
-      <c r="J53" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="D54" t="s">
-        <v>157</v>
-      </c>
-      <c r="E54" s="148" t="s">
-        <v>158</v>
-      </c>
-      <c r="F54" s="18"/>
-    </row>
-    <row r="55" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="19"/>
-      <c r="B55" s="19"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="149"/>
-      <c r="F55" s="19"/>
-    </row>
-  </sheetData>
-  <mergeCells count="178">
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N29"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="B27:E32"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="P27:S32"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="B20:E25"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="P20:S25"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="A1:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="T9:V9"/>
-    <mergeCell ref="W9:Y9"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="W7:Y7"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="P8:S18"/>
-    <mergeCell ref="T8:V8"/>
-    <mergeCell ref="W8:Y8"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:K11"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
@@ -2801,15 +2801,156 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2819,141 +2960,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3005,186 +3023,186 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3295,24 +3313,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12654,20 +12654,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>40009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134068</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177171</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPr id="12" name="図 11"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -12686,8 +12686,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="1468759"/>
-          <a:ext cx="590550" cy="332184"/>
+          <a:off x="2819399" y="5153025"/>
+          <a:ext cx="7553325" cy="262896"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12698,26 +12698,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>40009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134068</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>172856</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104395</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPr id="13" name="図 12"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -12730,272 +12730,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="523875" y="1468759"/>
-          <a:ext cx="590550" cy="332184"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>40009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="図 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1066800" y="1468759"/>
-          <a:ext cx="590550" cy="332184"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>40009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="図 6"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1609725" y="1468759"/>
-          <a:ext cx="590550" cy="332184"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>40009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="図 7"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2162175" y="1468759"/>
-          <a:ext cx="590550" cy="332184"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>40009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="図 8"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2724150" y="1468759"/>
-          <a:ext cx="590550" cy="332184"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>40009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="図 9"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3286125" y="1468759"/>
-          <a:ext cx="590550" cy="332184"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>40009</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>134068</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="図 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3838575" y="1468759"/>
-          <a:ext cx="590550" cy="332184"/>
+          <a:off x="2581275" y="4459106"/>
+          <a:ext cx="1571625" cy="884039"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -13882,10 +13618,10 @@
     </row>
     <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="20"/>
-      <c r="B2" s="187" t="s">
+      <c r="B2" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="188"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
       <c r="F2" s="21"/>
@@ -13893,8 +13629,8 @@
       <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="B3" s="189"/>
-      <c r="C3" s="190"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="26"/>
     </row>
     <row r="6" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
@@ -13947,48 +13683,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="K55" sqref="K55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:28" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A4" s="25"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="74"/>
     </row>
     <row r="5" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="13" t="s">
@@ -14002,1123 +13738,1123 @@
       <c r="A7" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="109" t="s">
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="109" t="s">
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="J7" s="23"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="113" t="s">
+      <c r="J7" s="28"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="M7" s="105"/>
-      <c r="N7" s="91"/>
+      <c r="M7" s="98"/>
+      <c r="N7" s="99"/>
       <c r="O7" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="P7" s="90" t="s">
+      <c r="P7" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="Q7" s="105"/>
-      <c r="R7" s="105"/>
-      <c r="S7" s="91"/>
-      <c r="T7" s="109" t="s">
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="100" t="s">
         <v>51</v>
       </c>
-      <c r="U7" s="23"/>
-      <c r="V7" s="24"/>
-      <c r="W7" s="109" t="s">
+      <c r="U7" s="28"/>
+      <c r="V7" s="29"/>
+      <c r="W7" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="X7" s="23"/>
-      <c r="Y7" s="24"/>
-      <c r="Z7" s="113" t="s">
+      <c r="X7" s="28"/>
+      <c r="Y7" s="29"/>
+      <c r="Z7" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="AA7" s="105"/>
-      <c r="AB7" s="91"/>
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="99"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B8" s="109"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="106" t="s">
+      <c r="B8" s="100"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="G8" s="107"/>
-      <c r="H8" s="108"/>
-      <c r="I8" s="139" t="s">
+      <c r="G8" s="111"/>
+      <c r="H8" s="112"/>
+      <c r="I8" s="113" t="s">
         <v>53</v>
       </c>
-      <c r="J8" s="107"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="137" t="s">
+      <c r="J8" s="111"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="M8" s="137"/>
-      <c r="N8" s="138"/>
-      <c r="P8" s="109"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="106" t="s">
+      <c r="M8" s="102"/>
+      <c r="N8" s="103"/>
+      <c r="P8" s="100"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="28"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="U8" s="107"/>
-      <c r="V8" s="108"/>
-      <c r="W8" s="139" t="s">
+      <c r="U8" s="111"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="113" t="s">
         <v>55</v>
       </c>
-      <c r="X8" s="107"/>
-      <c r="Y8" s="108"/>
-      <c r="Z8" s="137" t="s">
+      <c r="X8" s="111"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="AA8" s="137"/>
-      <c r="AB8" s="138"/>
+      <c r="AA8" s="102"/>
+      <c r="AB8" s="103"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="97" t="s">
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="104" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="98"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="140" t="s">
+      <c r="G9" s="105"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="107" t="s">
         <v>58</v>
       </c>
-      <c r="J9" s="98"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="127" t="s">
+      <c r="J9" s="105"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="108" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="127"/>
-      <c r="N9" s="128"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="26"/>
-      <c r="T9" s="97" t="s">
+      <c r="M9" s="108"/>
+      <c r="N9" s="109"/>
+      <c r="P9" s="72"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="104" t="s">
         <v>60</v>
       </c>
-      <c r="U9" s="98"/>
-      <c r="V9" s="100"/>
-      <c r="W9" s="140" t="s">
+      <c r="U9" s="105"/>
+      <c r="V9" s="106"/>
+      <c r="W9" s="107" t="s">
         <v>61</v>
       </c>
-      <c r="X9" s="98"/>
-      <c r="Y9" s="100"/>
-      <c r="Z9" s="127" t="s">
+      <c r="X9" s="105"/>
+      <c r="Y9" s="106"/>
+      <c r="Z9" s="108" t="s">
         <v>62</v>
       </c>
-      <c r="AA9" s="127"/>
-      <c r="AB9" s="128"/>
+      <c r="AA9" s="108"/>
+      <c r="AB9" s="109"/>
     </row>
     <row r="10" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="97" t="s">
+      <c r="B10" s="72"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="G10" s="98"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="135" t="s">
+      <c r="G10" s="105"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="J10" s="102"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="127"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="128"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="26"/>
-      <c r="T10" s="97" t="s">
+      <c r="J10" s="117"/>
+      <c r="K10" s="118"/>
+      <c r="L10" s="108"/>
+      <c r="M10" s="108"/>
+      <c r="N10" s="109"/>
+      <c r="P10" s="72"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="104" t="s">
         <v>65</v>
       </c>
-      <c r="U10" s="98"/>
-      <c r="V10" s="100"/>
-      <c r="W10" s="135" t="s">
+      <c r="U10" s="105"/>
+      <c r="V10" s="106"/>
+      <c r="W10" s="116" t="s">
         <v>64</v>
       </c>
-      <c r="X10" s="102"/>
-      <c r="Y10" s="104"/>
-      <c r="Z10" s="127"/>
-      <c r="AA10" s="127"/>
-      <c r="AB10" s="128"/>
+      <c r="X10" s="117"/>
+      <c r="Y10" s="118"/>
+      <c r="Z10" s="108"/>
+      <c r="AA10" s="108"/>
+      <c r="AB10" s="109"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="97" t="s">
+      <c r="B11" s="72"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="G11" s="98"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="139" t="s">
+      <c r="G11" s="105"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="J11" s="107"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="128"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="26"/>
-      <c r="T11" s="97" t="s">
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="114"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="109"/>
+      <c r="P11" s="72"/>
+      <c r="Q11" s="73"/>
+      <c r="R11" s="73"/>
+      <c r="S11" s="73"/>
+      <c r="T11" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="U11" s="98"/>
-      <c r="V11" s="100"/>
-      <c r="W11" s="139" t="s">
+      <c r="U11" s="105"/>
+      <c r="V11" s="106"/>
+      <c r="W11" s="113" t="s">
         <v>67</v>
       </c>
-      <c r="X11" s="107"/>
-      <c r="Y11" s="108"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="127"/>
-      <c r="AB11" s="128"/>
+      <c r="X11" s="111"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="108"/>
+      <c r="AB11" s="109"/>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="97" t="s">
+      <c r="B12" s="72"/>
+      <c r="C12" s="73"/>
+      <c r="D12" s="73"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="G12" s="98"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="148" t="s">
+      <c r="G12" s="105"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="J12" s="98"/>
-      <c r="K12" s="100"/>
-      <c r="L12" s="126"/>
-      <c r="M12" s="127"/>
-      <c r="N12" s="128"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="97" t="s">
+      <c r="J12" s="105"/>
+      <c r="K12" s="106"/>
+      <c r="L12" s="114"/>
+      <c r="M12" s="108"/>
+      <c r="N12" s="109"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="73"/>
+      <c r="R12" s="73"/>
+      <c r="S12" s="73"/>
+      <c r="T12" s="104" t="s">
         <v>68</v>
       </c>
-      <c r="U12" s="98"/>
-      <c r="V12" s="100"/>
-      <c r="W12" s="148" t="s">
+      <c r="U12" s="105"/>
+      <c r="V12" s="106"/>
+      <c r="W12" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="X12" s="98"/>
-      <c r="Y12" s="100"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="127"/>
-      <c r="AB12" s="128"/>
+      <c r="X12" s="105"/>
+      <c r="Y12" s="106"/>
+      <c r="Z12" s="114"/>
+      <c r="AA12" s="108"/>
+      <c r="AB12" s="109"/>
     </row>
     <row r="13" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="143" t="s">
+      <c r="B13" s="72"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="146"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="135" t="s">
+      <c r="G13" s="126"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="102"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="128"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="143" t="s">
+      <c r="J13" s="117"/>
+      <c r="K13" s="118"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="108"/>
+      <c r="N13" s="109"/>
+      <c r="P13" s="72"/>
+      <c r="Q13" s="73"/>
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="U13" s="146"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="135" t="s">
+      <c r="U13" s="126"/>
+      <c r="V13" s="127"/>
+      <c r="W13" s="116" t="s">
         <v>71</v>
       </c>
-      <c r="X13" s="102"/>
-      <c r="Y13" s="104"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="127"/>
-      <c r="AB13" s="128"/>
+      <c r="X13" s="117"/>
+      <c r="Y13" s="118"/>
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="108"/>
+      <c r="AB13" s="109"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="143" t="s">
+      <c r="B14" s="72"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="122" t="s">
         <v>72</v>
       </c>
-      <c r="G14" s="98"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="144" t="s">
+      <c r="G14" s="105"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="J14" s="95"/>
-      <c r="K14" s="145"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="128"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="26"/>
-      <c r="S14" s="26"/>
-      <c r="T14" s="143" t="s">
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="114"/>
+      <c r="M14" s="108"/>
+      <c r="N14" s="109"/>
+      <c r="P14" s="72"/>
+      <c r="Q14" s="73"/>
+      <c r="R14" s="73"/>
+      <c r="S14" s="73"/>
+      <c r="T14" s="122" t="s">
         <v>74</v>
       </c>
-      <c r="U14" s="98"/>
-      <c r="V14" s="100"/>
-      <c r="W14" s="144" t="s">
+      <c r="U14" s="105"/>
+      <c r="V14" s="106"/>
+      <c r="W14" s="123" t="s">
         <v>73</v>
       </c>
-      <c r="X14" s="95"/>
-      <c r="Y14" s="145"/>
-      <c r="Z14" s="126"/>
-      <c r="AA14" s="127"/>
-      <c r="AB14" s="128"/>
+      <c r="X14" s="124"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="114"/>
+      <c r="AA14" s="108"/>
+      <c r="AB14" s="109"/>
     </row>
     <row r="15" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="97" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="G15" s="98"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="141" t="s">
+      <c r="G15" s="105"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="J15" s="133"/>
-      <c r="K15" s="142"/>
-      <c r="L15" s="123"/>
-      <c r="M15" s="124"/>
-      <c r="N15" s="125"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="26"/>
-      <c r="R15" s="26"/>
-      <c r="S15" s="26"/>
-      <c r="T15" s="97" t="s">
+      <c r="J15" s="129"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="119"/>
+      <c r="M15" s="120"/>
+      <c r="N15" s="121"/>
+      <c r="P15" s="72"/>
+      <c r="Q15" s="73"/>
+      <c r="R15" s="73"/>
+      <c r="S15" s="73"/>
+      <c r="T15" s="104" t="s">
         <v>75</v>
       </c>
-      <c r="U15" s="98"/>
-      <c r="V15" s="100"/>
-      <c r="W15" s="141" t="s">
+      <c r="U15" s="105"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="X15" s="133"/>
-      <c r="Y15" s="142"/>
-      <c r="Z15" s="123"/>
-      <c r="AA15" s="124"/>
-      <c r="AB15" s="125"/>
+      <c r="X15" s="129"/>
+      <c r="Y15" s="133"/>
+      <c r="Z15" s="119"/>
+      <c r="AA15" s="120"/>
+      <c r="AB15" s="121"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="97" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="98"/>
-      <c r="H16" s="100"/>
-      <c r="I16" s="139" t="s">
+      <c r="G16" s="105"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="J16" s="107"/>
-      <c r="K16" s="108"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="26"/>
-      <c r="S16" s="26"/>
-      <c r="T16" s="97" t="s">
+      <c r="J16" s="111"/>
+      <c r="K16" s="112"/>
+      <c r="P16" s="72"/>
+      <c r="Q16" s="73"/>
+      <c r="R16" s="73"/>
+      <c r="S16" s="73"/>
+      <c r="T16" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="U16" s="98"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="139" t="s">
+      <c r="U16" s="105"/>
+      <c r="V16" s="106"/>
+      <c r="W16" s="113" t="s">
         <v>78</v>
       </c>
-      <c r="X16" s="107"/>
-      <c r="Y16" s="108"/>
+      <c r="X16" s="111"/>
+      <c r="Y16" s="112"/>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="97"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="140" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="107" t="s">
         <v>80</v>
       </c>
-      <c r="J17" s="98"/>
-      <c r="K17" s="100"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="26"/>
-      <c r="T17" s="97" t="s">
+      <c r="J17" s="105"/>
+      <c r="K17" s="106"/>
+      <c r="P17" s="72"/>
+      <c r="Q17" s="73"/>
+      <c r="R17" s="73"/>
+      <c r="S17" s="73"/>
+      <c r="T17" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="U17" s="98"/>
-      <c r="V17" s="100"/>
-      <c r="W17" s="140" t="s">
+      <c r="U17" s="105"/>
+      <c r="V17" s="106"/>
+      <c r="W17" s="107" t="s">
         <v>82</v>
       </c>
-      <c r="X17" s="98"/>
-      <c r="Y17" s="100"/>
+      <c r="X17" s="105"/>
+      <c r="Y17" s="106"/>
     </row>
     <row r="18" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="28"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="133"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="135" t="s">
+      <c r="B18" s="30"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="J18" s="102"/>
-      <c r="K18" s="104"/>
-      <c r="P18" s="28"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="29"/>
-      <c r="S18" s="29"/>
-      <c r="T18" s="132"/>
-      <c r="U18" s="133"/>
-      <c r="V18" s="134"/>
-      <c r="W18" s="135" t="s">
+      <c r="J18" s="117"/>
+      <c r="K18" s="118"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="31"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="31"/>
+      <c r="T18" s="128"/>
+      <c r="U18" s="129"/>
+      <c r="V18" s="130"/>
+      <c r="W18" s="116" t="s">
         <v>83</v>
       </c>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="104"/>
+      <c r="X18" s="117"/>
+      <c r="Y18" s="118"/>
     </row>
     <row r="19" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A19" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="B19" s="90" t="s">
+      <c r="B19" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="136" t="s">
+      <c r="C19" s="98"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="98"/>
+      <c r="F19" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="G19" s="137"/>
-      <c r="H19" s="138"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="14"/>
       <c r="J19" s="14"/>
       <c r="K19" s="15"/>
-      <c r="P19" s="90" t="s">
+      <c r="P19" s="97" t="s">
         <v>88</v>
       </c>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
-      <c r="S19" s="105"/>
-      <c r="T19" s="136" t="s">
+      <c r="Q19" s="98"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="U19" s="137"/>
-      <c r="V19" s="138"/>
+      <c r="U19" s="102"/>
+      <c r="V19" s="103"/>
       <c r="W19" s="14"/>
       <c r="X19" s="14"/>
       <c r="Y19" s="15"/>
     </row>
     <row r="20" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="109"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="126" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="114" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="127"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="106" t="s">
+      <c r="G20" s="108"/>
+      <c r="H20" s="108"/>
+      <c r="I20" s="110" t="s">
         <v>91</v>
       </c>
-      <c r="J20" s="107"/>
-      <c r="K20" s="108"/>
-      <c r="L20" s="90" t="s">
+      <c r="J20" s="111"/>
+      <c r="K20" s="112"/>
+      <c r="L20" s="97" t="s">
         <v>92</v>
       </c>
-      <c r="M20" s="105"/>
-      <c r="N20" s="91"/>
-      <c r="P20" s="109"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="126" t="s">
+      <c r="M20" s="98"/>
+      <c r="N20" s="99"/>
+      <c r="P20" s="100"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="114" t="s">
         <v>63</v>
       </c>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="106" t="s">
+      <c r="U20" s="108"/>
+      <c r="V20" s="108"/>
+      <c r="W20" s="110" t="s">
         <v>93</v>
       </c>
-      <c r="X20" s="107"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="105" t="s">
+      <c r="X20" s="111"/>
+      <c r="Y20" s="112"/>
+      <c r="Z20" s="98" t="s">
         <v>94</v>
       </c>
-      <c r="AA20" s="105"/>
-      <c r="AB20" s="91"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="99"/>
     </row>
     <row r="21" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="126" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="114" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="127"/>
-      <c r="H21" s="127"/>
-      <c r="I21" s="129" t="s">
+      <c r="G21" s="108"/>
+      <c r="H21" s="108"/>
+      <c r="I21" s="137" t="s">
         <v>96</v>
       </c>
-      <c r="J21" s="102"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="115" t="s">
+      <c r="J21" s="117"/>
+      <c r="K21" s="118"/>
+      <c r="L21" s="138" t="s">
         <v>97</v>
       </c>
-      <c r="M21" s="116"/>
-      <c r="N21" s="117"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="26"/>
-      <c r="T21" s="126" t="s">
+      <c r="M21" s="139"/>
+      <c r="N21" s="140"/>
+      <c r="P21" s="72"/>
+      <c r="Q21" s="73"/>
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="114" t="s">
         <v>98</v>
       </c>
-      <c r="U21" s="127"/>
-      <c r="V21" s="127"/>
-      <c r="W21" s="130" t="s">
+      <c r="U21" s="108"/>
+      <c r="V21" s="108"/>
+      <c r="W21" s="144" t="s">
         <v>99</v>
       </c>
-      <c r="X21" s="98"/>
-      <c r="Y21" s="100"/>
-      <c r="Z21" s="116" t="s">
+      <c r="X21" s="105"/>
+      <c r="Y21" s="106"/>
+      <c r="Z21" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="AA21" s="116"/>
-      <c r="AB21" s="117"/>
+      <c r="AA21" s="139"/>
+      <c r="AB21" s="140"/>
     </row>
     <row r="22" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="126" t="s">
+      <c r="B22" s="72"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="114" t="s">
         <v>101</v>
       </c>
-      <c r="G22" s="127"/>
-      <c r="H22" s="127"/>
-      <c r="I22" s="94"/>
-      <c r="J22" s="95"/>
-      <c r="K22" s="96"/>
-      <c r="L22" s="118"/>
-      <c r="M22" s="119"/>
-      <c r="N22" s="120"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="26"/>
-      <c r="T22" s="126" t="s">
+      <c r="G22" s="108"/>
+      <c r="H22" s="108"/>
+      <c r="I22" s="135"/>
+      <c r="J22" s="124"/>
+      <c r="K22" s="136"/>
+      <c r="L22" s="141"/>
+      <c r="M22" s="142"/>
+      <c r="N22" s="143"/>
+      <c r="P22" s="72"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="U22" s="127"/>
-      <c r="V22" s="127"/>
-      <c r="W22" s="101" t="s">
+      <c r="U22" s="108"/>
+      <c r="V22" s="108"/>
+      <c r="W22" s="134" t="s">
         <v>103</v>
       </c>
-      <c r="X22" s="102"/>
-      <c r="Y22" s="104"/>
-      <c r="Z22" s="119"/>
-      <c r="AA22" s="119"/>
-      <c r="AB22" s="120"/>
+      <c r="X22" s="117"/>
+      <c r="Y22" s="118"/>
+      <c r="Z22" s="142"/>
+      <c r="AA22" s="142"/>
+      <c r="AB22" s="143"/>
     </row>
     <row r="23" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="126" t="s">
+      <c r="B23" s="72"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="114" t="s">
         <v>104</v>
       </c>
-      <c r="G23" s="127"/>
-      <c r="H23" s="127"/>
-      <c r="I23" s="97"/>
-      <c r="J23" s="98"/>
-      <c r="K23" s="100"/>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="26"/>
-      <c r="R23" s="26"/>
-      <c r="S23" s="26"/>
-      <c r="T23" s="126" t="s">
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="104"/>
+      <c r="J23" s="105"/>
+      <c r="K23" s="106"/>
+      <c r="P23" s="72"/>
+      <c r="Q23" s="73"/>
+      <c r="R23" s="73"/>
+      <c r="S23" s="73"/>
+      <c r="T23" s="114" t="s">
         <v>105</v>
       </c>
-      <c r="U23" s="127"/>
-      <c r="V23" s="128"/>
-      <c r="W23" s="94"/>
-      <c r="X23" s="95"/>
-      <c r="Y23" s="96"/>
-      <c r="Z23" s="90" t="s">
+      <c r="U23" s="108"/>
+      <c r="V23" s="109"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="124"/>
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="97" t="s">
         <v>106</v>
       </c>
-      <c r="AA23" s="105"/>
-      <c r="AB23" s="91"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="99"/>
     </row>
     <row r="24" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="131" t="s">
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="145" t="s">
         <v>107</v>
       </c>
-      <c r="G24" s="127"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="97"/>
-      <c r="J24" s="98"/>
-      <c r="K24" s="100"/>
-      <c r="P24" s="25"/>
-      <c r="Q24" s="26"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="126" t="s">
+      <c r="G24" s="108"/>
+      <c r="H24" s="108"/>
+      <c r="I24" s="104"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="106"/>
+      <c r="P24" s="72"/>
+      <c r="Q24" s="73"/>
+      <c r="R24" s="73"/>
+      <c r="S24" s="73"/>
+      <c r="T24" s="114" t="s">
         <v>108</v>
       </c>
-      <c r="U24" s="127"/>
-      <c r="V24" s="128"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="98"/>
-      <c r="Y24" s="100"/>
+      <c r="U24" s="108"/>
+      <c r="V24" s="109"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="106"/>
     </row>
     <row r="25" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="121" t="s">
+      <c r="B25" s="30"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="147" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="122"/>
-      <c r="H25" s="122"/>
-      <c r="I25" s="101"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="104"/>
-      <c r="P25" s="28"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="123" t="s">
+      <c r="G25" s="148"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="134"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="118"/>
+      <c r="P25" s="30"/>
+      <c r="Q25" s="31"/>
+      <c r="R25" s="31"/>
+      <c r="S25" s="31"/>
+      <c r="T25" s="119" t="s">
         <v>79</v>
       </c>
-      <c r="U25" s="124"/>
-      <c r="V25" s="125"/>
-      <c r="W25" s="101"/>
-      <c r="X25" s="102"/>
-      <c r="Y25" s="104"/>
+      <c r="U25" s="120"/>
+      <c r="V25" s="121"/>
+      <c r="W25" s="134"/>
+      <c r="X25" s="117"/>
+      <c r="Y25" s="118"/>
     </row>
     <row r="26" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="97" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="106" t="s">
+      <c r="C26" s="98"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="G26" s="107"/>
-      <c r="H26" s="108"/>
+      <c r="G26" s="111"/>
+      <c r="H26" s="112"/>
       <c r="I26" s="14"/>
       <c r="J26" s="14"/>
       <c r="K26" s="15"/>
-      <c r="P26" s="90" t="s">
+      <c r="P26" s="97" t="s">
         <v>111</v>
       </c>
-      <c r="Q26" s="105"/>
-      <c r="R26" s="105"/>
-      <c r="S26" s="105"/>
-      <c r="T26" s="106" t="s">
+      <c r="Q26" s="98"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="110" t="s">
         <v>86</v>
       </c>
-      <c r="U26" s="107"/>
-      <c r="V26" s="108"/>
+      <c r="U26" s="111"/>
+      <c r="V26" s="112"/>
       <c r="W26" s="14"/>
       <c r="X26" s="14"/>
       <c r="Y26" s="15"/>
     </row>
     <row r="27" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="109"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="97" t="s">
+      <c r="B27" s="100"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="98"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="106" t="s">
+      <c r="G27" s="105"/>
+      <c r="H27" s="146"/>
+      <c r="I27" s="110" t="s">
         <v>112</v>
       </c>
-      <c r="J27" s="107"/>
-      <c r="K27" s="108"/>
-      <c r="L27" s="90" t="s">
+      <c r="J27" s="111"/>
+      <c r="K27" s="112"/>
+      <c r="L27" s="97" t="s">
         <v>113</v>
       </c>
-      <c r="M27" s="105"/>
-      <c r="N27" s="91"/>
-      <c r="P27" s="109"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="97" t="s">
+      <c r="M27" s="98"/>
+      <c r="N27" s="99"/>
+      <c r="P27" s="100"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+      <c r="T27" s="104" t="s">
         <v>90</v>
       </c>
-      <c r="U27" s="98"/>
-      <c r="V27" s="99"/>
-      <c r="W27" s="106" t="s">
+      <c r="U27" s="105"/>
+      <c r="V27" s="146"/>
+      <c r="W27" s="110" t="s">
         <v>114</v>
       </c>
-      <c r="X27" s="107"/>
-      <c r="Y27" s="108"/>
-      <c r="Z27" s="90" t="s">
+      <c r="X27" s="111"/>
+      <c r="Y27" s="112"/>
+      <c r="Z27" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="AA27" s="105"/>
-      <c r="AB27" s="91"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="99"/>
     </row>
     <row r="28" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B28" s="25"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="97" t="s">
+      <c r="B28" s="72"/>
+      <c r="C28" s="73"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="G28" s="98"/>
-      <c r="H28" s="99"/>
-      <c r="I28" s="97" t="s">
+      <c r="G28" s="105"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="104" t="s">
         <v>117</v>
       </c>
-      <c r="J28" s="98"/>
-      <c r="K28" s="100"/>
-      <c r="L28" s="115" t="s">
+      <c r="J28" s="105"/>
+      <c r="K28" s="106"/>
+      <c r="L28" s="138" t="s">
         <v>118</v>
       </c>
-      <c r="M28" s="116"/>
-      <c r="N28" s="117"/>
-      <c r="P28" s="25"/>
-      <c r="Q28" s="26"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="26"/>
-      <c r="T28" s="97" t="s">
+      <c r="M28" s="139"/>
+      <c r="N28" s="140"/>
+      <c r="P28" s="72"/>
+      <c r="Q28" s="73"/>
+      <c r="R28" s="73"/>
+      <c r="S28" s="73"/>
+      <c r="T28" s="104" t="s">
         <v>116</v>
       </c>
-      <c r="U28" s="98"/>
-      <c r="V28" s="99"/>
-      <c r="W28" s="97" t="s">
+      <c r="U28" s="105"/>
+      <c r="V28" s="146"/>
+      <c r="W28" s="104" t="s">
         <v>119</v>
       </c>
-      <c r="X28" s="98"/>
-      <c r="Y28" s="100"/>
-      <c r="Z28" s="115" t="s">
+      <c r="X28" s="105"/>
+      <c r="Y28" s="106"/>
+      <c r="Z28" s="138" t="s">
         <v>120</v>
       </c>
-      <c r="AA28" s="116"/>
-      <c r="AB28" s="117"/>
+      <c r="AA28" s="139"/>
+      <c r="AB28" s="140"/>
     </row>
     <row r="29" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="25"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="97" t="s">
+      <c r="B29" s="72"/>
+      <c r="C29" s="73"/>
+      <c r="D29" s="73"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="98"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="101" t="s">
+      <c r="G29" s="105"/>
+      <c r="H29" s="146"/>
+      <c r="I29" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="J29" s="102"/>
-      <c r="K29" s="104"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="120"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="26"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="26"/>
-      <c r="T29" s="97" t="s">
+      <c r="J29" s="117"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="141"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="143"/>
+      <c r="P29" s="72"/>
+      <c r="Q29" s="73"/>
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="104" t="s">
         <v>123</v>
       </c>
-      <c r="U29" s="98"/>
-      <c r="V29" s="99"/>
-      <c r="W29" s="101" t="s">
+      <c r="U29" s="105"/>
+      <c r="V29" s="146"/>
+      <c r="W29" s="134" t="s">
         <v>124</v>
       </c>
-      <c r="X29" s="102"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="118"/>
-      <c r="AA29" s="119"/>
-      <c r="AB29" s="120"/>
+      <c r="X29" s="117"/>
+      <c r="Y29" s="118"/>
+      <c r="Z29" s="141"/>
+      <c r="AA29" s="142"/>
+      <c r="AB29" s="143"/>
     </row>
     <row r="30" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="25"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="97" t="s">
+      <c r="B30" s="72"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="104" t="s">
         <v>126</v>
       </c>
-      <c r="G30" s="98"/>
-      <c r="H30" s="99"/>
-      <c r="I30" s="94"/>
-      <c r="J30" s="95"/>
-      <c r="K30" s="96"/>
-      <c r="L30" s="90" t="s">
+      <c r="G30" s="105"/>
+      <c r="H30" s="146"/>
+      <c r="I30" s="135"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="97" t="s">
         <v>127</v>
       </c>
-      <c r="M30" s="105"/>
-      <c r="N30" s="91"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="26"/>
-      <c r="R30" s="26"/>
-      <c r="S30" s="26"/>
-      <c r="T30" s="97" t="s">
+      <c r="M30" s="98"/>
+      <c r="N30" s="99"/>
+      <c r="P30" s="72"/>
+      <c r="Q30" s="73"/>
+      <c r="R30" s="73"/>
+      <c r="S30" s="73"/>
+      <c r="T30" s="104" t="s">
         <v>128</v>
       </c>
-      <c r="U30" s="98"/>
-      <c r="V30" s="99"/>
-      <c r="W30" s="94"/>
-      <c r="X30" s="95"/>
-      <c r="Y30" s="96"/>
-      <c r="Z30" s="114" t="s">
+      <c r="U30" s="105"/>
+      <c r="V30" s="146"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="124"/>
+      <c r="Y30" s="136"/>
+      <c r="Z30" s="149" t="s">
         <v>129</v>
       </c>
-      <c r="AA30" s="105"/>
-      <c r="AB30" s="91"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="99"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="B31" s="25"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="97" t="s">
+      <c r="B31" s="72"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="104" t="s">
         <v>130</v>
       </c>
-      <c r="G31" s="98"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="97"/>
-      <c r="J31" s="98"/>
-      <c r="K31" s="100"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="26"/>
-      <c r="R31" s="26"/>
-      <c r="S31" s="26"/>
-      <c r="T31" s="97" t="s">
+      <c r="G31" s="105"/>
+      <c r="H31" s="146"/>
+      <c r="I31" s="104"/>
+      <c r="J31" s="105"/>
+      <c r="K31" s="106"/>
+      <c r="P31" s="72"/>
+      <c r="Q31" s="73"/>
+      <c r="R31" s="73"/>
+      <c r="S31" s="73"/>
+      <c r="T31" s="104" t="s">
         <v>131</v>
       </c>
-      <c r="U31" s="98"/>
-      <c r="V31" s="99"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="98"/>
-      <c r="Y31" s="100"/>
+      <c r="U31" s="105"/>
+      <c r="V31" s="146"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="106"/>
     </row>
     <row r="32" spans="1:28" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29"/>
-      <c r="F32" s="101" t="s">
+      <c r="B32" s="30"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="134" t="s">
         <v>132</v>
       </c>
-      <c r="G32" s="102"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="101"/>
-      <c r="J32" s="102"/>
-      <c r="K32" s="104"/>
-      <c r="P32" s="28"/>
-      <c r="Q32" s="29"/>
-      <c r="R32" s="29"/>
-      <c r="S32" s="29"/>
-      <c r="T32" s="101" t="s">
+      <c r="G32" s="117"/>
+      <c r="H32" s="150"/>
+      <c r="I32" s="134"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="118"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="31"/>
+      <c r="R32" s="31"/>
+      <c r="S32" s="31"/>
+      <c r="T32" s="134" t="s">
         <v>133</v>
       </c>
-      <c r="U32" s="102"/>
-      <c r="V32" s="103"/>
-      <c r="W32" s="101"/>
-      <c r="X32" s="102"/>
-      <c r="Y32" s="104"/>
+      <c r="U32" s="117"/>
+      <c r="V32" s="150"/>
+      <c r="W32" s="134"/>
+      <c r="X32" s="117"/>
+      <c r="Y32" s="118"/>
     </row>
     <row r="33" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="90" t="s">
+      <c r="B33" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="106" t="s">
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="107"/>
-      <c r="H33" s="108"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="112"/>
       <c r="I33" s="14"/>
       <c r="J33" s="14"/>
       <c r="K33" s="15"/>
     </row>
     <row r="34" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="109"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="97" t="s">
+      <c r="B34" s="100"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="28"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="G34" s="98"/>
-      <c r="H34" s="99"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="108"/>
-      <c r="L34" s="90" t="s">
+      <c r="G34" s="105"/>
+      <c r="H34" s="146"/>
+      <c r="I34" s="110"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="112"/>
+      <c r="L34" s="97" t="s">
         <v>136</v>
       </c>
-      <c r="M34" s="105"/>
-      <c r="N34" s="91"/>
+      <c r="M34" s="98"/>
+      <c r="N34" s="99"/>
     </row>
     <row r="35" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="25"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="97" t="s">
+      <c r="B35" s="72"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="104" t="s">
         <v>137</v>
       </c>
-      <c r="G35" s="98"/>
-      <c r="H35" s="99"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="95"/>
-      <c r="K35" s="96"/>
-      <c r="L35" s="113" t="s">
+      <c r="G35" s="105"/>
+      <c r="H35" s="146"/>
+      <c r="I35" s="135"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="136"/>
+      <c r="L35" s="101" t="s">
         <v>138</v>
       </c>
-      <c r="M35" s="105"/>
-      <c r="N35" s="91"/>
+      <c r="M35" s="98"/>
+      <c r="N35" s="99"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B36" s="25"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="97" t="s">
+      <c r="B36" s="72"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="104" t="s">
         <v>139</v>
       </c>
-      <c r="G36" s="98"/>
-      <c r="H36" s="99"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="95"/>
-      <c r="K36" s="96"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="146"/>
+      <c r="I36" s="135"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="136"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B37" s="25"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="97" t="s">
+      <c r="B37" s="72"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="104" t="s">
         <v>140</v>
       </c>
-      <c r="G37" s="98"/>
-      <c r="H37" s="99"/>
-      <c r="I37" s="94"/>
-      <c r="J37" s="95"/>
-      <c r="K37" s="96"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="146"/>
+      <c r="I37" s="135"/>
+      <c r="J37" s="124"/>
+      <c r="K37" s="136"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B38" s="25"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="97" t="s">
+      <c r="B38" s="72"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="104" t="s">
         <v>141</v>
       </c>
-      <c r="G38" s="98"/>
-      <c r="H38" s="99"/>
-      <c r="I38" s="97"/>
-      <c r="J38" s="98"/>
-      <c r="K38" s="100"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="146"/>
+      <c r="I38" s="104"/>
+      <c r="J38" s="105"/>
+      <c r="K38" s="106"/>
     </row>
     <row r="39" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="28"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="101"/>
-      <c r="G39" s="102"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="101"/>
-      <c r="J39" s="102"/>
-      <c r="K39" s="104"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="150"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="118"/>
     </row>
     <row r="40" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="90" t="s">
+      <c r="B40" s="97" t="s">
         <v>142</v>
       </c>
-      <c r="C40" s="105"/>
-      <c r="D40" s="105"/>
-      <c r="E40" s="105"/>
-      <c r="F40" s="106" t="s">
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
+      <c r="E40" s="98"/>
+      <c r="F40" s="110" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="107"/>
-      <c r="H40" s="108"/>
+      <c r="G40" s="111"/>
+      <c r="H40" s="112"/>
       <c r="I40" s="14"/>
       <c r="J40" s="14"/>
       <c r="K40" s="15"/>
     </row>
     <row r="41" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="109"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="97" t="s">
+      <c r="B41" s="100"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="G41" s="98"/>
-      <c r="H41" s="99"/>
-      <c r="I41" s="106" t="s">
+      <c r="G41" s="105"/>
+      <c r="H41" s="146"/>
+      <c r="I41" s="110" t="s">
         <v>143</v>
       </c>
-      <c r="J41" s="107"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="90" t="s">
+      <c r="J41" s="111"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="M41" s="105"/>
-      <c r="N41" s="91"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="99"/>
     </row>
     <row r="42" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="25"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="97" t="s">
+      <c r="B42" s="72"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="104" t="s">
         <v>145</v>
       </c>
-      <c r="G42" s="98"/>
-      <c r="H42" s="99"/>
-      <c r="I42" s="110" t="s">
+      <c r="G42" s="105"/>
+      <c r="H42" s="146"/>
+      <c r="I42" s="151" t="s">
         <v>146</v>
       </c>
-      <c r="J42" s="111"/>
-      <c r="K42" s="112"/>
-      <c r="L42" s="90" t="s">
+      <c r="J42" s="152"/>
+      <c r="K42" s="153"/>
+      <c r="L42" s="97" t="s">
         <v>147</v>
       </c>
-      <c r="M42" s="105"/>
-      <c r="N42" s="91"/>
+      <c r="M42" s="98"/>
+      <c r="N42" s="99"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="97" t="s">
+      <c r="B43" s="72"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="104" t="s">
         <v>148</v>
       </c>
-      <c r="G43" s="98"/>
-      <c r="H43" s="99"/>
-      <c r="I43" s="94"/>
-      <c r="J43" s="95"/>
-      <c r="K43" s="96"/>
+      <c r="G43" s="105"/>
+      <c r="H43" s="146"/>
+      <c r="I43" s="135"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="136"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="97" t="s">
+      <c r="B44" s="72"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="G44" s="98"/>
-      <c r="H44" s="99"/>
-      <c r="I44" s="94"/>
-      <c r="J44" s="95"/>
-      <c r="K44" s="96"/>
+      <c r="G44" s="105"/>
+      <c r="H44" s="146"/>
+      <c r="I44" s="135"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="136"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="97" t="s">
+      <c r="B45" s="72"/>
+      <c r="C45" s="73"/>
+      <c r="D45" s="73"/>
+      <c r="E45" s="73"/>
+      <c r="F45" s="104" t="s">
         <v>149</v>
       </c>
-      <c r="G45" s="98"/>
-      <c r="H45" s="99"/>
-      <c r="I45" s="97"/>
-      <c r="J45" s="98"/>
-      <c r="K45" s="100"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="146"/>
+      <c r="I45" s="104"/>
+      <c r="J45" s="105"/>
+      <c r="K45" s="106"/>
     </row>
     <row r="46" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="25"/>
-      <c r="C46" s="29"/>
-      <c r="D46" s="29"/>
-      <c r="E46" s="29"/>
-      <c r="F46" s="101" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="134" t="s">
         <v>150</v>
       </c>
-      <c r="G46" s="102"/>
-      <c r="H46" s="103"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="102"/>
-      <c r="K46" s="104"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="150"/>
+      <c r="I46" s="134"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="118"/>
     </row>
     <row r="47" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="90" t="s">
+      <c r="A47" s="97" t="s">
         <v>151</v>
       </c>
-      <c r="B47" s="91"/>
+      <c r="B47" s="99"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="E52" s="16" t="s">
@@ -15143,7 +14879,7 @@
       <c r="D54" t="s">
         <v>157</v>
       </c>
-      <c r="E54" s="92" t="s">
+      <c r="E54" s="154" t="s">
         <v>158</v>
       </c>
       <c r="F54" s="18"/>
@@ -15153,11 +14889,165 @@
       <c r="B55" s="19"/>
       <c r="C55" s="19"/>
       <c r="D55" s="19"/>
-      <c r="E55" s="93"/>
+      <c r="E55" s="155"/>
       <c r="F55" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="178">
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="I43:K43"/>
+    <mergeCell ref="F44:H44"/>
+    <mergeCell ref="I44:K44"/>
+    <mergeCell ref="F45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="F46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="B41:E46"/>
+    <mergeCell ref="F41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="F43:H43"/>
+    <mergeCell ref="F37:H37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="F38:H38"/>
+    <mergeCell ref="I38:K38"/>
+    <mergeCell ref="F39:H39"/>
+    <mergeCell ref="I39:K39"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="B34:E39"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="L34:N34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="L35:N35"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="I31:K31"/>
+    <mergeCell ref="T31:V31"/>
+    <mergeCell ref="W31:Y31"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="I32:K32"/>
+    <mergeCell ref="T32:V32"/>
+    <mergeCell ref="W32:Y32"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="W27:Y27"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="F28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="L28:N29"/>
+    <mergeCell ref="T28:V28"/>
+    <mergeCell ref="W28:Y28"/>
+    <mergeCell ref="Z28:AB29"/>
+    <mergeCell ref="F29:H29"/>
+    <mergeCell ref="I29:K29"/>
+    <mergeCell ref="B27:E32"/>
+    <mergeCell ref="F27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="L27:N27"/>
+    <mergeCell ref="P27:S32"/>
+    <mergeCell ref="T27:V27"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="F25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="T25:V25"/>
+    <mergeCell ref="W25:Y25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="F26:H26"/>
+    <mergeCell ref="P26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="B20:E25"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="L30:N30"/>
+    <mergeCell ref="T30:V30"/>
+    <mergeCell ref="W30:Y30"/>
+    <mergeCell ref="W22:Y22"/>
+    <mergeCell ref="F23:H23"/>
+    <mergeCell ref="I23:K23"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="W20:Y20"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="L21:N22"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="Z21:AB22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:K22"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="L20:N20"/>
+    <mergeCell ref="P20:S25"/>
+    <mergeCell ref="T20:V20"/>
+    <mergeCell ref="T22:V22"/>
+    <mergeCell ref="F24:H24"/>
+    <mergeCell ref="I24:K24"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="P19:S19"/>
+    <mergeCell ref="T19:V19"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="T17:V17"/>
+    <mergeCell ref="W17:Y17"/>
+    <mergeCell ref="B8:E18"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="W15:Y15"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="L14:N14"/>
+    <mergeCell ref="T14:V14"/>
+    <mergeCell ref="W14:Y14"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="L13:N13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="L12:N12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="W12:Y12"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="L11:N11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="W11:Y11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="W10:Y10"/>
+    <mergeCell ref="Z10:AB10"/>
     <mergeCell ref="A1:E5"/>
     <mergeCell ref="B7:E7"/>
     <mergeCell ref="F7:H7"/>
@@ -15182,160 +15072,6 @@
     <mergeCell ref="W8:Y8"/>
     <mergeCell ref="F11:H11"/>
     <mergeCell ref="I11:K11"/>
-    <mergeCell ref="L12:N12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="W12:Y12"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="L11:N11"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="W11:Y11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="W10:Y10"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="L14:N14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="W14:Y14"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="L13:N13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="P19:S19"/>
-    <mergeCell ref="T19:V19"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="T17:V17"/>
-    <mergeCell ref="W17:Y17"/>
-    <mergeCell ref="B8:E18"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="W15:Y15"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="W22:Y22"/>
-    <mergeCell ref="F23:H23"/>
-    <mergeCell ref="I23:K23"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="W20:Y20"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="L21:N22"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="Z21:AB22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:K22"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="L20:N20"/>
-    <mergeCell ref="P20:S25"/>
-    <mergeCell ref="T20:V20"/>
-    <mergeCell ref="T22:V22"/>
-    <mergeCell ref="F24:H24"/>
-    <mergeCell ref="I24:K24"/>
-    <mergeCell ref="B27:E32"/>
-    <mergeCell ref="F27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="L27:N27"/>
-    <mergeCell ref="P27:S32"/>
-    <mergeCell ref="T27:V27"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="F25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="T25:V25"/>
-    <mergeCell ref="W25:Y25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="F26:H26"/>
-    <mergeCell ref="P26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="B20:E25"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="T30:V30"/>
-    <mergeCell ref="W30:Y30"/>
-    <mergeCell ref="W27:Y27"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="F28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="L28:N29"/>
-    <mergeCell ref="T28:V28"/>
-    <mergeCell ref="W28:Y28"/>
-    <mergeCell ref="Z28:AB29"/>
-    <mergeCell ref="F29:H29"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="L34:N34"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="L35:N35"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="F31:H31"/>
-    <mergeCell ref="I31:K31"/>
-    <mergeCell ref="T31:V31"/>
-    <mergeCell ref="W31:Y31"/>
-    <mergeCell ref="F32:H32"/>
-    <mergeCell ref="I32:K32"/>
-    <mergeCell ref="T32:V32"/>
-    <mergeCell ref="W32:Y32"/>
-    <mergeCell ref="I36:K36"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="F38:H38"/>
-    <mergeCell ref="I38:K38"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="I39:K39"/>
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="B34:E39"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="B41:E46"/>
-    <mergeCell ref="F41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="F43:H43"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="I43:K43"/>
-    <mergeCell ref="F44:H44"/>
-    <mergeCell ref="I44:K44"/>
-    <mergeCell ref="F45:H45"/>
-    <mergeCell ref="I45:K45"/>
-    <mergeCell ref="F46:H46"/>
-    <mergeCell ref="I46:K46"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15354,139 +15090,139 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="D1" s="160"/>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="166"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A2" s="161"/>
-      <c r="B2" s="162"/>
-      <c r="C2" s="162"/>
-      <c r="D2" s="163"/>
+      <c r="A2" s="167"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="169"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="163"/>
+      <c r="A3" s="167"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="169"/>
     </row>
     <row r="4" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="164"/>
-      <c r="B4" s="165"/>
-      <c r="C4" s="165"/>
-      <c r="D4" s="166"/>
+      <c r="A4" s="170"/>
+      <c r="B4" s="171"/>
+      <c r="C4" s="171"/>
+      <c r="D4" s="172"/>
     </row>
     <row r="5" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="167" t="s">
+      <c r="B6" s="173" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="25"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="72"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="28"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
     </row>
     <row r="10" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="H11" s="150" t="s">
+      <c r="H11" s="156" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="151"/>
-      <c r="J11" s="151"/>
-      <c r="K11" s="151"/>
-      <c r="L11" s="151"/>
-      <c r="M11" s="152"/>
+      <c r="I11" s="157"/>
+      <c r="J11" s="157"/>
+      <c r="K11" s="157"/>
+      <c r="L11" s="157"/>
+      <c r="M11" s="158"/>
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H12" s="156"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="157"/>
-      <c r="K12" s="157"/>
-      <c r="L12" s="157"/>
-      <c r="M12" s="158"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="163"/>
+      <c r="J12" s="163"/>
+      <c r="K12" s="163"/>
+      <c r="L12" s="163"/>
+      <c r="M12" s="164"/>
     </row>
     <row r="27" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H28" s="150" t="s">
+      <c r="H28" s="156" t="s">
         <v>29</v>
       </c>
-      <c r="I28" s="151"/>
-      <c r="J28" s="151"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="152"/>
+      <c r="I28" s="157"/>
+      <c r="J28" s="157"/>
+      <c r="K28" s="157"/>
+      <c r="L28" s="158"/>
     </row>
     <row r="29" spans="8:12" x14ac:dyDescent="0.4">
-      <c r="H29" s="153"/>
-      <c r="I29" s="154"/>
-      <c r="J29" s="154"/>
-      <c r="K29" s="154"/>
-      <c r="L29" s="155"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="160"/>
+      <c r="J29" s="160"/>
+      <c r="K29" s="160"/>
+      <c r="L29" s="161"/>
     </row>
     <row r="30" spans="8:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H30" s="156"/>
-      <c r="I30" s="157"/>
-      <c r="J30" s="157"/>
-      <c r="K30" s="157"/>
-      <c r="L30" s="158"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="163"/>
+      <c r="J30" s="163"/>
+      <c r="K30" s="163"/>
+      <c r="L30" s="164"/>
     </row>
     <row r="38" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="39" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F39" s="168" t="s">
+      <c r="F39" s="174" t="s">
         <v>30</v>
       </c>
-      <c r="G39" s="169"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="170"/>
+      <c r="G39" s="175"/>
+      <c r="H39" s="175"/>
+      <c r="I39" s="175"/>
+      <c r="J39" s="176"/>
     </row>
     <row r="40" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F40" s="171"/>
-      <c r="G40" s="172"/>
-      <c r="H40" s="172"/>
-      <c r="I40" s="172"/>
-      <c r="J40" s="173"/>
+      <c r="F40" s="177"/>
+      <c r="G40" s="178"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="178"/>
+      <c r="J40" s="179"/>
     </row>
     <row r="41" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F41" s="174"/>
-      <c r="G41" s="175"/>
-      <c r="H41" s="175"/>
-      <c r="I41" s="175"/>
-      <c r="J41" s="176"/>
+      <c r="F41" s="180"/>
+      <c r="G41" s="181"/>
+      <c r="H41" s="181"/>
+      <c r="I41" s="181"/>
+      <c r="J41" s="182"/>
     </row>
     <row r="48" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="49" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F49" s="150" t="s">
+      <c r="F49" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="151"/>
-      <c r="H49" s="151"/>
-      <c r="I49" s="151"/>
-      <c r="J49" s="152"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="158"/>
     </row>
     <row r="50" spans="6:10" x14ac:dyDescent="0.4">
-      <c r="F50" s="153"/>
-      <c r="G50" s="154"/>
-      <c r="H50" s="154"/>
-      <c r="I50" s="154"/>
-      <c r="J50" s="155"/>
+      <c r="F50" s="159"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="161"/>
     </row>
     <row r="51" spans="6:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="F51" s="156"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="158"/>
+      <c r="F51" s="162"/>
+      <c r="G51" s="163"/>
+      <c r="H51" s="163"/>
+      <c r="I51" s="163"/>
+      <c r="J51" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -15515,224 +15251,224 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="184" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="179"/>
+      <c r="B1" s="185"/>
+      <c r="C1" s="185"/>
+      <c r="D1" s="185"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="179"/>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
+      <c r="A2" s="185"/>
+      <c r="B2" s="185"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
       <c r="F2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="179"/>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="179"/>
+      <c r="A3" s="185"/>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="180" t="s">
+      <c r="A4" s="186" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="181"/>
-      <c r="C4" s="181"/>
-      <c r="D4" s="181"/>
-      <c r="E4" s="181"/>
-      <c r="F4" s="181"/>
-      <c r="G4" s="182"/>
+      <c r="B4" s="187"/>
+      <c r="C4" s="187"/>
+      <c r="D4" s="187"/>
+      <c r="E4" s="187"/>
+      <c r="F4" s="187"/>
+      <c r="G4" s="188"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="183"/>
-      <c r="B5" s="184"/>
-      <c r="C5" s="184"/>
-      <c r="D5" s="184"/>
-      <c r="E5" s="184"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="185"/>
+      <c r="A5" s="189"/>
+      <c r="B5" s="190"/>
+      <c r="C5" s="190"/>
+      <c r="D5" s="190"/>
+      <c r="E5" s="190"/>
+      <c r="F5" s="190"/>
+      <c r="G5" s="191"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="192" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="100"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="105"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="186"/>
-      <c r="B7" s="98"/>
-      <c r="C7" s="98"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="100"/>
+      <c r="A7" s="192"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="106"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="100"/>
+      <c r="A8" s="104"/>
+      <c r="B8" s="105"/>
+      <c r="C8" s="105"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="105"/>
+      <c r="F8" s="105"/>
+      <c r="G8" s="106"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="97"/>
-      <c r="B9" s="98"/>
-      <c r="C9" s="98"/>
-      <c r="D9" s="177" t="s">
+      <c r="A9" s="104"/>
+      <c r="B9" s="105"/>
+      <c r="C9" s="105"/>
+      <c r="D9" s="183" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="98"/>
-      <c r="F9" s="98"/>
-      <c r="G9" s="100"/>
+      <c r="E9" s="105"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="97"/>
-      <c r="B10" s="98"/>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="98"/>
-      <c r="G10" s="100"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="106"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="97"/>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="100"/>
+      <c r="A11" s="104"/>
+      <c r="B11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="97"/>
-      <c r="B12" s="98"/>
-      <c r="C12" s="98"/>
-      <c r="D12" s="98"/>
-      <c r="E12" s="98"/>
-      <c r="F12" s="98"/>
-      <c r="G12" s="100"/>
+      <c r="A12" s="104"/>
+      <c r="B12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="105"/>
+      <c r="G12" s="106"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="97"/>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-      <c r="G13" s="100"/>
+      <c r="A13" s="104"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="97"/>
-      <c r="B14" s="98"/>
-      <c r="C14" s="98"/>
-      <c r="D14" s="98"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="98"/>
-      <c r="G14" s="100"/>
+      <c r="A14" s="104"/>
+      <c r="B14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15" s="97"/>
-      <c r="B15" s="98"/>
-      <c r="C15" s="98"/>
-      <c r="D15" s="98"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="98"/>
-      <c r="G15" s="100"/>
+      <c r="A15" s="104"/>
+      <c r="B15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16" s="97"/>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="98"/>
-      <c r="G16" s="100"/>
+      <c r="A16" s="104"/>
+      <c r="B16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="106"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="97"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="177" t="s">
+      <c r="A17" s="104"/>
+      <c r="B17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="183" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="100"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="105"/>
+      <c r="G17" s="106"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="97"/>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="98"/>
-      <c r="G18" s="100"/>
+      <c r="A18" s="104"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="106"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="97"/>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="98"/>
-      <c r="F19" s="98"/>
-      <c r="G19" s="100"/>
+      <c r="A19" s="104"/>
+      <c r="B19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="106"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="97"/>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="100"/>
+      <c r="A20" s="104"/>
+      <c r="B20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="105"/>
+      <c r="G20" s="106"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="97"/>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="100"/>
+      <c r="A21" s="104"/>
+      <c r="B21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="105"/>
+      <c r="G21" s="106"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="97"/>
-      <c r="B22" s="98"/>
-      <c r="C22" s="98"/>
-      <c r="D22" s="98"/>
-      <c r="E22" s="98"/>
-      <c r="F22" s="98"/>
-      <c r="G22" s="100"/>
+      <c r="A22" s="104"/>
+      <c r="B22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="105"/>
+      <c r="G22" s="106"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="97"/>
-      <c r="B23" s="98"/>
-      <c r="C23" s="98"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="98"/>
-      <c r="G23" s="100"/>
+      <c r="A23" s="104"/>
+      <c r="B23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="105"/>
+      <c r="G23" s="106"/>
     </row>
     <row r="24" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="101"/>
-      <c r="B24" s="102"/>
-      <c r="C24" s="102"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="104"/>
+      <c r="A24" s="134"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -15755,219 +15491,219 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="27" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
     </row>
     <row r="2" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C4" s="192"/>
-      <c r="D4" s="192"/>
-      <c r="E4" s="192"/>
-      <c r="F4" s="192"/>
-      <c r="G4" s="192"/>
-      <c r="H4" s="192"/>
-      <c r="I4" s="192"/>
-      <c r="J4" s="192"/>
-      <c r="K4" s="192"/>
-      <c r="L4" s="192"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C5" s="192"/>
-      <c r="D5" s="192"/>
-      <c r="E5" s="192"/>
-      <c r="F5" s="192"/>
-      <c r="G5" s="192"/>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="192"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C6" s="192"/>
-      <c r="D6" s="192"/>
-      <c r="E6" s="192"/>
-      <c r="F6" s="192"/>
-      <c r="G6" s="192"/>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="192"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C7" s="192"/>
-      <c r="D7" s="192"/>
-      <c r="E7" s="192"/>
-      <c r="F7" s="192"/>
-      <c r="G7" s="192"/>
-      <c r="H7" s="192"/>
-      <c r="I7" s="192"/>
-      <c r="J7" s="192"/>
-      <c r="K7" s="192"/>
-      <c r="L7" s="192"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C8" s="192"/>
-      <c r="D8" s="192"/>
-      <c r="E8" s="192"/>
-      <c r="F8" s="192"/>
-      <c r="G8" s="192"/>
-      <c r="H8" s="192"/>
-      <c r="I8" s="192"/>
-      <c r="J8" s="192"/>
-      <c r="K8" s="192"/>
-      <c r="L8" s="192"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C10" s="192"/>
-      <c r="D10" s="192"/>
-      <c r="E10" s="192"/>
-      <c r="F10" s="192"/>
-      <c r="G10" s="192"/>
-      <c r="H10" s="192"/>
-      <c r="I10" s="192"/>
-      <c r="J10" s="192"/>
-      <c r="K10" s="192"/>
-      <c r="L10" s="192"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C11" s="192"/>
-      <c r="D11" s="192"/>
-      <c r="E11" s="192"/>
-      <c r="F11" s="192"/>
-      <c r="G11" s="192"/>
-      <c r="H11" s="192"/>
-      <c r="I11" s="192"/>
-      <c r="J11" s="192"/>
-      <c r="K11" s="192"/>
-      <c r="L11" s="192"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="22"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="192"/>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192"/>
-      <c r="I16" s="192"/>
-      <c r="J16" s="192"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="192"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C17" s="192"/>
-      <c r="D17" s="192"/>
-      <c r="E17" s="192"/>
-      <c r="F17" s="192"/>
-      <c r="G17" s="192"/>
-      <c r="H17" s="192"/>
-      <c r="I17" s="192"/>
-      <c r="J17" s="192"/>
-      <c r="K17" s="192"/>
-      <c r="L17" s="192"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C19" s="192"/>
-      <c r="D19" s="192"/>
-      <c r="E19" s="192"/>
-      <c r="F19" s="192"/>
-      <c r="G19" s="192"/>
-      <c r="H19" s="192"/>
-      <c r="I19" s="192"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="192"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -16016,310 +15752,310 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:14" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="72"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="74"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A3" s="25"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="27"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="74"/>
     </row>
     <row r="4" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="6" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="75" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="47"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="64"/>
+      <c r="M7" s="64"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="33"/>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="48"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="65"/>
+      <c r="I8" s="65"/>
+      <c r="J8" s="65"/>
+      <c r="K8" s="65"/>
+      <c r="L8" s="65"/>
+      <c r="M8" s="65"/>
+      <c r="N8" s="67"/>
     </row>
     <row r="9" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="33"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="48"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="65"/>
+      <c r="L9" s="65"/>
+      <c r="M9" s="65"/>
+      <c r="N9" s="67"/>
     </row>
     <row r="10" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="33"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="48"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="67"/>
     </row>
     <row r="11" spans="1:14" ht="34.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="38" t="s">
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38" t="s">
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38" t="s">
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="M11" s="38"/>
-      <c r="N11" s="49"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="33"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="39" t="s">
+      <c r="B12" s="76"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39" t="s">
+      <c r="F12" s="62"/>
+      <c r="G12" s="62"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39" t="s">
+      <c r="J12" s="62"/>
+      <c r="K12" s="62"/>
+      <c r="L12" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="39"/>
-      <c r="N12" s="46"/>
+      <c r="M12" s="62"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="33"/>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="39" t="s">
+      <c r="B13" s="76"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39" t="s">
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39" t="s">
+      <c r="J13" s="62"/>
+      <c r="K13" s="62"/>
+      <c r="L13" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="M13" s="39"/>
-      <c r="N13" s="46"/>
+      <c r="M13" s="62"/>
+      <c r="N13" s="63"/>
     </row>
     <row r="14" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="33"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="39" t="s">
+      <c r="B14" s="76"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39" t="s">
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="39"/>
-      <c r="K14" s="39"/>
-      <c r="L14" s="39" t="s">
+      <c r="J14" s="62"/>
+      <c r="K14" s="62"/>
+      <c r="L14" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="M14" s="39"/>
-      <c r="N14" s="46"/>
+      <c r="M14" s="62"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="39" t="s">
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39" t="s">
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39" t="s">
+      <c r="J15" s="62"/>
+      <c r="K15" s="62"/>
+      <c r="L15" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="M15" s="39"/>
-      <c r="N15" s="46"/>
+      <c r="M15" s="62"/>
+      <c r="N15" s="63"/>
     </row>
     <row r="16" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="33"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="39" t="s">
+      <c r="B16" s="76"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="68" t="s">
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="J16" s="69"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="39" t="s">
+      <c r="J16" s="52"/>
+      <c r="K16" s="53"/>
+      <c r="L16" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="M16" s="39"/>
-      <c r="N16" s="46"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="33"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="40"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="71"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="42"/>
+      <c r="B17" s="76"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="60"/>
     </row>
     <row r="18" spans="1:14" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="37"/>
-      <c r="F18" s="37"/>
-      <c r="G18" s="37"/>
-      <c r="H18" s="37"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="44"/>
-      <c r="N18" s="45"/>
+      <c r="B18" s="78"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="61"/>
     </row>
     <row r="20" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="52"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="35"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A22" s="53"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="55"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A23" s="53"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="55"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="56"/>
-      <c r="B24" s="57"/>
-      <c r="C24" s="57"/>
-      <c r="D24" s="58"/>
+      <c r="A24" s="39"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="40"/>
+      <c r="D24" s="41"/>
     </row>
     <row r="26" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
-      <c r="F27" s="61"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="44"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D28" s="63"/>
-      <c r="E28" s="63"/>
-      <c r="F28" s="64"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="47"/>
     </row>
     <row r="29" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C29" s="65" t="s">
+      <c r="C29" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="66"/>
-      <c r="E29" s="66"/>
-      <c r="F29" s="67"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="50"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -16329,13 +16065,18 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
-    <mergeCell ref="A21:D24"/>
-    <mergeCell ref="C27:F27"/>
-    <mergeCell ref="C28:F28"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="A1:E4"/>
+    <mergeCell ref="B7:D10"/>
+    <mergeCell ref="B11:D14"/>
+    <mergeCell ref="B15:D18"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="L17:N17"/>
     <mergeCell ref="L18:N18"/>
     <mergeCell ref="L16:N16"/>
@@ -16352,18 +16093,13 @@
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="I14:K14"/>
     <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="E17:H17"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="A1:E4"/>
-    <mergeCell ref="B7:D10"/>
-    <mergeCell ref="B11:D14"/>
-    <mergeCell ref="B15:D18"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E7:H10"/>
+    <mergeCell ref="A21:D24"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C28:F28"/>
+    <mergeCell ref="C29:F29"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="I18:K18"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16383,52 +16119,52 @@
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="71" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="83"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="89"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="92"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="86"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="92"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
-      <c r="C4" s="88"/>
-      <c r="D4" s="88"/>
-      <c r="E4" s="89"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
     </row>
     <row r="6" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="73" t="s">
+      <c r="A7" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
+      <c r="B7" s="80"/>
+      <c r="C7" s="81"/>
     </row>
     <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="78"/>
+      <c r="A8" s="82"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="84"/>
     </row>
     <row r="9" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="79"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
+      <c r="A9" s="85"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
     </row>
     <row r="27" spans="1:11" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="28" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -16469,91 +16205,91 @@
     </row>
     <row r="52" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" s="73" t="s">
+      <c r="A53" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B53" s="74"/>
-      <c r="C53" s="74"/>
-      <c r="D53" s="74"/>
-      <c r="E53" s="74"/>
-      <c r="F53" s="74"/>
-      <c r="G53" s="74"/>
-      <c r="H53" s="75"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
+      <c r="G53" s="80"/>
+      <c r="H53" s="81"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" s="76"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="77"/>
-      <c r="D54" s="77"/>
-      <c r="E54" s="77"/>
-      <c r="F54" s="77"/>
-      <c r="G54" s="77"/>
-      <c r="H54" s="78"/>
+      <c r="A54" s="82"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="83"/>
+      <c r="D54" s="83"/>
+      <c r="E54" s="83"/>
+      <c r="F54" s="83"/>
+      <c r="G54" s="83"/>
+      <c r="H54" s="84"/>
     </row>
     <row r="55" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A55" s="79"/>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="81"/>
+      <c r="A55" s="85"/>
+      <c r="B55" s="86"/>
+      <c r="C55" s="86"/>
+      <c r="D55" s="86"/>
+      <c r="E55" s="86"/>
+      <c r="F55" s="86"/>
+      <c r="G55" s="86"/>
+      <c r="H55" s="87"/>
     </row>
     <row r="58" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A59" s="73" t="s">
+      <c r="A59" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="24"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="28"/>
+      <c r="D59" s="28"/>
+      <c r="E59" s="29"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" s="25"/>
-      <c r="B60" s="26"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="27"/>
+      <c r="A60" s="72"/>
+      <c r="B60" s="73"/>
+      <c r="C60" s="73"/>
+      <c r="D60" s="73"/>
+      <c r="E60" s="74"/>
     </row>
     <row r="61" spans="1:8" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="28"/>
-      <c r="B61" s="29"/>
-      <c r="C61" s="29"/>
-      <c r="D61" s="29"/>
-      <c r="E61" s="30"/>
+      <c r="A61" s="30"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="31"/>
+      <c r="D61" s="31"/>
+      <c r="E61" s="32"/>
     </row>
     <row r="74" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="75" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="B75" s="74"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="75"/>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="81"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A76" s="76"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="78"/>
+      <c r="A76" s="82"/>
+      <c r="B76" s="83"/>
+      <c r="C76" s="83"/>
+      <c r="D76" s="83"/>
+      <c r="E76" s="84"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A77" s="76"/>
-      <c r="B77" s="77"/>
-      <c r="C77" s="77"/>
-      <c r="D77" s="77"/>
-      <c r="E77" s="78"/>
+      <c r="A77" s="82"/>
+      <c r="B77" s="83"/>
+      <c r="C77" s="83"/>
+      <c r="D77" s="83"/>
+      <c r="E77" s="84"/>
     </row>
     <row r="78" spans="1:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="79"/>
-      <c r="B78" s="80"/>
-      <c r="C78" s="80"/>
-      <c r="D78" s="80"/>
-      <c r="E78" s="81"/>
+      <c r="A78" s="85"/>
+      <c r="B78" s="86"/>
+      <c r="C78" s="86"/>
+      <c r="D78" s="86"/>
+      <c r="E78" s="87"/>
     </row>
   </sheetData>
   <customSheetViews>
@@ -16613,7 +16349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData/>

--- a/死神のお仕事　仕様書.xlsx
+++ b/死神のお仕事　仕様書.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" firstSheet="2" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="シーンフロー" sheetId="1" r:id="rId1"/>
@@ -2801,518 +2801,518 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="59" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="57" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="58" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyB